--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T253"/>
+  <dimension ref="A1:T256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -9404,20 +9404,20 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>115</v>
+        <v>680</v>
       </c>
       <c r="N113" t="n">
         <v>12000</v>
       </c>
       <c r="O113" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P113" t="n">
-        <v>12000</v>
+        <v>12279</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9475,41 +9475,41 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>255</v>
+        <v>650</v>
       </c>
       <c r="N114" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="O114" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="P114" t="n">
-        <v>36000</v>
+        <v>21462</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>2000</v>
+        <v>1073</v>
       </c>
       <c r="T114" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N115" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P115" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="N116" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O116" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P116" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9715,38 +9715,38 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>36000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>36000</v>
       </c>
       <c r="P117" t="n">
-        <v>7508</v>
+        <v>36000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>417</v>
+        <v>2000</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44295</v>
+        <v>44377</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N118" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="O118" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1278</v>
+        <v>667</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44194</v>
+        <v>44377</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N119" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O119" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P119" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9955,25 +9955,25 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="N120" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>12000</v>
+        <v>7508</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N121" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O121" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P121" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>667</v>
+        <v>1278</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10115,16 +10115,16 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N122" t="n">
         <v>14000</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="T122" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10195,29 +10195,29 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N123" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="O123" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="P123" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="T123" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -10280,24 +10280,24 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>100</v>
       </c>
       <c r="N124" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O124" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P124" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10309,7 +10309,7 @@
         <v>667</v>
       </c>
       <c r="T124" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -10360,24 +10360,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N125" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O125" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P125" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>300</v>
+        <v>933</v>
       </c>
       <c r="T125" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="N126" t="n">
-        <v>11000</v>
+        <v>4300</v>
       </c>
       <c r="O126" t="n">
-        <v>12000</v>
+        <v>4300</v>
       </c>
       <c r="P126" t="n">
-        <v>11529</v>
+        <v>4300</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1153</v>
+        <v>430</v>
       </c>
       <c r="T126" t="n">
         <v>10</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,20 +10524,20 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N127" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O127" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P127" t="n">
-        <v>20417</v>
+        <v>10000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1134</v>
+        <v>667</v>
       </c>
       <c r="T127" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="N128" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P128" t="n">
-        <v>8621</v>
+        <v>3000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>862</v>
+        <v>300</v>
       </c>
       <c r="T128" t="n">
         <v>10</v>
@@ -10680,24 +10680,24 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>40</v>
+        <v>850</v>
       </c>
       <c r="N129" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P129" t="n">
-        <v>14000</v>
+        <v>11529</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>778</v>
+        <v>1153</v>
       </c>
       <c r="T129" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N130" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O130" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P130" t="n">
-        <v>18760</v>
+        <v>20417</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1042</v>
+        <v>1134</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="N131" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O131" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P131" t="n">
-        <v>5500</v>
+        <v>8621</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>550</v>
+        <v>862</v>
       </c>
       <c r="T131" t="n">
         <v>10</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10920,24 +10920,24 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="N132" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O132" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P132" t="n">
-        <v>4753</v>
+        <v>14000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>475</v>
+        <v>778</v>
       </c>
       <c r="T132" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N133" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O133" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P133" t="n">
-        <v>13000</v>
+        <v>18760</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>722</v>
+        <v>1042</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="N134" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P134" t="n">
-        <v>9471</v>
+        <v>5500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>947</v>
+        <v>550</v>
       </c>
       <c r="T134" t="n">
         <v>10</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11160,24 +11160,24 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="N135" t="n">
-        <v>450000</v>
+        <v>4500</v>
       </c>
       <c r="O135" t="n">
-        <v>450000</v>
+        <v>5000</v>
       </c>
       <c r="P135" t="n">
-        <v>450000</v>
+        <v>4753</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="T135" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11240,24 +11240,24 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="N136" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P136" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1050</v>
+        <v>722</v>
       </c>
       <c r="T136" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>650</v>
+        <v>170</v>
       </c>
       <c r="N137" t="n">
         <v>9000</v>
       </c>
       <c r="O137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>9000</v>
+        <v>9471</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>947</v>
       </c>
       <c r="T137" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -11395,29 +11395,29 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="N138" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="O138" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="P138" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T138" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11480,24 +11480,24 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="N139" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="O139" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="P139" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>694</v>
+        <v>1050</v>
       </c>
       <c r="T139" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11564,20 +11564,20 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N140" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T140" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11635,29 +11635,29 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N141" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O141" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P141" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="T141" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="N142" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O142" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="P142" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1250</v>
+        <v>694</v>
       </c>
       <c r="T142" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N143" t="n">
         <v>10000</v>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T143" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="N144" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O144" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P144" t="n">
-        <v>17429</v>
+        <v>21000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>968</v>
+        <v>1167</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N145" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O145" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P145" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>556</v>
+        <v>1250</v>
       </c>
       <c r="T145" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E146" t="n">
         <v>9</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T146" t="n">
         <v>10</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12124,29 +12124,29 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>255</v>
+        <v>420</v>
       </c>
       <c r="N147" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="O147" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="P147" t="n">
-        <v>34000</v>
+        <v>17429</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1889</v>
+        <v>968</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E148" t="n">
         <v>9</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N148" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="O148" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="P148" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>2056</v>
+        <v>556</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12275,29 +12275,29 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>450</v>
+        <v>285</v>
       </c>
       <c r="N149" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O149" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P149" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T149" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44274</v>
+        <v>44300</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -12364,29 +12364,29 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="N150" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="O150" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="P150" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>778</v>
+        <v>1889</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E151" t="n">
         <v>9</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12444,32 +12444,32 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="N151" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="O151" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="P151" t="n">
-        <v>12476</v>
+        <v>37000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1248</v>
+        <v>2056</v>
       </c>
       <c r="T151" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
@@ -12520,36 +12520,36 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N152" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O152" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P152" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T152" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E153" t="n">
         <v>9</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12604,32 +12604,32 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="N153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T153" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -12675,25 +12675,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="N154" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O154" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P154" t="n">
-        <v>10000</v>
+        <v>12476</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1000</v>
+        <v>1248</v>
       </c>
       <c r="T154" t="n">
         <v>10</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E155" t="n">
         <v>9</v>
@@ -12755,25 +12755,25 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="N155" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O155" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T155" t="n">
         <v>10</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E156" t="n">
         <v>9</v>
@@ -12835,41 +12835,41 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="N156" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="P156" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>2056</v>
+        <v>1200</v>
       </c>
       <c r="T156" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E157" t="n">
         <v>9</v>
@@ -12915,16 +12915,16 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N157" t="n">
         <v>10000</v>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S157" t="n">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E158" t="n">
         <v>9</v>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -13004,32 +13004,32 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>556</v>
+        <v>1500</v>
       </c>
       <c r="T158" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E159" t="n">
         <v>9</v>
@@ -13075,41 +13075,41 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="N159" t="n">
-        <v>202000</v>
+        <v>37000</v>
       </c>
       <c r="O159" t="n">
-        <v>225000</v>
+        <v>37000</v>
       </c>
       <c r="P159" t="n">
-        <v>214545</v>
+        <v>37000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>477</v>
+        <v>2056</v>
       </c>
       <c r="T159" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
@@ -13160,24 +13160,24 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,10 +13186,10 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T160" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E162" t="n">
         <v>9</v>
@@ -13324,20 +13324,20 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="N162" t="n">
-        <v>6000</v>
+        <v>202000</v>
       </c>
       <c r="O162" t="n">
-        <v>6000</v>
+        <v>225000</v>
       </c>
       <c r="P162" t="n">
-        <v>6000</v>
+        <v>214545</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>600</v>
+        <v>477</v>
       </c>
       <c r="T162" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E163" t="n">
         <v>9</v>
@@ -13400,24 +13400,24 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N163" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>300</v>
+        <v>533</v>
       </c>
       <c r="T163" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E164" t="n">
         <v>9</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N164" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>23400</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13502,11 +13502,11 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1250</v>
+        <v>444</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E165" t="n">
         <v>9</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O165" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P165" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T165" t="n">
         <v>10</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E166" t="n">
         <v>9</v>
@@ -13635,41 +13635,41 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="N166" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="O166" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="P166" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S166" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="T166" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E167" t="n">
         <v>9</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -13724,20 +13724,20 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N167" t="n">
-        <v>15500</v>
+        <v>21600</v>
       </c>
       <c r="O167" t="n">
-        <v>15500</v>
+        <v>23400</v>
       </c>
       <c r="P167" t="n">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,10 +13746,10 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="T167" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E168" t="n">
         <v>9</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="N168" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O168" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P168" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T168" t="n">
         <v>10</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E169" t="n">
         <v>9</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -13884,32 +13884,32 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T169" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E170" t="n">
         <v>9</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N170" t="n">
-        <v>4000</v>
+        <v>15500</v>
       </c>
       <c r="O170" t="n">
-        <v>4000</v>
+        <v>15500</v>
       </c>
       <c r="P170" t="n">
-        <v>4000</v>
+        <v>15500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>400</v>
+        <v>1550</v>
       </c>
       <c r="T170" t="n">
         <v>10</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E171" t="n">
         <v>9</v>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -14044,32 +14044,32 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N171" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O171" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P171" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T171" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -14120,24 +14120,24 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N172" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O172" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P172" t="n">
-        <v>3714</v>
+        <v>12000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>371</v>
+        <v>667</v>
       </c>
       <c r="T172" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E173" t="n">
         <v>9</v>
@@ -14207,17 +14207,17 @@
         <v>200</v>
       </c>
       <c r="N173" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O173" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P173" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="T173" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E174" t="n">
         <v>9</v>
@@ -14284,20 +14284,20 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N174" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="O174" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="P174" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T174" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E175" t="n">
         <v>9</v>
@@ -14364,20 +14364,20 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="N175" t="n">
-        <v>225000</v>
+        <v>3000</v>
       </c>
       <c r="O175" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="P175" t="n">
-        <v>225000</v>
+        <v>3714</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>500</v>
+        <v>371</v>
       </c>
       <c r="T175" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E176" t="n">
         <v>9</v>
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N176" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O176" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P176" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="T176" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E177" t="n">
         <v>9</v>
@@ -14524,20 +14524,20 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>420</v>
+        <v>10</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="O177" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="P177" t="n">
-        <v>12524</v>
+        <v>270000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>696</v>
+        <v>600</v>
       </c>
       <c r="T177" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E178" t="n">
         <v>9</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N178" t="n">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="O178" t="n">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="P178" t="n">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T178" t="n">
         <v>450</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N179" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O179" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P179" t="n">
-        <v>5556</v>
+        <v>8000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T179" t="n">
         <v>10</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E180" t="n">
         <v>9</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14764,32 +14764,32 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>265</v>
+        <v>420</v>
       </c>
       <c r="N180" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O180" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P180" t="n">
-        <v>15000</v>
+        <v>12524</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1500</v>
+        <v>696</v>
       </c>
       <c r="T180" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E181" t="n">
         <v>9</v>
@@ -14835,41 +14835,41 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="N181" t="n">
-        <v>11000</v>
+        <v>315000</v>
       </c>
       <c r="O181" t="n">
-        <v>11000</v>
+        <v>315000</v>
       </c>
       <c r="P181" t="n">
-        <v>11000</v>
+        <v>315000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="T181" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E182" t="n">
         <v>9</v>
@@ -14915,29 +14915,29 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N182" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O182" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P182" t="n">
-        <v>20000</v>
+        <v>5556</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="T182" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E183" t="n">
         <v>9</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15004,32 +15004,32 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="N183" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O183" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P183" t="n">
-        <v>10468</v>
+        <v>15000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>582</v>
+        <v>1500</v>
       </c>
       <c r="T183" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E184" t="n">
         <v>9</v>
@@ -15080,36 +15080,36 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="N184" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O184" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P184" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="T184" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E185" t="n">
         <v>9</v>
@@ -15155,25 +15155,25 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N185" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O185" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P185" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E186" t="n">
         <v>9</v>
@@ -15240,24 +15240,24 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="N186" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O186" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="P186" t="n">
-        <v>22500</v>
+        <v>10468</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,10 +15266,10 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1125</v>
+        <v>582</v>
       </c>
       <c r="T186" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E187" t="n">
         <v>9</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N187" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O187" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P187" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N188" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O188" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P188" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T188" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E189" t="n">
         <v>9</v>
@@ -15480,24 +15480,24 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="N189" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O189" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="P189" t="n">
-        <v>8481</v>
+        <v>22500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>471</v>
+        <v>1125</v>
       </c>
       <c r="T189" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E190" t="n">
         <v>9</v>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15564,20 +15564,20 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="N190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,10 +15586,10 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T190" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E191" t="n">
         <v>9</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N191" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O191" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P191" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="T191" t="n">
         <v>10</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E192" t="n">
         <v>9</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="N192" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O192" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="P192" t="n">
-        <v>28000</v>
+        <v>8481</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1556</v>
+        <v>471</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E193" t="n">
         <v>9</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N193" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O193" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P193" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T193" t="n">
         <v>10</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E194" t="n">
         <v>9</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15884,32 +15884,32 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N194" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O194" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P194" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T194" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E195" t="n">
         <v>9</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N195" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="O195" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="P195" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15982,11 +15982,11 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1000</v>
+        <v>1556</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16040,11 +16040,11 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N196" t="n">
         <v>15000</v>
@@ -16057,19 +16057,19 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S196" t="n">
-        <v>833</v>
+        <v>1500</v>
       </c>
       <c r="T196" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44181</v>
+        <v>44294</v>
       </c>
       <c r="E197" t="n">
         <v>9</v>
@@ -16120,24 +16120,24 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N197" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="O197" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="P197" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>944</v>
+        <v>1500</v>
       </c>
       <c r="T197" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44181</v>
+        <v>44294</v>
       </c>
       <c r="E198" t="n">
         <v>9</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N198" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O198" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P198" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16222,11 +16222,11 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E199" t="n">
         <v>9</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>405</v>
+        <v>30</v>
       </c>
       <c r="N199" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O199" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P199" t="n">
-        <v>9617</v>
+        <v>15000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>534</v>
+        <v>833</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E200" t="n">
         <v>9</v>
@@ -16355,41 +16355,41 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M200" t="n">
         <v>100</v>
       </c>
       <c r="N200" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="O200" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="P200" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1550</v>
+        <v>944</v>
       </c>
       <c r="T200" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E201" t="n">
         <v>9</v>
@@ -16435,16 +16435,16 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="N201" t="n">
         <v>10000</v>
@@ -16457,19 +16457,19 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T201" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E202" t="n">
         <v>9</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>155</v>
+        <v>405</v>
       </c>
       <c r="N202" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O202" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P202" t="n">
-        <v>18000</v>
+        <v>9617</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1000</v>
+        <v>534</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E203" t="n">
         <v>9</v>
@@ -16595,41 +16595,41 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N203" t="n">
-        <v>14400</v>
+        <v>15500</v>
       </c>
       <c r="O203" t="n">
-        <v>14400</v>
+        <v>15500</v>
       </c>
       <c r="P203" t="n">
-        <v>14400</v>
+        <v>15500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S203" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T203" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E204" t="n">
         <v>9</v>
@@ -16675,41 +16675,41 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N204" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O204" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P204" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T204" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E205" t="n">
         <v>9</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="N205" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O205" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P205" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E206" t="n">
         <v>9</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N206" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="O206" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P206" t="n">
-        <v>14583</v>
+        <v>14400</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E207" t="n">
         <v>9</v>
@@ -16915,29 +16915,29 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N207" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O207" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P207" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,10 +16946,10 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T207" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
@@ -16995,29 +16995,29 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N208" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O208" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P208" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T208" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E209" t="n">
         <v>9</v>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N209" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O209" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P209" t="n">
-        <v>16000</v>
+        <v>14583</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>889</v>
+        <v>810</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E210" t="n">
         <v>9</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17164,20 +17164,20 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N210" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="O210" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P210" t="n">
-        <v>27600</v>
+        <v>12000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1533</v>
+        <v>1200</v>
       </c>
       <c r="T210" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E211" t="n">
         <v>9</v>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -17244,20 +17244,20 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N211" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O211" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P211" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1222</v>
+        <v>800</v>
       </c>
       <c r="T211" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E212" t="n">
         <v>9</v>
@@ -17315,29 +17315,29 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N212" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O212" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P212" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T212" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E213" t="n">
         <v>9</v>
@@ -17395,41 +17395,41 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N213" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="O213" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="P213" t="n">
-        <v>13000</v>
+        <v>27600</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1300</v>
+        <v>1533</v>
       </c>
       <c r="T213" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N214" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O214" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P214" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1333</v>
+        <v>1222</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="E215" t="n">
         <v>9</v>
@@ -17555,29 +17555,29 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="N215" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O215" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P215" t="n">
-        <v>16565</v>
+        <v>15000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="T215" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N216" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="O216" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P216" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1278</v>
+        <v>1300</v>
       </c>
       <c r="T216" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E217" t="n">
         <v>9</v>
@@ -17724,20 +17724,20 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N217" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O217" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P217" t="n">
-        <v>11500</v>
+        <v>24000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1150</v>
+        <v>1333</v>
       </c>
       <c r="T217" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E218" t="n">
         <v>9</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="N218" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O218" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P218" t="n">
-        <v>18000</v>
+        <v>16565</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17822,11 +17822,11 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17875,29 +17875,29 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="N219" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O219" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P219" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1150</v>
+        <v>1278</v>
       </c>
       <c r="T219" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -17955,29 +17955,29 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N220" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O220" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P220" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,10 +17986,10 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>778</v>
+        <v>1150</v>
       </c>
       <c r="T220" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E221" t="n">
         <v>9</v>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18044,20 +18044,20 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N221" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O221" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P221" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -18066,10 +18066,10 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T221" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E222" t="n">
         <v>9</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>155</v>
+        <v>600</v>
       </c>
       <c r="N222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O222" t="n">
         <v>12000</v>
       </c>
       <c r="P222" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T222" t="n">
         <v>10</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44281</v>
+        <v>44319</v>
       </c>
       <c r="E223" t="n">
         <v>9</v>
@@ -18195,25 +18195,25 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M223" t="n">
         <v>50</v>
       </c>
       <c r="N223" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O223" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P223" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1222</v>
+        <v>778</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E224" t="n">
         <v>9</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18284,32 +18284,32 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="N224" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O224" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P224" t="n">
-        <v>17478</v>
+        <v>15000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>971</v>
+        <v>1500</v>
       </c>
       <c r="T224" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E225" t="n">
         <v>9</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,32 +18364,32 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="N225" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O225" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P225" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S225" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T225" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E226" t="n">
         <v>9</v>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18444,32 +18444,32 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N226" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O226" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P226" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>2000</v>
+        <v>1222</v>
       </c>
       <c r="T226" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44301</v>
+        <v>44160</v>
       </c>
       <c r="E227" t="n">
         <v>9</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="N227" t="n">
-        <v>23400</v>
+        <v>17000</v>
       </c>
       <c r="O227" t="n">
-        <v>23400</v>
+        <v>18000</v>
       </c>
       <c r="P227" t="n">
-        <v>23400</v>
+        <v>17478</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1300</v>
+        <v>971</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E228" t="n">
         <v>9</v>
@@ -18595,29 +18595,29 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N228" t="n">
-        <v>200000</v>
+        <v>14400</v>
       </c>
       <c r="O228" t="n">
-        <v>200000</v>
+        <v>14400</v>
       </c>
       <c r="P228" t="n">
-        <v>200000</v>
+        <v>14400</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -18626,10 +18626,10 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T228" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E229" t="n">
         <v>9</v>
@@ -18680,36 +18680,36 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="N229" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="O229" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="P229" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="T229" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="N230" t="n">
-        <v>9000</v>
+        <v>23400</v>
       </c>
       <c r="O230" t="n">
-        <v>10000</v>
+        <v>23400</v>
       </c>
       <c r="P230" t="n">
-        <v>9405</v>
+        <v>23400</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>522</v>
+        <v>1300</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N231" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O231" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P231" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T231" t="n">
         <v>450</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E232" t="n">
         <v>9</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>800</v>
+        <v>255</v>
       </c>
       <c r="N232" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O232" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P232" t="n">
-        <v>12562</v>
+        <v>5000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18942,11 +18942,11 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1256</v>
+        <v>500</v>
       </c>
       <c r="T232" t="n">
         <v>10</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E233" t="n">
         <v>9</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -19004,32 +19004,32 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="N233" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O233" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P233" t="n">
-        <v>12000</v>
+        <v>9405</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1200</v>
+        <v>522</v>
       </c>
       <c r="T233" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E234" t="n">
         <v>9</v>
@@ -19080,24 +19080,24 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="N234" t="n">
-        <v>5500</v>
+        <v>180000</v>
       </c>
       <c r="O234" t="n">
-        <v>5500</v>
+        <v>180000</v>
       </c>
       <c r="P234" t="n">
-        <v>5500</v>
+        <v>180000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="T234" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E235" t="n">
         <v>9</v>
@@ -19160,36 +19160,36 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="N235" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O235" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P235" t="n">
-        <v>22000</v>
+        <v>12562</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1100</v>
+        <v>1256</v>
       </c>
       <c r="T235" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E236" t="n">
         <v>9</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19244,32 +19244,32 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="N236" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
         <v>12000</v>
       </c>
       <c r="P236" t="n">
-        <v>11163</v>
+        <v>12000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>620</v>
+        <v>1200</v>
       </c>
       <c r="T236" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E237" t="n">
         <v>9</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N237" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O237" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P237" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="T237" t="n">
         <v>10</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E238" t="n">
         <v>9</v>
@@ -19404,20 +19404,20 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>5</v>
+        <v>380</v>
       </c>
       <c r="N238" t="n">
-        <v>450000</v>
+        <v>22000</v>
       </c>
       <c r="O238" t="n">
-        <v>450000</v>
+        <v>22000</v>
       </c>
       <c r="P238" t="n">
-        <v>450000</v>
+        <v>22000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T238" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E239" t="n">
         <v>9</v>
@@ -19484,20 +19484,20 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>15</v>
+        <v>430</v>
       </c>
       <c r="N239" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="O239" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="P239" t="n">
-        <v>225000</v>
+        <v>11163</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>500</v>
+        <v>620</v>
       </c>
       <c r="T239" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240">
@@ -19560,24 +19560,24 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N240" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O240" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P240" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T240" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -19640,24 +19640,24 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="N241" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="P241" t="n">
-        <v>10842</v>
+        <v>450000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>602</v>
+        <v>1000</v>
       </c>
       <c r="T241" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -19724,20 +19724,20 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="N242" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="O242" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="P242" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T242" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -19795,29 +19795,29 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N243" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="O243" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="P243" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,10 +19826,10 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1444</v>
+        <v>400</v>
       </c>
       <c r="T243" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="N244" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O244" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P244" t="n">
-        <v>22000</v>
+        <v>10842</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1222</v>
+        <v>602</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="N245" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P245" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -20035,29 +20035,29 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="N246" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="O246" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P246" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1000</v>
+        <v>1444</v>
       </c>
       <c r="T246" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44179</v>
+        <v>44343</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -20115,29 +20115,29 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N247" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P247" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>800</v>
+        <v>1222</v>
       </c>
       <c r="T247" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="N248" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O248" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P248" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T248" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -20284,20 +20284,20 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="N249" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O249" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P249" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="T249" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N250" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O250" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P250" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T250" t="n">
         <v>10</v>
@@ -20440,24 +20440,24 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M251" t="n">
         <v>200</v>
       </c>
       <c r="N251" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O251" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P251" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T251" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N252" t="n">
-        <v>270000</v>
+        <v>19000</v>
       </c>
       <c r="O252" t="n">
-        <v>270000</v>
+        <v>19000</v>
       </c>
       <c r="P252" t="n">
-        <v>270000</v>
+        <v>19000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>600</v>
+        <v>1056</v>
       </c>
       <c r="T252" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20604,31 +20604,271 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N253" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O253" t="n">
         <v>10000</v>
       </c>
       <c r="P253" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S253" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T253" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>10</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E254" t="n">
+        <v>9</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>200</v>
+      </c>
+      <c r="N254" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O254" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P254" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S254" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T254" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>10</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E255" t="n">
+        <v>9</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>8</v>
+      </c>
+      <c r="N255" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O255" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P255" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S255" t="n">
+        <v>600</v>
+      </c>
+      <c r="T255" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>10</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E256" t="n">
+        <v>9</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>700</v>
+      </c>
+      <c r="N256" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O256" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P256" t="n">
         <v>9429</v>
       </c>
-      <c r="Q253" t="inlineStr">
+      <c r="Q256" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R253" t="inlineStr">
+      <c r="R256" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S253" t="n">
+      <c r="S256" t="n">
         <v>943</v>
       </c>
-      <c r="T253" t="n">
+      <c r="T256" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T256"/>
+  <dimension ref="A1:T258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>11463</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>637</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5555,41 +5555,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>600</v>
+        <v>245</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>21367</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1300</v>
+        <v>1068</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,32 +5644,32 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N66" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>20556</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1142</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N67" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>9556</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>956</v>
+        <v>1300</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,36 +5800,36 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N68" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O68" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P68" t="n">
-        <v>22000</v>
+        <v>20556</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1100</v>
+        <v>1142</v>
       </c>
       <c r="T68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5880,24 +5880,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>14538</v>
+        <v>9556</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>808</v>
+        <v>956</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
         <v>22000</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N71" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P71" t="n">
-        <v>12000</v>
+        <v>14538</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>808</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="O72" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="P72" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>349</v>
+        <v>1100</v>
       </c>
       <c r="T72" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P73" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T73" t="n">
         <v>18</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N74" t="n">
-        <v>135000</v>
+        <v>157000</v>
       </c>
       <c r="O74" t="n">
-        <v>135000</v>
+        <v>157000</v>
       </c>
       <c r="P74" t="n">
-        <v>135000</v>
+        <v>157000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6360,24 +6360,24 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="N75" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="P75" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>200</v>
+        <v>444</v>
       </c>
       <c r="T75" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,36 +6440,36 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="N76" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="O76" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="P76" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="T76" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="N77" t="n">
-        <v>16000</v>
+        <v>90000</v>
       </c>
       <c r="O77" t="n">
-        <v>16000</v>
+        <v>90000</v>
       </c>
       <c r="P77" t="n">
-        <v>16000</v>
+        <v>90000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>889</v>
+        <v>200</v>
       </c>
       <c r="T77" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,36 +6600,36 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,20 +6764,20 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="N80" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O80" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P80" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>7590</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>422</v>
+        <v>556</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="N82" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O82" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P82" t="n">
-        <v>16373</v>
+        <v>4000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>910</v>
+        <v>400</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44174</v>
+        <v>44396</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="N83" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O83" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P83" t="n">
-        <v>18000</v>
+        <v>7590</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1200</v>
+        <v>422</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44271</v>
+        <v>44340</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O84" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P84" t="n">
-        <v>14000</v>
+        <v>16373</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>778</v>
+        <v>910</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7155,41 +7155,41 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>155</v>
       </c>
       <c r="N85" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="O85" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="P85" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>2111</v>
+        <v>1200</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N86" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O86" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P86" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1222</v>
+        <v>778</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44162</v>
+        <v>44271</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7315,41 +7315,41 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="P87" t="n">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>2111</v>
       </c>
       <c r="T87" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O88" t="n">
         <v>22000</v>
       </c>
       <c r="P88" t="n">
-        <v>21579</v>
+        <v>22000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1199</v>
+        <v>1222</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7475,29 +7475,29 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N89" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T89" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="N90" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O90" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P90" t="n">
-        <v>16532</v>
+        <v>21579</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>918</v>
+        <v>1199</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7640,24 +7640,24 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>65</v>
       </c>
       <c r="N91" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O91" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P91" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T91" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -7720,24 +7720,24 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="N92" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O92" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P92" t="n">
-        <v>15000</v>
+        <v>16532</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>750</v>
+        <v>918</v>
       </c>
       <c r="T92" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,24 +7800,24 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N93" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O93" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P93" t="n">
-        <v>24429</v>
+        <v>14000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1221</v>
+        <v>778</v>
       </c>
       <c r="T93" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,24 +7880,24 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="N94" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O94" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P94" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="T94" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N95" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O95" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P95" t="n">
-        <v>9545</v>
+        <v>24429</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>530</v>
+        <v>1221</v>
       </c>
       <c r="T95" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -8044,20 +8044,20 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="N96" t="n">
-        <v>202000</v>
+        <v>4500</v>
       </c>
       <c r="O96" t="n">
-        <v>225000</v>
+        <v>4500</v>
       </c>
       <c r="P96" t="n">
-        <v>215800</v>
+        <v>4500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="T96" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,20 +8124,20 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="N97" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O97" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P97" t="n">
-        <v>5000</v>
+        <v>9545</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,10 +8146,10 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="T97" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N98" t="n">
-        <v>135000</v>
+        <v>202000</v>
       </c>
       <c r="O98" t="n">
-        <v>135000</v>
+        <v>225000</v>
       </c>
       <c r="P98" t="n">
-        <v>135000</v>
+        <v>215800</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="N99" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O99" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P99" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="T99" t="n">
         <v>10</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8364,32 +8364,32 @@
         </is>
       </c>
       <c r="M100" t="n">
+        <v>15</v>
+      </c>
+      <c r="N100" t="n">
+        <v>135000</v>
+      </c>
+      <c r="O100" t="n">
+        <v>135000</v>
+      </c>
+      <c r="P100" t="n">
+        <v>135000</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S100" t="n">
         <v>300</v>
       </c>
-      <c r="N100" t="n">
-        <v>12000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S100" t="n">
-        <v>1200</v>
-      </c>
       <c r="T100" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101">
@@ -8440,24 +8440,24 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N101" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P101" t="n">
-        <v>20167</v>
+        <v>13000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1120</v>
+        <v>1300</v>
       </c>
       <c r="T101" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8520,24 +8520,24 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="N102" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="O102" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="P102" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T102" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N103" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="O103" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P103" t="n">
-        <v>4750</v>
+        <v>20167</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>475</v>
+        <v>1120</v>
       </c>
       <c r="T103" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N104" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="O104" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="P104" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T104" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105">
@@ -8764,20 +8764,20 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="N105" t="n">
-        <v>225000</v>
+        <v>4500</v>
       </c>
       <c r="O105" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="P105" t="n">
-        <v>225000</v>
+        <v>4750</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T105" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8844,20 +8844,20 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T106" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N107" t="n">
-        <v>21000</v>
+        <v>225000</v>
       </c>
       <c r="O107" t="n">
-        <v>21000</v>
+        <v>225000</v>
       </c>
       <c r="P107" t="n">
-        <v>21000</v>
+        <v>225000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1167</v>
+        <v>500</v>
       </c>
       <c r="T107" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N108" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O108" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P108" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T108" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
         <v>40</v>
       </c>
       <c r="N109" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O109" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P109" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9155,41 +9155,41 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N110" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O110" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P110" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9240,24 +9240,24 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="N111" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O111" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1100</v>
+        <v>556</v>
       </c>
       <c r="T111" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9315,41 +9315,41 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="N112" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O112" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P112" t="n">
-        <v>12561</v>
+        <v>4500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>698</v>
+        <v>450</v>
       </c>
       <c r="T112" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9400,24 +9400,24 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>680</v>
+        <v>380</v>
       </c>
       <c r="N113" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O113" t="n">
-        <v>12500</v>
+        <v>22000</v>
       </c>
       <c r="P113" t="n">
-        <v>12279</v>
+        <v>22000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>682</v>
+        <v>1100</v>
       </c>
       <c r="T113" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -9484,20 +9484,20 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>650</v>
+        <v>285</v>
       </c>
       <c r="N114" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O114" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P114" t="n">
-        <v>21462</v>
+        <v>12561</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1073</v>
+        <v>698</v>
       </c>
       <c r="T114" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>155</v>
+        <v>680</v>
       </c>
       <c r="N115" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O115" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="P115" t="n">
-        <v>10000</v>
+        <v>12279</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>556</v>
+        <v>682</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>115</v>
+        <v>650</v>
       </c>
       <c r="N116" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O116" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P116" t="n">
-        <v>12000</v>
+        <v>21462</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>667</v>
+        <v>1073</v>
       </c>
       <c r="T116" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9715,38 +9715,38 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="N117" t="n">
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="O117" t="n">
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>2000</v>
+        <v>556</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9795,16 +9795,16 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="N118" t="n">
         <v>12000</v>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9875,38 +9875,38 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N119" t="n">
-        <v>8000</v>
+        <v>36000</v>
       </c>
       <c r="O119" t="n">
-        <v>8000</v>
+        <v>36000</v>
       </c>
       <c r="P119" t="n">
-        <v>8000</v>
+        <v>36000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>444</v>
+        <v>2000</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P120" t="n">
-        <v>7508</v>
+        <v>12000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44295</v>
+        <v>44377</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10035,25 +10035,25 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1278</v>
+        <v>444</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="N122" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P122" t="n">
-        <v>14000</v>
+        <v>7508</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>778</v>
+        <v>417</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="N123" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O123" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P123" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>667</v>
+        <v>1278</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N124" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O124" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P124" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10355,29 +10355,29 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N125" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O125" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P125" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T125" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -10440,24 +10440,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="O126" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="P126" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="T126" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N127" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O127" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P127" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T127" t="n">
         <v>15</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N128" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="O128" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="P128" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="T128" t="n">
         <v>10</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10684,20 +10684,20 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="N129" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O129" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P129" t="n">
-        <v>11529</v>
+        <v>10000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1153</v>
+        <v>667</v>
       </c>
       <c r="T129" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,24 +10760,24 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N130" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O130" t="n">
-        <v>21000</v>
+        <v>3000</v>
       </c>
       <c r="P130" t="n">
-        <v>20417</v>
+        <v>3000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1134</v>
+        <v>300</v>
       </c>
       <c r="T130" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
       <c r="N131" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O131" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P131" t="n">
-        <v>8621</v>
+        <v>11529</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>862</v>
+        <v>1153</v>
       </c>
       <c r="T131" t="n">
         <v>10</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N132" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O132" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P132" t="n">
-        <v>14000</v>
+        <v>20417</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>778</v>
+        <v>1134</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -10995,29 +10995,29 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N133" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O133" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>18760</v>
+        <v>8621</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1042</v>
+        <v>862</v>
       </c>
       <c r="T133" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11080,24 +11080,24 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N134" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="O134" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="P134" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>550</v>
+        <v>778</v>
       </c>
       <c r="T134" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11164,20 +11164,20 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="N135" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="O135" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P135" t="n">
-        <v>4753</v>
+        <v>18760</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>475</v>
+        <v>1042</v>
       </c>
       <c r="T135" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -11240,24 +11240,24 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="P136" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>722</v>
+        <v>550</v>
       </c>
       <c r="T136" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="N137" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O137" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P137" t="n">
-        <v>9471</v>
+        <v>4753</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>947</v>
+        <v>475</v>
       </c>
       <c r="T137" t="n">
         <v>10</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11400,24 +11400,24 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N138" t="n">
-        <v>450000</v>
+        <v>13000</v>
       </c>
       <c r="O138" t="n">
-        <v>450000</v>
+        <v>13000</v>
       </c>
       <c r="P138" t="n">
-        <v>450000</v>
+        <v>13000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T138" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11475,29 +11475,29 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="N139" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O139" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P139" t="n">
-        <v>21000</v>
+        <v>9471</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1050</v>
+        <v>947</v>
       </c>
       <c r="T139" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>650</v>
+        <v>8</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T140" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="141">
@@ -11635,29 +11635,29 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>833</v>
+        <v>1050</v>
       </c>
       <c r="T141" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>215</v>
+        <v>650</v>
       </c>
       <c r="N142" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="O142" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="P142" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>694</v>
+        <v>500</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="N143" t="n">
         <v>10000</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="N144" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O144" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P144" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1167</v>
+        <v>694</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N145" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O145" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P145" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T145" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O146" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P146" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T146" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="N147" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O147" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P147" t="n">
-        <v>17429</v>
+        <v>25000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>968</v>
+        <v>1250</v>
       </c>
       <c r="T147" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
@@ -12200,11 +12200,11 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N148" t="n">
         <v>10000</v>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T148" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12284,20 +12284,20 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>285</v>
+        <v>420</v>
       </c>
       <c r="N149" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O149" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P149" t="n">
-        <v>14000</v>
+        <v>17429</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1400</v>
+        <v>968</v>
       </c>
       <c r="T149" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -12355,38 +12355,38 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="N150" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="O150" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="P150" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1889</v>
+        <v>556</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12444,20 +12444,20 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="N151" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="O151" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="P151" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>2056</v>
+        <v>1400</v>
       </c>
       <c r="T151" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
@@ -12515,41 +12515,41 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="N152" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="O152" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="P152" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1100</v>
+        <v>1889</v>
       </c>
       <c r="T152" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44274</v>
+        <v>44300</v>
       </c>
       <c r="E153" t="n">
         <v>9</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>37000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>37000</v>
       </c>
       <c r="P153" t="n">
-        <v>14000</v>
+        <v>37000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>778</v>
+        <v>2056</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E154" t="n">
         <v>9</v>
@@ -12680,36 +12680,36 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="N154" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P154" t="n">
-        <v>12476</v>
+        <v>22000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1248</v>
+        <v>1100</v>
       </c>
       <c r="T154" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E155" t="n">
         <v>9</v>
@@ -12755,41 +12755,41 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="N155" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O155" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P155" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T155" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="N156" t="n">
         <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>12476</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1200</v>
+        <v>1248</v>
       </c>
       <c r="T156" t="n">
         <v>10</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N157" t="n">
         <v>10000</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E158" t="n">
         <v>9</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>255</v>
+        <v>400</v>
       </c>
       <c r="N158" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O158" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P158" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T158" t="n">
         <v>10</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E159" t="n">
         <v>9</v>
@@ -13075,41 +13075,41 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N159" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="O159" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="P159" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>2056</v>
+        <v>1000</v>
       </c>
       <c r="T159" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E160" t="n">
         <v>9</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="N160" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O160" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P160" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T160" t="n">
         <v>10</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E161" t="n">
         <v>9</v>
@@ -13235,38 +13235,38 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>556</v>
+        <v>2056</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13320,24 +13320,24 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="N162" t="n">
-        <v>202000</v>
+        <v>10000</v>
       </c>
       <c r="O162" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="P162" t="n">
-        <v>214545</v>
+        <v>10000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>477</v>
+        <v>1000</v>
       </c>
       <c r="T162" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -13404,20 +13404,20 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T163" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="N164" t="n">
-        <v>8000</v>
+        <v>202000</v>
       </c>
       <c r="O164" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="P164" t="n">
-        <v>8000</v>
+        <v>214545</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="T164" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E165" t="n">
         <v>9</v>
@@ -13564,20 +13564,20 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N165" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O165" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P165" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,10 +13586,10 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T165" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E166" t="n">
         <v>9</v>
@@ -13640,24 +13640,24 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N166" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="O166" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P166" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T166" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E167" t="n">
         <v>9</v>
@@ -13724,32 +13724,32 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N167" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="O167" t="n">
-        <v>23400</v>
+        <v>6000</v>
       </c>
       <c r="P167" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="T167" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E168" t="n">
         <v>9</v>
@@ -13800,36 +13800,36 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="N168" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="O168" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="P168" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="T168" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E169" t="n">
         <v>9</v>
@@ -13875,29 +13875,29 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N169" t="n">
-        <v>20000</v>
+        <v>21600</v>
       </c>
       <c r="O169" t="n">
-        <v>20000</v>
+        <v>23400</v>
       </c>
       <c r="P169" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>2000</v>
+        <v>1250</v>
       </c>
       <c r="T169" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="N170" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="O170" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="P170" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T170" t="n">
         <v>10</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E171" t="n">
         <v>9</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N171" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O171" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P171" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="T171" t="n">
         <v>10</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
@@ -14115,41 +14115,41 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N172" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O172" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="P172" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>667</v>
+        <v>1550</v>
       </c>
       <c r="T172" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E173" t="n">
         <v>9</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N173" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T173" t="n">
         <v>10</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N174" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P174" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N175" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O175" t="n">
         <v>4000</v>
       </c>
       <c r="P175" t="n">
-        <v>3714</v>
+        <v>4000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="T175" t="n">
         <v>10</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E176" t="n">
         <v>9</v>
@@ -14447,13 +14447,13 @@
         <v>200</v>
       </c>
       <c r="N176" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O176" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P176" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>694</v>
+        <v>500</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E177" t="n">
         <v>9</v>
@@ -14520,24 +14520,24 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="N177" t="n">
-        <v>270000</v>
+        <v>3000</v>
       </c>
       <c r="O177" t="n">
-        <v>270000</v>
+        <v>4000</v>
       </c>
       <c r="P177" t="n">
-        <v>270000</v>
+        <v>3714</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>600</v>
+        <v>371</v>
       </c>
       <c r="T177" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -14600,24 +14600,24 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="O178" t="n">
-        <v>225000</v>
+        <v>13000</v>
       </c>
       <c r="P178" t="n">
-        <v>225000</v>
+        <v>12500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="T178" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E179" t="n">
         <v>9</v>
@@ -14684,20 +14684,20 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T179" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E180" t="n">
         <v>9</v>
@@ -14760,24 +14760,24 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="N180" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="O180" t="n">
-        <v>13000</v>
+        <v>225000</v>
       </c>
       <c r="P180" t="n">
-        <v>12524</v>
+        <v>225000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>696</v>
+        <v>500</v>
       </c>
       <c r="T180" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181">
@@ -14844,20 +14844,20 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>315000</v>
+        <v>8000</v>
       </c>
       <c r="O181" t="n">
-        <v>315000</v>
+        <v>8000</v>
       </c>
       <c r="P181" t="n">
-        <v>315000</v>
+        <v>8000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T181" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -14920,24 +14920,24 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="N182" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O182" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P182" t="n">
-        <v>5556</v>
+        <v>12524</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>556</v>
+        <v>696</v>
       </c>
       <c r="T182" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E183" t="n">
         <v>9</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15004,32 +15004,32 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="N183" t="n">
-        <v>15000</v>
+        <v>315000</v>
       </c>
       <c r="O183" t="n">
-        <v>15000</v>
+        <v>315000</v>
       </c>
       <c r="P183" t="n">
-        <v>15000</v>
+        <v>315000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="T183" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E184" t="n">
         <v>9</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N184" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O184" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P184" t="n">
-        <v>11000</v>
+        <v>5556</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1100</v>
+        <v>556</v>
       </c>
       <c r="T184" t="n">
         <v>10</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E185" t="n">
         <v>9</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15164,32 +15164,32 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="N185" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O185" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P185" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1111</v>
+        <v>1500</v>
       </c>
       <c r="T185" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E186" t="n">
         <v>9</v>
@@ -15235,41 +15235,41 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O186" t="n">
         <v>11000</v>
       </c>
       <c r="P186" t="n">
-        <v>10468</v>
+        <v>11000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>582</v>
+        <v>1100</v>
       </c>
       <c r="T186" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E187" t="n">
         <v>9</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N187" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O187" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P187" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E188" t="n">
         <v>9</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N188" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O188" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P188" t="n">
-        <v>12000</v>
+        <v>10468</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E189" t="n">
         <v>9</v>
@@ -15475,29 +15475,29 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="N189" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O189" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P189" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1125</v>
+        <v>556</v>
       </c>
       <c r="T189" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190">
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N190" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O190" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P190" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15640,24 +15640,24 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N191" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="O191" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="P191" t="n">
-        <v>4000</v>
+        <v>22500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>400</v>
+        <v>1125</v>
       </c>
       <c r="T191" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E192" t="n">
         <v>9</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="N192" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O192" t="n">
         <v>9000</v>
       </c>
       <c r="P192" t="n">
-        <v>8481</v>
+        <v>9000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E193" t="n">
         <v>9</v>
@@ -15795,25 +15795,25 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N193" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O193" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P193" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T193" t="n">
         <v>10</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E194" t="n">
         <v>9</v>
@@ -15880,36 +15880,36 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="N194" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O194" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P194" t="n">
-        <v>16000</v>
+        <v>8481</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1600</v>
+        <v>471</v>
       </c>
       <c r="T194" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E195" t="n">
         <v>9</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -15964,32 +15964,32 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="N195" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O195" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P195" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1556</v>
+        <v>1000</v>
       </c>
       <c r="T195" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E196" t="n">
         <v>9</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N196" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O196" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P196" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16062,11 +16062,11 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T196" t="n">
         <v>10</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E197" t="n">
         <v>9</v>
@@ -16115,41 +16115,41 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N197" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O197" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P197" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T197" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
@@ -16200,36 +16200,36 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N198" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O198" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P198" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T198" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -16280,36 +16280,36 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N199" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O199" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P199" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>833</v>
+        <v>1500</v>
       </c>
       <c r="T199" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44181</v>
+        <v>44294</v>
       </c>
       <c r="E200" t="n">
         <v>9</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N200" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O200" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P200" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44181</v>
+        <v>44294</v>
       </c>
       <c r="E201" t="n">
         <v>9</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M201" t="n">
         <v>30</v>
       </c>
       <c r="N201" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O201" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P201" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E202" t="n">
         <v>9</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>405</v>
+        <v>100</v>
       </c>
       <c r="N202" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O202" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P202" t="n">
-        <v>9617</v>
+        <v>17000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>534</v>
+        <v>944</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E203" t="n">
         <v>9</v>
@@ -16595,41 +16595,41 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N203" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="O203" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="P203" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1550</v>
+        <v>556</v>
       </c>
       <c r="T203" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E204" t="n">
         <v>9</v>
@@ -16675,41 +16675,41 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="N204" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O204" t="n">
         <v>10000</v>
       </c>
       <c r="P204" t="n">
-        <v>10000</v>
+        <v>9617</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1000</v>
+        <v>534</v>
       </c>
       <c r="T204" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E205" t="n">
         <v>9</v>
@@ -16755,41 +16755,41 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N205" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="O205" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="P205" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="T205" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E206" t="n">
         <v>9</v>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -16844,32 +16844,32 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="N206" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O206" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P206" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T206" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E207" t="n">
         <v>9</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N207" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O207" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P207" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N208" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O208" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P208" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E209" t="n">
         <v>9</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N209" t="n">
         <v>14000</v>
       </c>
       <c r="O209" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P209" t="n">
-        <v>14583</v>
+        <v>14000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>810</v>
+        <v>778</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E210" t="n">
         <v>9</v>
@@ -17155,16 +17155,16 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N210" t="n">
         <v>12000</v>
@@ -17177,7 +17177,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T210" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E211" t="n">
         <v>9</v>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -17244,20 +17244,20 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N211" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O211" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P211" t="n">
-        <v>8000</v>
+        <v>14583</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="T211" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
@@ -17320,24 +17320,24 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N212" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O212" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P212" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T212" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E213" t="n">
         <v>9</v>
@@ -17395,29 +17395,29 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N213" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="O213" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P213" t="n">
-        <v>27600</v>
+        <v>8000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1533</v>
+        <v>800</v>
       </c>
       <c r="T213" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N214" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O214" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P214" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1222</v>
+        <v>889</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17560,24 +17560,24 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N215" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="O215" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P215" t="n">
-        <v>15000</v>
+        <v>27600</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="T215" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,32 +17644,32 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N216" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O216" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P216" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1300</v>
+        <v>1222</v>
       </c>
       <c r="T216" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E217" t="n">
         <v>9</v>
@@ -17715,41 +17715,41 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N217" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O217" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P217" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T217" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E218" t="n">
         <v>9</v>
@@ -17804,32 +17804,32 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="N218" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O218" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P218" t="n">
-        <v>16565</v>
+        <v>13000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>920</v>
+        <v>1300</v>
       </c>
       <c r="T218" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E219" t="n">
         <v>9</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N219" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O219" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P219" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1278</v>
+        <v>1333</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E220" t="n">
         <v>9</v>
@@ -17964,32 +17964,32 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="N220" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O220" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P220" t="n">
-        <v>11500</v>
+        <v>16565</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1150</v>
+        <v>920</v>
       </c>
       <c r="T220" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N221" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O221" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P221" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N222" t="n">
         <v>11000</v>
@@ -18195,25 +18195,25 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N223" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O223" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P223" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E224" t="n">
         <v>9</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>155</v>
+        <v>600</v>
       </c>
       <c r="N224" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O224" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P224" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="T224" t="n">
         <v>10</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E225" t="n">
         <v>9</v>
@@ -18360,24 +18360,24 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="N225" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O225" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P225" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T225" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E226" t="n">
         <v>9</v>
@@ -18435,41 +18435,41 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="N226" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O226" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P226" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1222</v>
+        <v>1500</v>
       </c>
       <c r="T226" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E227" t="n">
         <v>9</v>
@@ -18515,41 +18515,41 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="N227" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O227" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P227" t="n">
-        <v>17478</v>
+        <v>12000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>971</v>
+        <v>1200</v>
       </c>
       <c r="T227" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E228" t="n">
         <v>9</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N228" t="n">
-        <v>14400</v>
+        <v>22000</v>
       </c>
       <c r="O228" t="n">
-        <v>14400</v>
+        <v>22000</v>
       </c>
       <c r="P228" t="n">
-        <v>14400</v>
+        <v>22000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>800</v>
+        <v>1222</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44301</v>
+        <v>44160</v>
       </c>
       <c r="E229" t="n">
         <v>9</v>
@@ -18675,41 +18675,41 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N229" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="O229" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P229" t="n">
-        <v>30000</v>
+        <v>17478</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>2000</v>
+        <v>971</v>
       </c>
       <c r="T229" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44301</v>
+        <v>44160</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>75</v>
       </c>
       <c r="N230" t="n">
-        <v>23400</v>
+        <v>14400</v>
       </c>
       <c r="O230" t="n">
-        <v>23400</v>
+        <v>14400</v>
       </c>
       <c r="P230" t="n">
-        <v>23400</v>
+        <v>14400</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
@@ -18844,32 +18844,32 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="N231" t="n">
-        <v>200000</v>
+        <v>30000</v>
       </c>
       <c r="O231" t="n">
-        <v>200000</v>
+        <v>30000</v>
       </c>
       <c r="P231" t="n">
-        <v>200000</v>
+        <v>30000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>444</v>
+        <v>2000</v>
       </c>
       <c r="T231" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E232" t="n">
         <v>9</v>
@@ -18924,32 +18924,32 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="N232" t="n">
-        <v>5000</v>
+        <v>23400</v>
       </c>
       <c r="O232" t="n">
-        <v>5000</v>
+        <v>23400</v>
       </c>
       <c r="P232" t="n">
-        <v>5000</v>
+        <v>23400</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S232" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T232" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -19000,24 +19000,24 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="N233" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="O233" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P233" t="n">
-        <v>9405</v>
+        <v>200000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T233" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="234">
@@ -19084,20 +19084,20 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="N234" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O234" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="P234" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T234" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E235" t="n">
         <v>9</v>
@@ -19164,32 +19164,32 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>800</v>
+        <v>185</v>
       </c>
       <c r="N235" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O235" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P235" t="n">
-        <v>12562</v>
+        <v>9405</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1256</v>
+        <v>522</v>
       </c>
       <c r="T235" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E236" t="n">
         <v>9</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19244,32 +19244,32 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="N236" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O236" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P236" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T236" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E237" t="n">
         <v>9</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="N237" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="O237" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P237" t="n">
-        <v>5500</v>
+        <v>12562</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19342,11 +19342,11 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S237" t="n">
-        <v>550</v>
+        <v>1256</v>
       </c>
       <c r="T237" t="n">
         <v>10</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E238" t="n">
         <v>9</v>
@@ -19395,41 +19395,41 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N238" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O238" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P238" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T238" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
@@ -19480,24 +19480,24 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="N239" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O239" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P239" t="n">
-        <v>11163</v>
+        <v>5500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="T239" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E240" t="n">
         <v>9</v>
@@ -19564,20 +19564,20 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N240" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O240" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P240" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T240" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -19640,24 +19640,24 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>5</v>
+        <v>430</v>
       </c>
       <c r="N241" t="n">
-        <v>450000</v>
+        <v>10000</v>
       </c>
       <c r="O241" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="P241" t="n">
-        <v>450000</v>
+        <v>11163</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="T241" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="N242" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="O242" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="P242" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T242" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N243" t="n">
-        <v>180000</v>
+        <v>450000</v>
       </c>
       <c r="O243" t="n">
-        <v>180000</v>
+        <v>450000</v>
       </c>
       <c r="P243" t="n">
-        <v>180000</v>
+        <v>450000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T243" t="n">
         <v>450</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19884,20 +19884,20 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="N244" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="O244" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="P244" t="n">
-        <v>10842</v>
+        <v>225000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>602</v>
+        <v>500</v>
       </c>
       <c r="T244" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19955,29 +19955,29 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="N245" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="O245" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P245" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T245" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="N246" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="O246" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="P246" t="n">
-        <v>26000</v>
+        <v>10842</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1444</v>
+        <v>602</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -20115,25 +20115,25 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="N247" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O247" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P247" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="N248" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="P248" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>889</v>
+        <v>1444</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -20284,20 +20284,20 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="N249" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O249" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P249" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T249" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44179</v>
+        <v>44343</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20364,20 +20364,20 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="N250" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O250" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T250" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -20444,20 +20444,20 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="N251" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O251" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P251" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T251" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E252" t="n">
         <v>9</v>
@@ -20515,29 +20515,29 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N252" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O252" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P252" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1056</v>
+        <v>800</v>
       </c>
       <c r="T252" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N253" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O253" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P253" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T253" t="n">
         <v>10</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N254" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O254" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P254" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20760,24 +20760,24 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="N255" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O255" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P255" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T255" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
@@ -20807,68 +20807,228 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E256" t="n">
+        <v>9</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>200</v>
+      </c>
+      <c r="N256" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O256" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P256" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S256" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T256" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>10</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E257" t="n">
+        <v>9</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>8</v>
+      </c>
+      <c r="N257" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O257" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P257" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S257" t="n">
+        <v>600</v>
+      </c>
+      <c r="T257" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>10</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E256" t="n">
-        <v>9</v>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G256" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I256" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K256" t="inlineStr">
+      <c r="E258" t="n">
+        <v>9</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L256" t="inlineStr">
+      <c r="L258" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M256" t="n">
+      <c r="M258" t="n">
         <v>700</v>
       </c>
-      <c r="N256" t="n">
+      <c r="N258" t="n">
         <v>9000</v>
       </c>
-      <c r="O256" t="n">
+      <c r="O258" t="n">
         <v>10000</v>
       </c>
-      <c r="P256" t="n">
+      <c r="P258" t="n">
         <v>9429</v>
       </c>
-      <c r="Q256" t="inlineStr">
+      <c r="Q258" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R256" t="inlineStr">
+      <c r="R258" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S256" t="n">
+      <c r="S258" t="n">
         <v>943</v>
       </c>
-      <c r="T256" t="n">
+      <c r="T258" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T318"/>
+  <dimension ref="A1:T324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E207" t="n">
         <v>9</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>220</v>
+        <v>1600</v>
       </c>
       <c r="N207" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O207" t="n">
-        <v>23400</v>
+        <v>12000</v>
       </c>
       <c r="P207" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16942,11 +16942,11 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1250</v>
+        <v>667</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44313</v>
+        <v>44438</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
@@ -17004,32 +17004,32 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="N208" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="O208" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="P208" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="T208" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44313</v>
+        <v>44438</v>
       </c>
       <c r="E209" t="n">
         <v>9</v>
@@ -17075,25 +17075,25 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>155</v>
+        <v>2180</v>
       </c>
       <c r="N209" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O209" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P209" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17102,11 +17102,11 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="T209" t="n">
         <v>10</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44313</v>
+        <v>44438</v>
       </c>
       <c r="E210" t="n">
         <v>9</v>
@@ -17155,41 +17155,41 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="N210" t="n">
-        <v>15500</v>
+        <v>135000</v>
       </c>
       <c r="O210" t="n">
-        <v>15500</v>
+        <v>135000</v>
       </c>
       <c r="P210" t="n">
-        <v>15500</v>
+        <v>135000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1550</v>
+        <v>300</v>
       </c>
       <c r="T210" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44330</v>
+        <v>44438</v>
       </c>
       <c r="E211" t="n">
         <v>9</v>
@@ -17235,41 +17235,41 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>185</v>
+        <v>630</v>
       </c>
       <c r="N211" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O211" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P211" t="n">
-        <v>12000</v>
+        <v>21206</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1200</v>
+        <v>1060</v>
       </c>
       <c r="T211" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44391</v>
+        <v>44438</v>
       </c>
       <c r="E212" t="n">
         <v>9</v>
@@ -17315,16 +17315,16 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="N212" t="n">
         <v>12000</v>
@@ -17337,7 +17337,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E213" t="n">
         <v>9</v>
@@ -17404,32 +17404,32 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N213" t="n">
-        <v>4000</v>
+        <v>21600</v>
       </c>
       <c r="O213" t="n">
-        <v>4000</v>
+        <v>23400</v>
       </c>
       <c r="P213" t="n">
-        <v>4000</v>
+        <v>22500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="T213" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -17484,32 +17484,32 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N214" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O214" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P214" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T214" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E215" t="n">
         <v>9</v>
@@ -17555,38 +17555,38 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="N215" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="O215" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P215" t="n">
-        <v>3714</v>
+        <v>20000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>371</v>
+        <v>2000</v>
       </c>
       <c r="T215" t="n">
         <v>10</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44351</v>
+        <v>44313</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,32 +17644,32 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N216" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O216" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="P216" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>694</v>
+        <v>1550</v>
       </c>
       <c r="T216" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E217" t="n">
         <v>9</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,32 +17724,32 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="N217" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O217" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P217" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T217" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E218" t="n">
         <v>9</v>
@@ -17800,24 +17800,24 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="N218" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="O218" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="P218" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -17826,10 +17826,10 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T218" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E219" t="n">
         <v>9</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N219" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O219" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P219" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T219" t="n">
         <v>10</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E220" t="n">
         <v>9</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="N220" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O220" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P220" t="n">
-        <v>12524</v>
+        <v>9000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>696</v>
+        <v>500</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E221" t="n">
         <v>9</v>
@@ -18040,24 +18040,24 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="N221" t="n">
-        <v>315000</v>
+        <v>3000</v>
       </c>
       <c r="O221" t="n">
-        <v>315000</v>
+        <v>4000</v>
       </c>
       <c r="P221" t="n">
-        <v>315000</v>
+        <v>3714</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -18066,10 +18066,10 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>700</v>
+        <v>371</v>
       </c>
       <c r="T221" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E222" t="n">
         <v>9</v>
@@ -18120,24 +18120,24 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N222" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O222" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P222" t="n">
-        <v>5556</v>
+        <v>12500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="T222" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E223" t="n">
         <v>9</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,32 +18204,32 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="N223" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="O223" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="P223" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="T223" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E224" t="n">
         <v>9</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18284,32 +18284,32 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="N224" t="n">
-        <v>11000</v>
+        <v>225000</v>
       </c>
       <c r="O224" t="n">
-        <v>11000</v>
+        <v>225000</v>
       </c>
       <c r="P224" t="n">
-        <v>11000</v>
+        <v>225000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="T224" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E225" t="n">
         <v>9</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,20 +18364,20 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N225" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O225" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P225" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T225" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E226" t="n">
         <v>9</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>235</v>
+        <v>420</v>
       </c>
       <c r="N226" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O226" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P226" t="n">
-        <v>10468</v>
+        <v>12524</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E227" t="n">
         <v>9</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18524,20 +18524,20 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N227" t="n">
-        <v>10000</v>
+        <v>315000</v>
       </c>
       <c r="O227" t="n">
-        <v>10000</v>
+        <v>315000</v>
       </c>
       <c r="P227" t="n">
-        <v>10000</v>
+        <v>315000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T227" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44389</v>
+        <v>44350</v>
       </c>
       <c r="E228" t="n">
         <v>9</v>
@@ -18600,24 +18600,24 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N228" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O228" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P228" t="n">
-        <v>12000</v>
+        <v>5556</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -18626,10 +18626,10 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T228" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44389</v>
+        <v>44315</v>
       </c>
       <c r="E229" t="n">
         <v>9</v>
@@ -18675,41 +18675,41 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="N229" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O229" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P229" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1125</v>
+        <v>1500</v>
       </c>
       <c r="T229" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44389</v>
+        <v>44315</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
@@ -18755,41 +18755,41 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N230" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O230" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P230" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T230" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
@@ -18835,29 +18835,29 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>80</v>
       </c>
       <c r="N231" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O231" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P231" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>400</v>
+        <v>1111</v>
       </c>
       <c r="T231" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E232" t="n">
         <v>9</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O232" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P232" t="n">
-        <v>8481</v>
+        <v>10468</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>471</v>
+        <v>582</v>
       </c>
       <c r="T232" t="n">
         <v>18</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E233" t="n">
         <v>9</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -19004,7 +19004,7 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N233" t="n">
         <v>10000</v>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T233" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E234" t="n">
         <v>9</v>
@@ -19084,32 +19084,32 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N234" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O234" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P234" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1600</v>
+        <v>667</v>
       </c>
       <c r="T234" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E235" t="n">
         <v>9</v>
@@ -19160,36 +19160,36 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N235" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O235" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P235" t="n">
-        <v>28000</v>
+        <v>22500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1556</v>
+        <v>1125</v>
       </c>
       <c r="T235" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44294</v>
+        <v>44389</v>
       </c>
       <c r="E236" t="n">
         <v>9</v>
@@ -19235,29 +19235,29 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N236" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O236" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P236" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,10 +19266,10 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T236" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44294</v>
+        <v>44389</v>
       </c>
       <c r="E237" t="n">
         <v>9</v>
@@ -19315,29 +19315,29 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N237" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="O237" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="P237" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -19346,10 +19346,10 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="T237" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E238" t="n">
         <v>9</v>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N238" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O238" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P238" t="n">
-        <v>18000</v>
+        <v>8481</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19422,11 +19422,11 @@
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1000</v>
+        <v>471</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E239" t="n">
         <v>9</v>
@@ -19480,36 +19480,36 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="N239" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O239" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P239" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T239" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E240" t="n">
         <v>9</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N240" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O240" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P240" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19582,11 +19582,11 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="T240" t="n">
         <v>10</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -19640,36 +19640,36 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N241" t="n">
-        <v>157000</v>
+        <v>28000</v>
       </c>
       <c r="O241" t="n">
-        <v>157000</v>
+        <v>28000</v>
       </c>
       <c r="P241" t="n">
-        <v>157000</v>
+        <v>28000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>349</v>
+        <v>1556</v>
       </c>
       <c r="T241" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -19724,20 +19724,20 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N242" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O242" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P242" t="n">
-        <v>22429</v>
+        <v>15000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1121</v>
+        <v>1500</v>
       </c>
       <c r="T242" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -19800,24 +19800,24 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N243" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="O243" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="P243" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,10 +19826,10 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>444</v>
+        <v>1500</v>
       </c>
       <c r="T243" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44419</v>
+        <v>44294</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19880,36 +19880,36 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N244" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O244" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P244" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T244" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44419</v>
+        <v>44294</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N245" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O245" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P245" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -20035,29 +20035,29 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N246" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O246" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P246" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>833</v>
+        <v>400</v>
       </c>
       <c r="T246" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -20115,29 +20115,29 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>580</v>
+        <v>5</v>
       </c>
       <c r="N247" t="n">
-        <v>22000</v>
+        <v>157000</v>
       </c>
       <c r="O247" t="n">
-        <v>22000</v>
+        <v>157000</v>
       </c>
       <c r="P247" t="n">
-        <v>22000</v>
+        <v>157000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1100</v>
+        <v>349</v>
       </c>
       <c r="T247" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N248" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O248" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P248" t="n">
-        <v>13000</v>
+        <v>22429</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>722</v>
+        <v>1121</v>
       </c>
       <c r="T248" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N249" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44181</v>
+        <v>44419</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
         <v>100</v>
       </c>
       <c r="N250" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O250" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P250" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>944</v>
+        <v>1050</v>
       </c>
       <c r="T250" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44181</v>
+        <v>44419</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N251" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O251" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P251" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E252" t="n">
         <v>9</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>405</v>
+        <v>150</v>
       </c>
       <c r="N252" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O252" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P252" t="n">
-        <v>9617</v>
+        <v>15000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>534</v>
+        <v>833</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44307</v>
+        <v>44420</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20604,32 +20604,32 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="N253" t="n">
-        <v>15500</v>
+        <v>22000</v>
       </c>
       <c r="O253" t="n">
-        <v>15500</v>
+        <v>22000</v>
       </c>
       <c r="P253" t="n">
-        <v>15500</v>
+        <v>22000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="T253" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44307</v>
+        <v>44420</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -20675,41 +20675,41 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>400</v>
+        <v>285</v>
       </c>
       <c r="N254" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O254" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P254" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T254" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44161</v>
+        <v>44420</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N255" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O255" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P255" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44161</v>
+        <v>44181</v>
       </c>
       <c r="E256" t="n">
         <v>9</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N256" t="n">
-        <v>14400</v>
+        <v>17000</v>
       </c>
       <c r="O256" t="n">
-        <v>14400</v>
+        <v>17000</v>
       </c>
       <c r="P256" t="n">
-        <v>14400</v>
+        <v>17000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44195</v>
+        <v>44181</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N257" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O257" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P257" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -20995,25 +20995,25 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>30</v>
+        <v>405</v>
       </c>
       <c r="N258" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O258" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P258" t="n">
-        <v>12000</v>
+        <v>9617</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>667</v>
+        <v>534</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21075,41 +21075,41 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N259" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="O259" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="P259" t="n">
-        <v>14583</v>
+        <v>15500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>810</v>
+        <v>1550</v>
       </c>
       <c r="T259" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -21155,25 +21155,25 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N260" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O260" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P260" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21182,11 +21182,11 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T260" t="n">
         <v>10</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44333</v>
+        <v>44161</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,20 +21244,20 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="N261" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O261" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P261" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T261" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262">
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44333</v>
+        <v>44161</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21315,25 +21315,25 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N262" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O262" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P262" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44277</v>
+        <v>44195</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N263" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="O263" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>27600</v>
+        <v>14000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1533</v>
+        <v>778</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44277</v>
+        <v>44195</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N264" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O264" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21560,24 +21560,24 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N265" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O265" t="n">
         <v>15000</v>
       </c>
       <c r="P265" t="n">
-        <v>15000</v>
+        <v>14583</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1000</v>
+        <v>810</v>
       </c>
       <c r="T265" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E266" t="n">
         <v>9</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,20 +21644,20 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O266" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P266" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T266" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,20 +21724,20 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N267" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O267" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T267" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E268" t="n">
         <v>9</v>
@@ -21795,29 +21795,29 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="N268" t="n">
-        <v>135000</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>135000</v>
+        <v>16000</v>
       </c>
       <c r="P268" t="n">
-        <v>135000</v>
+        <v>16000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>300</v>
+        <v>889</v>
       </c>
       <c r="T268" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N269" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="O269" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="P269" t="n">
-        <v>8000</v>
+        <v>27600</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>444</v>
+        <v>1533</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,32 +21964,32 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N270" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O270" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P270" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1300</v>
+        <v>1222</v>
       </c>
       <c r="T270" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -22035,41 +22035,41 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N271" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O271" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P271" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T271" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22115,29 +22115,29 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N272" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O272" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P272" t="n">
-        <v>16565</v>
+        <v>20000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="T272" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44319</v>
+        <v>44433</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N273" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="O273" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P273" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22222,11 +22222,11 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1278</v>
+        <v>667</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44319</v>
+        <v>44433</v>
       </c>
       <c r="E274" t="n">
         <v>9</v>
@@ -22275,41 +22275,41 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N274" t="n">
-        <v>11000</v>
+        <v>135000</v>
       </c>
       <c r="O274" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P274" t="n">
-        <v>11500</v>
+        <v>135000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="T274" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44319</v>
+        <v>44433</v>
       </c>
       <c r="E275" t="n">
         <v>9</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N275" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O275" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P275" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E276" t="n">
         <v>9</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O276" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P276" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1150</v>
+        <v>1300</v>
       </c>
       <c r="T276" t="n">
         <v>10</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E277" t="n">
         <v>9</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N277" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O277" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P277" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>778</v>
+        <v>1333</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,32 +22604,32 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="N278" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O278" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P278" t="n">
-        <v>15000</v>
+        <v>16565</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1500</v>
+        <v>920</v>
       </c>
       <c r="T278" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22675,29 +22675,29 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="N279" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O279" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P279" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1200</v>
+        <v>1278</v>
       </c>
       <c r="T279" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44281</v>
+        <v>44319</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22755,41 +22755,41 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N280" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O280" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P280" t="n">
-        <v>22000</v>
+        <v>11500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1222</v>
+        <v>1150</v>
       </c>
       <c r="T280" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44160</v>
+        <v>44319</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="N281" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O281" t="n">
         <v>18000</v>
       </c>
       <c r="P281" t="n">
-        <v>17478</v>
+        <v>18000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22862,11 +22862,11 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>971</v>
+        <v>1000</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44160</v>
+        <v>44319</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22915,41 +22915,41 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="N282" t="n">
-        <v>14400</v>
+        <v>11000</v>
       </c>
       <c r="O282" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P282" t="n">
-        <v>14400</v>
+        <v>11500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="T282" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44301</v>
+        <v>44319</v>
       </c>
       <c r="E283" t="n">
         <v>9</v>
@@ -22995,29 +22995,29 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N283" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O283" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P283" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>2000</v>
+        <v>778</v>
       </c>
       <c r="T283" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E284" t="n">
         <v>9</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,20 +23084,20 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="N284" t="n">
-        <v>23400</v>
+        <v>15000</v>
       </c>
       <c r="O284" t="n">
-        <v>23400</v>
+        <v>15000</v>
       </c>
       <c r="P284" t="n">
-        <v>23400</v>
+        <v>15000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T284" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23155,41 +23155,41 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="N285" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="O285" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P285" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>444</v>
+        <v>1200</v>
       </c>
       <c r="T285" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44370</v>
+        <v>44281</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23235,29 +23235,29 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="N286" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="O286" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P286" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>500</v>
+        <v>1222</v>
       </c>
       <c r="T286" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="N287" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P287" t="n">
-        <v>9405</v>
+        <v>17478</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>522</v>
+        <v>971</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E288" t="n">
         <v>9</v>
@@ -23395,29 +23395,29 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="N288" t="n">
-        <v>180000</v>
+        <v>14400</v>
       </c>
       <c r="O288" t="n">
-        <v>180000</v>
+        <v>14400</v>
       </c>
       <c r="P288" t="n">
-        <v>180000</v>
+        <v>14400</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T288" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>800</v>
+        <v>110</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O289" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="P289" t="n">
-        <v>12562</v>
+        <v>30000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1256</v>
+        <v>2000</v>
       </c>
       <c r="T289" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,20 +23564,20 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N290" t="n">
-        <v>12000</v>
+        <v>23400</v>
       </c>
       <c r="O290" t="n">
-        <v>12000</v>
+        <v>23400</v>
       </c>
       <c r="P290" t="n">
-        <v>12000</v>
+        <v>23400</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T290" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
@@ -23644,20 +23644,20 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="N291" t="n">
-        <v>5500</v>
+        <v>200000</v>
       </c>
       <c r="O291" t="n">
-        <v>5500</v>
+        <v>200000</v>
       </c>
       <c r="P291" t="n">
-        <v>5500</v>
+        <v>200000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>550</v>
+        <v>444</v>
       </c>
       <c r="T291" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E292" t="n">
         <v>9</v>
@@ -23720,24 +23720,24 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="N292" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O292" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P292" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="T292" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>430</v>
+        <v>185</v>
       </c>
       <c r="N293" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O293" t="n">
         <v>10000</v>
       </c>
-      <c r="O293" t="n">
-        <v>12000</v>
-      </c>
       <c r="P293" t="n">
-        <v>11163</v>
+        <v>9405</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>620</v>
+        <v>522</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="N294" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="O294" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P294" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T294" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23960,36 +23960,36 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="N295" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="O295" t="n">
-        <v>450000</v>
+        <v>13000</v>
       </c>
       <c r="P295" t="n">
-        <v>450000</v>
+        <v>12562</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1000</v>
+        <v>1256</v>
       </c>
       <c r="T295" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,32 +24044,32 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="N296" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="O296" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="P296" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T296" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24120,24 +24120,24 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="N297" t="n">
-        <v>180000</v>
+        <v>5500</v>
       </c>
       <c r="O297" t="n">
-        <v>180000</v>
+        <v>5500</v>
       </c>
       <c r="P297" t="n">
-        <v>180000</v>
+        <v>5500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T297" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="N298" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O298" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P298" t="n">
-        <v>10842</v>
+        <v>22000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>602</v>
+        <v>1100</v>
       </c>
       <c r="T298" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>128</v>
+        <v>430</v>
       </c>
       <c r="N299" t="n">
         <v>10000</v>
       </c>
       <c r="O299" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>10000</v>
+        <v>11163</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
@@ -24355,29 +24355,29 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="N300" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="O300" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="P300" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1444</v>
+        <v>1000</v>
       </c>
       <c r="T300" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -24444,20 +24444,20 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="N301" t="n">
-        <v>22000</v>
+        <v>450000</v>
       </c>
       <c r="O301" t="n">
-        <v>22000</v>
+        <v>450000</v>
       </c>
       <c r="P301" t="n">
-        <v>22000</v>
+        <v>450000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T301" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24524,20 +24524,20 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="N302" t="n">
-        <v>16000</v>
+        <v>225000</v>
       </c>
       <c r="O302" t="n">
-        <v>16000</v>
+        <v>225000</v>
       </c>
       <c r="P302" t="n">
-        <v>16000</v>
+        <v>225000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T302" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="303">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44376</v>
+        <v>44398</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="N303" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="O303" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="P303" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T303" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44179</v>
+        <v>44355</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,20 +24684,20 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N304" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O304" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>8000</v>
+        <v>10842</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>800</v>
+        <v>602</v>
       </c>
       <c r="T304" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44334</v>
+        <v>44355</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,29 +24755,29 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="N305" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P305" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T305" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44334</v>
+        <v>44286</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N306" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="O306" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="P306" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1056</v>
+        <v>1444</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="N307" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P307" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T307" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="N308" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O308" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P308" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25080,24 +25080,24 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="N309" t="n">
-        <v>270000</v>
+        <v>20000</v>
       </c>
       <c r="O309" t="n">
-        <v>270000</v>
+        <v>20000</v>
       </c>
       <c r="P309" t="n">
-        <v>270000</v>
+        <v>20000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T309" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44168</v>
+        <v>44179</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="N310" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O310" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P310" t="n">
-        <v>9429</v>
+        <v>8000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>943</v>
+        <v>800</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N311" t="n">
-        <v>202000</v>
+        <v>11000</v>
       </c>
       <c r="O311" t="n">
-        <v>202000</v>
+        <v>13000</v>
       </c>
       <c r="P311" t="n">
-        <v>202000</v>
+        <v>12000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>449</v>
+        <v>1200</v>
       </c>
       <c r="T311" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,20 +25324,20 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N312" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O312" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P312" t="n">
-        <v>16500</v>
+        <v>19000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="T312" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,29 +25395,29 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N313" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O313" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P313" t="n">
-        <v>21615</v>
+        <v>10000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1081</v>
+        <v>1000</v>
       </c>
       <c r="T313" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N314" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O314" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P314" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44432</v>
+        <v>44334</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25560,24 +25560,24 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N315" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="P315" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T315" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44432</v>
+        <v>44168</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25644,20 +25644,20 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N316" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O316" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P316" t="n">
-        <v>12000</v>
+        <v>9429</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>667</v>
+        <v>943</v>
       </c>
       <c r="T316" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,29 +25715,29 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N317" t="n">
-        <v>20000</v>
+        <v>202000</v>
       </c>
       <c r="O317" t="n">
-        <v>20000</v>
+        <v>202000</v>
       </c>
       <c r="P317" t="n">
-        <v>20000</v>
+        <v>202000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1000</v>
+        <v>449</v>
       </c>
       <c r="T317" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="318">
@@ -25767,68 +25767,548 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E318" t="n">
+        <v>9</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>100</v>
+      </c>
+      <c r="N318" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O318" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P318" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S318" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T318" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>10</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E319" t="n">
+        <v>9</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M319" t="n">
+        <v>130</v>
+      </c>
+      <c r="N319" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O319" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P319" t="n">
+        <v>21615</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S319" t="n">
+        <v>1081</v>
+      </c>
+      <c r="T319" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>10</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E320" t="n">
+        <v>9</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>50</v>
+      </c>
+      <c r="N320" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O320" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P320" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S320" t="n">
+        <v>444</v>
+      </c>
+      <c r="T320" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>10</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E318" t="n">
-        <v>9</v>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G318" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I318" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J318" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K318" t="inlineStr">
+      <c r="E321" t="n">
+        <v>9</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
+        <v>100</v>
+      </c>
+      <c r="N321" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O321" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P321" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S321" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T321" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>10</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E322" t="n">
+        <v>9</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L318" t="inlineStr">
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M322" t="n">
+        <v>100</v>
+      </c>
+      <c r="N322" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O322" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P322" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S322" t="n">
+        <v>667</v>
+      </c>
+      <c r="T322" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>10</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E323" t="n">
+        <v>9</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>100</v>
+      </c>
+      <c r="N323" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O323" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P323" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S323" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T323" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>10</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E324" t="n">
+        <v>9</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M318" t="n">
+      <c r="M324" t="n">
         <v>30</v>
       </c>
-      <c r="N318" t="n">
+      <c r="N324" t="n">
         <v>8000</v>
       </c>
-      <c r="O318" t="n">
+      <c r="O324" t="n">
         <v>8000</v>
       </c>
-      <c r="P318" t="n">
+      <c r="P324" t="n">
         <v>8000</v>
       </c>
-      <c r="Q318" t="inlineStr">
+      <c r="Q324" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R318" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S318" t="n">
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S324" t="n">
         <v>444</v>
       </c>
-      <c r="T318" t="n">
+      <c r="T324" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T342"/>
+  <dimension ref="A1:T345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,32 +27404,32 @@
         </is>
       </c>
       <c r="M338" t="n">
+        <v>20</v>
+      </c>
+      <c r="N338" t="n">
+        <v>157000</v>
+      </c>
+      <c r="O338" t="n">
+        <v>157000</v>
+      </c>
+      <c r="P338" t="n">
+        <v>157000</v>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S338" t="n">
+        <v>349</v>
+      </c>
+      <c r="T338" t="n">
         <v>450</v>
-      </c>
-      <c r="N338" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O338" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P338" t="n">
-        <v>9444</v>
-      </c>
-      <c r="Q338" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R338" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S338" t="n">
-        <v>944</v>
-      </c>
-      <c r="T338" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,29 +27475,29 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="N339" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O339" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="P339" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>889</v>
+        <v>222</v>
       </c>
       <c r="T339" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O340" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P340" t="n">
-        <v>8481</v>
+        <v>7000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="T340" t="n">
         <v>18</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="N341" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O341" t="n">
         <v>10000</v>
       </c>
       <c r="P341" t="n">
-        <v>10000</v>
+        <v>9444</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T341" t="n">
         <v>10</v>
@@ -27687,68 +27687,308 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E342" t="n">
+        <v>9</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M342" t="n">
+        <v>140</v>
+      </c>
+      <c r="N342" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O342" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P342" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S342" t="n">
+        <v>889</v>
+      </c>
+      <c r="T342" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>10</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E343" t="n">
+        <v>9</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M343" t="n">
+        <v>135</v>
+      </c>
+      <c r="N343" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O343" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P343" t="n">
+        <v>8481</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S343" t="n">
+        <v>471</v>
+      </c>
+      <c r="T343" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>10</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E344" t="n">
+        <v>9</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M344" t="n">
+        <v>125</v>
+      </c>
+      <c r="N344" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O344" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P344" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S344" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T344" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>10</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E342" t="n">
-        <v>9</v>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G342" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I342" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K342" t="inlineStr">
+      <c r="E345" t="n">
+        <v>9</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
         <is>
           <t>Clementina</t>
         </is>
       </c>
-      <c r="L342" t="inlineStr">
+      <c r="L345" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M342" t="n">
+      <c r="M345" t="n">
         <v>315</v>
       </c>
-      <c r="N342" t="n">
+      <c r="N345" t="n">
         <v>7000</v>
       </c>
-      <c r="O342" t="n">
+      <c r="O345" t="n">
         <v>8000</v>
       </c>
-      <c r="P342" t="n">
+      <c r="P345" t="n">
         <v>7508</v>
       </c>
-      <c r="Q342" t="inlineStr">
+      <c r="Q345" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R342" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S342" t="n">
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S345" t="n">
         <v>417</v>
       </c>
-      <c r="T342" t="n">
+      <c r="T345" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T345"/>
+  <dimension ref="A1:T349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N302" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O302" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P302" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="N303" t="n">
-        <v>14400</v>
+        <v>157000</v>
       </c>
       <c r="O303" t="n">
-        <v>14400</v>
+        <v>157000</v>
       </c>
       <c r="P303" t="n">
-        <v>14400</v>
+        <v>157000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>800</v>
+        <v>349</v>
       </c>
       <c r="T303" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24675,29 +24675,29 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>1600</v>
+        <v>6</v>
       </c>
       <c r="N304" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O304" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P304" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T304" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N305" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O305" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P305" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T305" t="n">
         <v>450</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,20 +24844,20 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>2180</v>
+        <v>155</v>
       </c>
       <c r="N306" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O306" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P306" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T306" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,20 +24924,20 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N307" t="n">
-        <v>135000</v>
+        <v>14400</v>
       </c>
       <c r="O307" t="n">
-        <v>135000</v>
+        <v>14400</v>
       </c>
       <c r="P307" t="n">
-        <v>135000</v>
+        <v>14400</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T307" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308">
@@ -24995,29 +24995,29 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>630</v>
+        <v>1600</v>
       </c>
       <c r="N308" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O308" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P308" t="n">
-        <v>21206</v>
+        <v>12000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1060</v>
+        <v>667</v>
       </c>
       <c r="T308" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309">
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,20 +25084,20 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="N309" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O309" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P309" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T309" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25155,29 +25155,29 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>235</v>
+        <v>2180</v>
       </c>
       <c r="N310" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="O310" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P310" t="n">
-        <v>21468</v>
+        <v>6000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1073</v>
+        <v>600</v>
       </c>
       <c r="T310" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25235,29 +25235,29 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="N311" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="O311" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="P311" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="T311" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25315,29 +25315,29 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>85</v>
+        <v>630</v>
       </c>
       <c r="N312" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O312" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P312" t="n">
-        <v>15000</v>
+        <v>21206</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>833</v>
+        <v>1060</v>
       </c>
       <c r="T312" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="N313" t="n">
         <v>12000</v>
@@ -25417,7 +25417,7 @@
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25475,29 +25475,29 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="N314" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O314" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P314" t="n">
-        <v>8000</v>
+        <v>21468</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>444</v>
+        <v>1073</v>
       </c>
       <c r="T314" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25555,29 +25555,29 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N315" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P315" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="T315" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,20 +25644,20 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N316" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O316" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P316" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T316" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N317" t="n">
         <v>12000</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25804,20 +25804,20 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="N318" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O318" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P318" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T318" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319">
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N319" t="n">
-        <v>135000</v>
+        <v>15000</v>
       </c>
       <c r="O319" t="n">
-        <v>135000</v>
+        <v>15000</v>
       </c>
       <c r="P319" t="n">
-        <v>135000</v>
+        <v>15000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T319" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320">
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N320" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="O320" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P320" t="n">
-        <v>4350</v>
+        <v>6000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>242</v>
+        <v>600</v>
       </c>
       <c r="T320" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
@@ -26035,29 +26035,29 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N321" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O321" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P321" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T321" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="322">
@@ -26115,25 +26115,25 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N322" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O322" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P322" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T322" t="n">
         <v>10</v>
@@ -26195,29 +26195,29 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>650</v>
+        <v>19</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O323" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P323" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T323" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="324">
@@ -26275,29 +26275,29 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N324" t="n">
-        <v>20000</v>
+        <v>700</v>
       </c>
       <c r="O324" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P324" t="n">
-        <v>20000</v>
+        <v>4350</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1000</v>
+        <v>242</v>
       </c>
       <c r="T324" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325">
@@ -26360,24 +26360,24 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>3</v>
+        <v>530</v>
       </c>
       <c r="N325" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="O325" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="P325" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T325" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326">
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N326" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O326" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P326" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T326" t="n">
         <v>10</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="N327" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O327" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P327" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T327" t="n">
         <v>18</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26595,41 +26595,41 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O328" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P328" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="T328" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26675,41 +26675,41 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N329" t="n">
-        <v>11000</v>
+        <v>135000</v>
       </c>
       <c r="O329" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P329" t="n">
-        <v>11500</v>
+        <v>135000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="T329" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26755,41 +26755,41 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N330" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O330" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P330" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T330" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26835,41 +26835,41 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="N331" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O331" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P331" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1150</v>
+        <v>444</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
@@ -26915,25 +26915,25 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M332" t="n">
         <v>50</v>
       </c>
       <c r="N332" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O332" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P332" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>778</v>
+        <v>1278</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -27000,36 +27000,36 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="N333" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O333" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P333" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="T333" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44412</v>
+        <v>44319</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="N334" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="O334" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="P334" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27102,11 +27102,11 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T334" t="n">
         <v>18</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44412</v>
+        <v>44319</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,32 +27164,32 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N335" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>833</v>
+        <v>1150</v>
       </c>
       <c r="T335" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44314</v>
+        <v>44319</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27240,24 +27240,24 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="N336" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O336" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P336" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,10 +27266,10 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1500</v>
+        <v>778</v>
       </c>
       <c r="T336" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44314</v>
+        <v>44376</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,41 +27315,41 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="N337" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="O337" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="P337" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>2056</v>
+        <v>1000</v>
       </c>
       <c r="T337" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27404,20 +27404,20 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="N338" t="n">
-        <v>157000</v>
+        <v>12500</v>
       </c>
       <c r="O338" t="n">
-        <v>157000</v>
+        <v>12500</v>
       </c>
       <c r="P338" t="n">
-        <v>157000</v>
+        <v>12500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>349</v>
+        <v>694</v>
       </c>
       <c r="T338" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27480,24 +27480,24 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>7</v>
+        <v>350</v>
       </c>
       <c r="N339" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="O339" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="P339" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>222</v>
+        <v>833</v>
       </c>
       <c r="T339" t="n">
-        <v>450</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,32 +27564,32 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="N340" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O340" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P340" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>389</v>
+        <v>1500</v>
       </c>
       <c r="T340" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27635,41 +27635,41 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="N341" t="n">
-        <v>9000</v>
+        <v>37000</v>
       </c>
       <c r="O341" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="P341" t="n">
-        <v>9444</v>
+        <v>37000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>944</v>
+        <v>2056</v>
       </c>
       <c r="T341" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27715,29 +27715,29 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N342" t="n">
-        <v>16000</v>
+        <v>157000</v>
       </c>
       <c r="O342" t="n">
-        <v>16000</v>
+        <v>157000</v>
       </c>
       <c r="P342" t="n">
-        <v>16000</v>
+        <v>157000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>889</v>
+        <v>349</v>
       </c>
       <c r="T342" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27800,24 +27800,24 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="N343" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="O343" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="P343" t="n">
-        <v>8481</v>
+        <v>100000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>471</v>
+        <v>222</v>
       </c>
       <c r="T343" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="N344" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O344" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P344" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T344" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345">
@@ -27927,68 +27927,388 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E345" t="n">
+        <v>9</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>450</v>
+      </c>
+      <c r="N345" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O345" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P345" t="n">
+        <v>9444</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S345" t="n">
+        <v>944</v>
+      </c>
+      <c r="T345" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>10</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E346" t="n">
+        <v>9</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>140</v>
+      </c>
+      <c r="N346" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O346" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P346" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S346" t="n">
+        <v>889</v>
+      </c>
+      <c r="T346" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>10</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E347" t="n">
+        <v>9</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>135</v>
+      </c>
+      <c r="N347" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O347" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P347" t="n">
+        <v>8481</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S347" t="n">
+        <v>471</v>
+      </c>
+      <c r="T347" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>10</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E348" t="n">
+        <v>9</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>125</v>
+      </c>
+      <c r="N348" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O348" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P348" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S348" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T348" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>10</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E345" t="n">
-        <v>9</v>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G345" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I345" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K345" t="inlineStr">
+      <c r="E349" t="n">
+        <v>9</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
         <is>
           <t>Clementina</t>
         </is>
       </c>
-      <c r="L345" t="inlineStr">
+      <c r="L349" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M345" t="n">
+      <c r="M349" t="n">
         <v>315</v>
       </c>
-      <c r="N345" t="n">
+      <c r="N349" t="n">
         <v>7000</v>
       </c>
-      <c r="O345" t="n">
+      <c r="O349" t="n">
         <v>8000</v>
       </c>
-      <c r="P345" t="n">
+      <c r="P349" t="n">
         <v>7508</v>
       </c>
-      <c r="Q345" t="inlineStr">
+      <c r="Q349" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R345" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S345" t="n">
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S349" t="n">
         <v>417</v>
       </c>
-      <c r="T345" t="n">
+      <c r="T349" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T349"/>
+  <dimension ref="A1:T351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E186" t="n">
         <v>9</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O186" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P186" t="n">
-        <v>10468</v>
+        <v>12000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E187" t="n">
         <v>9</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="N187" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O187" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P187" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E188" t="n">
         <v>9</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,20 +15404,20 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="N188" t="n">
         <v>10000</v>
       </c>
       <c r="O188" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P188" t="n">
-        <v>10000</v>
+        <v>10468</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1000</v>
+        <v>582</v>
       </c>
       <c r="T188" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E189" t="n">
         <v>9</v>
@@ -15475,29 +15475,29 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N189" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O189" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P189" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T189" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E190" t="n">
         <v>9</v>
@@ -15564,20 +15564,20 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N190" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O190" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P190" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,10 +15586,10 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T190" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -15640,24 +15640,24 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="N191" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="O191" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="P191" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T191" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N192" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O192" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P192" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E193" t="n">
         <v>9</v>
@@ -15795,29 +15795,29 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="N193" t="n">
-        <v>22000</v>
+        <v>135000</v>
       </c>
       <c r="O193" t="n">
-        <v>22000</v>
+        <v>135000</v>
       </c>
       <c r="P193" t="n">
-        <v>22000</v>
+        <v>135000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -15826,10 +15826,10 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="T193" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E194" t="n">
         <v>9</v>
@@ -15875,29 +15875,29 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N194" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O194" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P194" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T194" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195">
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="N195" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O195" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P195" t="n">
-        <v>8556</v>
+        <v>22000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>475</v>
+        <v>1100</v>
       </c>
       <c r="T195" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
@@ -16044,20 +16044,20 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N196" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="O196" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="P196" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T196" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E197" t="n">
         <v>9</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="N197" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O197" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P197" t="n">
-        <v>14000</v>
+        <v>8556</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>778</v>
+        <v>475</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E198" t="n">
         <v>9</v>
@@ -16204,20 +16204,20 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>850</v>
+        <v>8</v>
       </c>
       <c r="N198" t="n">
-        <v>11000</v>
+        <v>225000</v>
       </c>
       <c r="O198" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="P198" t="n">
-        <v>11529</v>
+        <v>225000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1153</v>
+        <v>500</v>
       </c>
       <c r="T198" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="199">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E199" t="n">
         <v>9</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N199" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O199" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P199" t="n">
-        <v>20417</v>
+        <v>14000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1134</v>
+        <v>778</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
       <c r="N200" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O200" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P200" t="n">
-        <v>8621</v>
+        <v>11529</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>862</v>
+        <v>1153</v>
       </c>
       <c r="T200" t="n">
         <v>10</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N201" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O201" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P201" t="n">
-        <v>14000</v>
+        <v>20417</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>778</v>
+        <v>1134</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E202" t="n">
         <v>9</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="N202" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O202" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P202" t="n">
-        <v>12000</v>
+        <v>8621</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1200</v>
+        <v>862</v>
       </c>
       <c r="T202" t="n">
         <v>10</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E203" t="n">
         <v>9</v>
@@ -16600,24 +16600,24 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N203" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O203" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P203" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T203" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E204" t="n">
         <v>9</v>
@@ -16675,29 +16675,29 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N204" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O204" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P204" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -16706,10 +16706,10 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T204" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N205" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O205" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P205" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T205" t="n">
         <v>10</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N206" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O206" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P206" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E207" t="n">
         <v>9</v>
@@ -16920,36 +16920,36 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="N207" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O207" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P207" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S207" t="n">
         <v>1000</v>
       </c>
       <c r="T207" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -17004,20 +17004,20 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N208" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O208" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P208" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="T208" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E209" t="n">
         <v>9</v>
@@ -17080,36 +17080,36 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="N209" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="O209" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="P209" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T209" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E210" t="n">
         <v>9</v>
@@ -17155,29 +17155,29 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="N210" t="n">
-        <v>135000</v>
+        <v>13000</v>
       </c>
       <c r="O210" t="n">
-        <v>135000</v>
+        <v>13000</v>
       </c>
       <c r="P210" t="n">
-        <v>135000</v>
+        <v>13000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>300</v>
+        <v>867</v>
       </c>
       <c r="T210" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211">
@@ -17235,29 +17235,29 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="N211" t="n">
-        <v>21000</v>
+        <v>200000</v>
       </c>
       <c r="O211" t="n">
-        <v>21000</v>
+        <v>200000</v>
       </c>
       <c r="P211" t="n">
-        <v>21000</v>
+        <v>200000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1050</v>
+        <v>444</v>
       </c>
       <c r="T211" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="212">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17324,20 +17324,20 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N212" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="O212" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P212" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="T212" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E213" t="n">
         <v>9</v>
@@ -17395,29 +17395,29 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N213" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="O213" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="P213" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="T213" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -17480,24 +17480,24 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N214" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O214" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P214" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T214" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215">
@@ -17555,29 +17555,29 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="N215" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="O215" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P215" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T215" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="216">
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N216" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O216" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P216" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T216" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N217" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O217" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P217" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T217" t="n">
         <v>10</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="N218" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O218" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P218" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E219" t="n">
         <v>9</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N219" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O219" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P219" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T219" t="n">
         <v>10</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E220" t="n">
         <v>9</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N220" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O220" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P220" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E221" t="n">
         <v>9</v>
@@ -18040,24 +18040,24 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N221" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O221" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P221" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -18066,10 +18066,10 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T221" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E222" t="n">
         <v>9</v>
@@ -18115,29 +18115,29 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N222" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O222" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P222" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T222" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E223" t="n">
         <v>9</v>
@@ -18195,29 +18195,29 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N223" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="O223" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="P223" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T223" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224">
@@ -18280,24 +18280,24 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="N224" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="O224" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="P224" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T224" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N225" t="n">
-        <v>180000</v>
+        <v>450000</v>
       </c>
       <c r="O225" t="n">
-        <v>180000</v>
+        <v>450000</v>
       </c>
       <c r="P225" t="n">
-        <v>180000</v>
+        <v>450000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T225" t="n">
         <v>450</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E226" t="n">
         <v>9</v>
@@ -18435,29 +18435,29 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N226" t="n">
-        <v>15000</v>
+        <v>225000</v>
       </c>
       <c r="O226" t="n">
-        <v>15000</v>
+        <v>225000</v>
       </c>
       <c r="P226" t="n">
-        <v>15000</v>
+        <v>225000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T226" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E227" t="n">
         <v>9</v>
@@ -18515,29 +18515,29 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>580</v>
+        <v>10</v>
       </c>
       <c r="N227" t="n">
-        <v>22000</v>
+        <v>180000</v>
       </c>
       <c r="O227" t="n">
-        <v>22000</v>
+        <v>180000</v>
       </c>
       <c r="P227" t="n">
-        <v>22000</v>
+        <v>180000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="T227" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228">
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="N228" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O228" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P228" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18680,24 +18680,24 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="N229" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O229" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P229" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -18706,10 +18706,10 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="T229" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
@@ -18755,29 +18755,29 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="N230" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O230" t="n">
         <v>13000</v>
       </c>
       <c r="P230" t="n">
-        <v>12556</v>
+        <v>13000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1256</v>
+        <v>722</v>
       </c>
       <c r="T230" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N231" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O231" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P231" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E232" t="n">
         <v>9</v>
@@ -18915,29 +18915,29 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N232" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O232" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P232" t="n">
-        <v>15000</v>
+        <v>12556</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>833</v>
+        <v>1256</v>
       </c>
       <c r="T232" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E233" t="n">
         <v>9</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -19004,32 +19004,32 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="N233" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O233" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P233" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T233" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E234" t="n">
         <v>9</v>
@@ -19075,41 +19075,41 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O234" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P234" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T234" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E235" t="n">
         <v>9</v>
@@ -19155,41 +19155,41 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N235" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O235" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P235" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>778</v>
+        <v>1500</v>
       </c>
       <c r="T235" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E236" t="n">
         <v>9</v>
@@ -19235,16 +19235,16 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="N236" t="n">
         <v>12000</v>
@@ -19257,19 +19257,19 @@
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T236" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E237" t="n">
         <v>9</v>
@@ -19315,29 +19315,29 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N237" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O237" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P237" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -19346,10 +19346,10 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T237" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44341</v>
+        <v>44210</v>
       </c>
       <c r="E238" t="n">
         <v>9</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="N238" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O238" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P238" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E239" t="n">
         <v>9</v>
@@ -19475,29 +19475,29 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="N239" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O239" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P239" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="T239" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240">
@@ -19555,38 +19555,38 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="N240" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="O240" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="P240" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1944</v>
+        <v>889</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="N241" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P241" t="n">
-        <v>11463</v>
+        <v>14000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>637</v>
+        <v>778</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -19720,36 +19720,36 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="N242" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="O242" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="P242" t="n">
-        <v>21367</v>
+        <v>35000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1068</v>
+        <v>1944</v>
       </c>
       <c r="T242" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -19800,36 +19800,36 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="N243" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O243" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>30000</v>
+        <v>11463</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>2000</v>
+        <v>637</v>
       </c>
       <c r="T243" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19875,41 +19875,41 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="N244" t="n">
-        <v>23400</v>
+        <v>21000</v>
       </c>
       <c r="O244" t="n">
-        <v>23400</v>
+        <v>22000</v>
       </c>
       <c r="P244" t="n">
-        <v>23400</v>
+        <v>21367</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1300</v>
+        <v>1068</v>
       </c>
       <c r="T244" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19960,36 +19960,36 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N245" t="n">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="O245" t="n">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="P245" t="n">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="T245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -20040,36 +20040,36 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N246" t="n">
-        <v>157000</v>
+        <v>23400</v>
       </c>
       <c r="O246" t="n">
-        <v>157000</v>
+        <v>23400</v>
       </c>
       <c r="P246" t="n">
-        <v>157000</v>
+        <v>23400</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>349</v>
+        <v>1300</v>
       </c>
       <c r="T246" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
@@ -20115,29 +20115,29 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N247" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="O247" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="P247" t="n">
-        <v>22429</v>
+        <v>4000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1121</v>
+        <v>400</v>
       </c>
       <c r="T247" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
@@ -20195,29 +20195,29 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N248" t="n">
-        <v>8000</v>
+        <v>157000</v>
       </c>
       <c r="O248" t="n">
-        <v>8000</v>
+        <v>157000</v>
       </c>
       <c r="P248" t="n">
-        <v>8000</v>
+        <v>157000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="T248" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -20275,29 +20275,29 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>705</v>
+        <v>280</v>
       </c>
       <c r="N249" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O249" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P249" t="n">
-        <v>10780</v>
+        <v>22429</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>599</v>
+        <v>1121</v>
       </c>
       <c r="T249" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -20355,29 +20355,29 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N250" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="O250" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="P250" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T250" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>450</v>
+        <v>705</v>
       </c>
       <c r="N251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P251" t="n">
-        <v>8000</v>
+        <v>10780</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20515,29 +20515,29 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="N252" t="n">
-        <v>22000</v>
+        <v>100000</v>
       </c>
       <c r="O252" t="n">
-        <v>22000</v>
+        <v>100000</v>
       </c>
       <c r="P252" t="n">
-        <v>22000</v>
+        <v>100000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1100</v>
+        <v>222</v>
       </c>
       <c r="T252" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="253">
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="N253" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O253" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P253" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,20 +20684,20 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="N254" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O254" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P254" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T254" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N255" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O255" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P255" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20835,29 +20835,29 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>100</v>
       </c>
       <c r="N256" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O256" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P256" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20869,7 +20869,7 @@
         <v>1000</v>
       </c>
       <c r="T256" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257">
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N257" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O257" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P257" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21004,20 +21004,20 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N258" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O258" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P258" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T258" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21075,29 +21075,29 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N259" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O259" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="P259" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T259" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N260" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="O260" t="n">
-        <v>225000</v>
+        <v>13000</v>
       </c>
       <c r="P260" t="n">
-        <v>225000</v>
+        <v>12500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="T260" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -21244,20 +21244,20 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>270000</v>
       </c>
       <c r="O261" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P261" t="n">
-        <v>9617</v>
+        <v>270000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="T261" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="262">
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21315,29 +21315,29 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="N262" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="O262" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="P262" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T262" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21395,38 +21395,38 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>255</v>
+        <v>405</v>
       </c>
       <c r="N263" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="O263" t="n">
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="P263" t="n">
-        <v>36000</v>
+        <v>9617</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>2000</v>
+        <v>534</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -21475,29 +21475,29 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N264" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O264" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>21579</v>
+        <v>12000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1199</v>
+        <v>667</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21555,41 +21555,41 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="N265" t="n">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="O265" t="n">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="P265" t="n">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="T265" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266">
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="N266" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O266" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P266" t="n">
-        <v>16532</v>
+        <v>21579</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>918</v>
+        <v>1199</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
         <v>65</v>
       </c>
       <c r="N267" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O267" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P267" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T267" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268">
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="N268" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P268" t="n">
-        <v>15000</v>
+        <v>16532</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>750</v>
+        <v>918</v>
       </c>
       <c r="T268" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -21875,29 +21875,29 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N269" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O269" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P269" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1500</v>
+        <v>778</v>
       </c>
       <c r="T269" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -21955,25 +21955,25 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N270" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O270" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P270" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22040,36 +22040,36 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N271" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O271" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P271" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T271" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
@@ -22120,36 +22120,36 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N272" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O272" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P272" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>833</v>
+        <v>1500</v>
       </c>
       <c r="T272" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22195,41 +22195,41 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N273" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O273" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P273" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T273" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E274" t="n">
         <v>9</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N274" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O274" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P274" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22302,11 +22302,11 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22360,24 +22360,24 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N275" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="O275" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="P275" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>349</v>
+        <v>1100</v>
       </c>
       <c r="T275" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276">
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N277" t="n">
-        <v>135000</v>
+        <v>157000</v>
       </c>
       <c r="O277" t="n">
-        <v>135000</v>
+        <v>157000</v>
       </c>
       <c r="P277" t="n">
-        <v>135000</v>
+        <v>157000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="T277" t="n">
         <v>450</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="N278" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="O278" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="P278" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>200</v>
+        <v>444</v>
       </c>
       <c r="T278" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22675,41 +22675,41 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="N279" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="O279" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="P279" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="T279" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22755,41 +22755,41 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="N280" t="n">
-        <v>11000</v>
+        <v>90000</v>
       </c>
       <c r="O280" t="n">
-        <v>11000</v>
+        <v>90000</v>
       </c>
       <c r="P280" t="n">
-        <v>11000</v>
+        <v>90000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="T280" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22835,41 +22835,41 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="N281" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O281" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P281" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T281" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22915,25 +22915,25 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N282" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O282" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P282" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22942,11 +22942,11 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="T282" t="n">
         <v>10</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N283" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P283" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N284" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O284" t="n">
         <v>4000</v>
       </c>
       <c r="P284" t="n">
-        <v>3714</v>
+        <v>4000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="T284" t="n">
         <v>10</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23164,20 +23164,20 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="N285" t="n">
-        <v>135000</v>
+        <v>9000</v>
       </c>
       <c r="O285" t="n">
-        <v>157000</v>
+        <v>9000</v>
       </c>
       <c r="P285" t="n">
-        <v>147222</v>
+        <v>9000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>327</v>
+        <v>500</v>
       </c>
       <c r="T285" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="N286" t="n">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="O286" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="P286" t="n">
-        <v>90000</v>
+        <v>3714</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>200</v>
+        <v>371</v>
       </c>
       <c r="T286" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
@@ -23315,29 +23315,29 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="N287" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="O287" t="n">
-        <v>15000</v>
+        <v>157000</v>
       </c>
       <c r="P287" t="n">
-        <v>15000</v>
+        <v>147222</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1000</v>
+        <v>327</v>
       </c>
       <c r="T287" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="288">
@@ -23395,29 +23395,29 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N288" t="n">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="O288" t="n">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="P288" t="n">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="T288" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="289">
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O289" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P289" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T289" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290">
@@ -23560,24 +23560,24 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N290" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O290" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P290" t="n">
-        <v>7600</v>
+        <v>20000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>422</v>
+        <v>1000</v>
       </c>
       <c r="T290" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291">
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N291" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O291" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P291" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E292" t="n">
         <v>9</v>
@@ -23715,29 +23715,29 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="N292" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O292" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P292" t="n">
-        <v>21000</v>
+        <v>7600</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1050</v>
+        <v>422</v>
       </c>
       <c r="T292" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N293" t="n">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="O293" t="n">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="P293" t="n">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="N294" t="n">
-        <v>8100</v>
+        <v>21000</v>
       </c>
       <c r="O294" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P294" t="n">
-        <v>8469</v>
+        <v>21000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>470</v>
+        <v>1050</v>
       </c>
       <c r="T294" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23964,32 +23964,32 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="N295" t="n">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="O295" t="n">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="P295" t="n">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="T295" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24035,41 +24035,41 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="N296" t="n">
-        <v>20000</v>
+        <v>8100</v>
       </c>
       <c r="O296" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P296" t="n">
-        <v>20000</v>
+        <v>8469</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>2000</v>
+        <v>470</v>
       </c>
       <c r="T296" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="N297" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="O297" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="P297" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T297" t="n">
         <v>10</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24195,29 +24195,29 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="N298" t="n">
-        <v>21600</v>
+        <v>20000</v>
       </c>
       <c r="O298" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P298" t="n">
-        <v>21827</v>
+        <v>20000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1213</v>
+        <v>2000</v>
       </c>
       <c r="T298" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,20 +24284,20 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="N299" t="n">
-        <v>450000</v>
+        <v>15500</v>
       </c>
       <c r="O299" t="n">
-        <v>450000</v>
+        <v>15500</v>
       </c>
       <c r="P299" t="n">
-        <v>450000</v>
+        <v>15500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="T299" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="N300" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O300" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P300" t="n">
-        <v>18000</v>
+        <v>21827</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1000</v>
+        <v>1213</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24435,29 +24435,29 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="N301" t="n">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="O301" t="n">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="P301" t="n">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T301" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N302" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O302" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P302" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>389</v>
+        <v>1000</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24595,41 +24595,41 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N303" t="n">
-        <v>157000</v>
+        <v>15000</v>
       </c>
       <c r="O303" t="n">
-        <v>157000</v>
+        <v>15000</v>
       </c>
       <c r="P303" t="n">
-        <v>157000</v>
+        <v>15000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>349</v>
+        <v>833</v>
       </c>
       <c r="T303" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304">
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N304" t="n">
-        <v>135000</v>
+        <v>7000</v>
       </c>
       <c r="O304" t="n">
-        <v>135000</v>
+        <v>7000</v>
       </c>
       <c r="P304" t="n">
-        <v>135000</v>
+        <v>7000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="T304" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305">
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N305" t="n">
-        <v>100000</v>
+        <v>157000</v>
       </c>
       <c r="O305" t="n">
-        <v>100000</v>
+        <v>157000</v>
       </c>
       <c r="P305" t="n">
-        <v>100000</v>
+        <v>157000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="T305" t="n">
         <v>450</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24840,24 +24840,24 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="N306" t="n">
-        <v>18000</v>
+        <v>135000</v>
       </c>
       <c r="O306" t="n">
-        <v>18000</v>
+        <v>135000</v>
       </c>
       <c r="P306" t="n">
-        <v>18000</v>
+        <v>135000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T306" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="N307" t="n">
-        <v>14400</v>
+        <v>100000</v>
       </c>
       <c r="O307" t="n">
-        <v>14400</v>
+        <v>100000</v>
       </c>
       <c r="P307" t="n">
-        <v>14400</v>
+        <v>100000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>800</v>
+        <v>222</v>
       </c>
       <c r="T307" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>1600</v>
+        <v>155</v>
       </c>
       <c r="N308" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O308" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P308" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="N309" t="n">
-        <v>180000</v>
+        <v>14400</v>
       </c>
       <c r="O309" t="n">
-        <v>180000</v>
+        <v>14400</v>
       </c>
       <c r="P309" t="n">
-        <v>180000</v>
+        <v>14400</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T309" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310">
@@ -25164,20 +25164,20 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>2180</v>
+        <v>1600</v>
       </c>
       <c r="N310" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O310" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P310" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T310" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311">
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N311" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="O311" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P311" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T311" t="n">
         <v>450</v>
@@ -25315,29 +25315,29 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>630</v>
+        <v>2180</v>
       </c>
       <c r="N312" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O312" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P312" t="n">
-        <v>21206</v>
+        <v>6000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1060</v>
+        <v>600</v>
       </c>
       <c r="T312" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -25395,29 +25395,29 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P313" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T313" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>235</v>
+        <v>630</v>
       </c>
       <c r="N314" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O314" t="n">
         <v>22000</v>
       </c>
       <c r="P314" t="n">
-        <v>21468</v>
+        <v>21206</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25564,20 +25564,20 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="N315" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="T315" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316">
@@ -25635,29 +25635,29 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="N316" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O316" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P316" t="n">
-        <v>15000</v>
+        <v>21468</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>833</v>
+        <v>1073</v>
       </c>
       <c r="T316" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,20 +25724,20 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P317" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="T317" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="N318" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O318" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P318" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N319" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O319" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T319" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="N320" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T320" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321">
@@ -26040,24 +26040,24 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M321" t="n">
         <v>100</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O321" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P321" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T321" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322">
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N322" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O322" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P322" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T322" t="n">
         <v>10</v>
@@ -26200,24 +26200,24 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N323" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P323" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T323" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="324">
@@ -26280,24 +26280,24 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N324" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="O324" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P324" t="n">
-        <v>4350</v>
+        <v>4000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="T324" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -26355,29 +26355,29 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>530</v>
+        <v>19</v>
       </c>
       <c r="N325" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="O325" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="P325" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T325" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="326">
@@ -26435,29 +26435,29 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N326" t="n">
-        <v>6000</v>
+        <v>700</v>
       </c>
       <c r="O326" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P326" t="n">
-        <v>6000</v>
+        <v>4350</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>600</v>
+        <v>242</v>
       </c>
       <c r="T326" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
@@ -26520,24 +26520,24 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="N327" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O327" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P327" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T327" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328">
@@ -26604,20 +26604,20 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N328" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O328" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P328" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T328" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329">
@@ -26680,24 +26680,24 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>3</v>
+        <v>650</v>
       </c>
       <c r="N329" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T329" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330">
@@ -26760,24 +26760,24 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N330" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O330" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P330" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T330" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331">
@@ -26840,24 +26840,24 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="N331" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="O331" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P331" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="T331" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26915,41 +26915,41 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N332" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="O332" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="P332" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1278</v>
+        <v>400</v>
       </c>
       <c r="T332" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -26995,41 +26995,41 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N333" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O333" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P333" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1150</v>
+        <v>444</v>
       </c>
       <c r="T333" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334">
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N334" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O334" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P334" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="T334" t="n">
         <v>18</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N335" t="n">
         <v>11000</v>
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N336" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O336" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P336" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T336" t="n">
         <v>18</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,41 +27315,41 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="N337" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O337" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="T337" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44412</v>
+        <v>44319</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,25 +27395,25 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="N338" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O338" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P338" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27422,11 +27422,11 @@
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="T338" t="n">
         <v>18</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27480,24 +27480,24 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N339" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O339" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P339" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T339" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,32 +27564,32 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="N340" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O340" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P340" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1500</v>
+        <v>694</v>
       </c>
       <c r="T340" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27635,41 +27635,41 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="N341" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="O341" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="P341" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>2056</v>
+        <v>833</v>
       </c>
       <c r="T341" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,32 +27724,32 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="N342" t="n">
-        <v>157000</v>
+        <v>15000</v>
       </c>
       <c r="O342" t="n">
-        <v>157000</v>
+        <v>15000</v>
       </c>
       <c r="P342" t="n">
-        <v>157000</v>
+        <v>15000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>349</v>
+        <v>1500</v>
       </c>
       <c r="T342" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27795,41 +27795,41 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="N343" t="n">
-        <v>100000</v>
+        <v>37000</v>
       </c>
       <c r="O343" t="n">
-        <v>100000</v>
+        <v>37000</v>
       </c>
       <c r="P343" t="n">
-        <v>100000</v>
+        <v>37000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>222</v>
+        <v>2056</v>
       </c>
       <c r="T343" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="N344" t="n">
-        <v>7000</v>
+        <v>157000</v>
       </c>
       <c r="O344" t="n">
-        <v>7000</v>
+        <v>157000</v>
       </c>
       <c r="P344" t="n">
-        <v>7000</v>
+        <v>157000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="T344" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27955,41 +27955,41 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M345" t="n">
+        <v>7</v>
+      </c>
+      <c r="N345" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O345" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P345" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S345" t="n">
+        <v>222</v>
+      </c>
+      <c r="T345" t="n">
         <v>450</v>
-      </c>
-      <c r="N345" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O345" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P345" t="n">
-        <v>9444</v>
-      </c>
-      <c r="Q345" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R345" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S345" t="n">
-        <v>944</v>
-      </c>
-      <c r="T345" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N346" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O346" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P346" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>889</v>
+        <v>389</v>
       </c>
       <c r="T346" t="n">
         <v>18</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="N347" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O347" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>8481</v>
+        <v>9444</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>471</v>
+        <v>944</v>
       </c>
       <c r="T347" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28200,24 +28200,24 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N348" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O348" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P348" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T348" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349">
@@ -28247,68 +28247,228 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E349" t="n">
+        <v>9</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>135</v>
+      </c>
+      <c r="N349" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O349" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P349" t="n">
+        <v>8481</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S349" t="n">
+        <v>471</v>
+      </c>
+      <c r="T349" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>10</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E350" t="n">
+        <v>9</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>125</v>
+      </c>
+      <c r="N350" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O350" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P350" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S350" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T350" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>10</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E349" t="n">
-        <v>9</v>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G349" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I349" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J349" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K349" t="inlineStr">
+      <c r="E351" t="n">
+        <v>9</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
         <is>
           <t>Clementina</t>
         </is>
       </c>
-      <c r="L349" t="inlineStr">
+      <c r="L351" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M349" t="n">
+      <c r="M351" t="n">
         <v>315</v>
       </c>
-      <c r="N349" t="n">
+      <c r="N351" t="n">
         <v>7000</v>
       </c>
-      <c r="O349" t="n">
+      <c r="O351" t="n">
         <v>8000</v>
       </c>
-      <c r="P349" t="n">
+      <c r="P351" t="n">
         <v>7508</v>
       </c>
-      <c r="Q349" t="inlineStr">
+      <c r="Q351" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R349" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S349" t="n">
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S351" t="n">
         <v>417</v>
       </c>
-      <c r="T349" t="n">
+      <c r="T351" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T363"/>
+  <dimension ref="A1:T367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="N270" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O270" t="n">
         <v>12000</v>
       </c>
       <c r="P270" t="n">
-        <v>11463</v>
+        <v>12000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -22035,29 +22035,29 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="N271" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O271" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P271" t="n">
-        <v>21367</v>
+        <v>7000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1068</v>
+        <v>389</v>
       </c>
       <c r="T271" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,20 +22124,20 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="N272" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="O272" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="P272" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>867</v>
+        <v>300</v>
       </c>
       <c r="T272" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44389</v>
+        <v>44460</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22200,24 +22200,24 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="N273" t="n">
-        <v>12000</v>
+        <v>110000</v>
       </c>
       <c r="O273" t="n">
-        <v>12000</v>
+        <v>110000</v>
       </c>
       <c r="P273" t="n">
-        <v>12000</v>
+        <v>110000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>667</v>
+        <v>244</v>
       </c>
       <c r="T273" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E274" t="n">
         <v>9</v>
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="N274" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O274" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P274" t="n">
-        <v>22500</v>
+        <v>11463</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1125</v>
+        <v>637</v>
       </c>
       <c r="T274" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E275" t="n">
         <v>9</v>
@@ -22355,29 +22355,29 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N275" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O275" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P275" t="n">
-        <v>9000</v>
+        <v>21367</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>500</v>
+        <v>1068</v>
       </c>
       <c r="T275" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E276" t="n">
         <v>9</v>
@@ -22435,29 +22435,29 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N276" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O276" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P276" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>400</v>
+        <v>867</v>
       </c>
       <c r="T276" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E277" t="n">
         <v>9</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N277" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O277" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P277" t="n">
-        <v>14583</v>
+        <v>12000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>810</v>
+        <v>667</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22604,20 +22604,20 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="N278" t="n">
         <v>22000</v>
       </c>
       <c r="O278" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P278" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1222</v>
+        <v>1125</v>
       </c>
       <c r="T278" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="N279" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O279" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P279" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44280</v>
+        <v>44389</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22755,29 +22755,29 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N280" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="O280" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="P280" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1222</v>
+        <v>400</v>
       </c>
       <c r="T280" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44447</v>
+        <v>44265</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,20 +22844,20 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N281" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O281" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P281" t="n">
-        <v>6000</v>
+        <v>14583</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>600</v>
+        <v>810</v>
       </c>
       <c r="T281" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="N282" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="O282" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="P282" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>500</v>
+        <v>1222</v>
       </c>
       <c r="T282" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E283" t="n">
         <v>9</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="N283" t="n">
-        <v>135000</v>
+        <v>16000</v>
       </c>
       <c r="O283" t="n">
-        <v>135000</v>
+        <v>16000</v>
       </c>
       <c r="P283" t="n">
-        <v>135000</v>
+        <v>16000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>300</v>
+        <v>889</v>
       </c>
       <c r="T283" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E284" t="n">
         <v>9</v>
@@ -23087,17 +23087,17 @@
         <v>100</v>
       </c>
       <c r="N284" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O284" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P284" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T284" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23164,29 +23164,29 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N285" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O285" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P285" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T285" t="n">
         <v>10</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23244,32 +23244,32 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="N286" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="O286" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="P286" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1111</v>
+        <v>500</v>
       </c>
       <c r="T286" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23324,32 +23324,32 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="N287" t="n">
-        <v>17000</v>
+        <v>135000</v>
       </c>
       <c r="O287" t="n">
-        <v>17000</v>
+        <v>135000</v>
       </c>
       <c r="P287" t="n">
-        <v>17000</v>
+        <v>135000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>944</v>
+        <v>300</v>
       </c>
       <c r="T287" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E288" t="n">
         <v>9</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23407,17 +23407,17 @@
         <v>100</v>
       </c>
       <c r="N288" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O288" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P288" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T288" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23480,36 +23480,36 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="N289" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O289" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P289" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>933</v>
+        <v>1300</v>
       </c>
       <c r="T289" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
@@ -23564,32 +23564,32 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="N290" t="n">
-        <v>4300</v>
+        <v>20000</v>
       </c>
       <c r="O290" t="n">
-        <v>4300</v>
+        <v>20000</v>
       </c>
       <c r="P290" t="n">
-        <v>4300</v>
+        <v>20000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>430</v>
+        <v>1111</v>
       </c>
       <c r="T290" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
@@ -23640,36 +23640,36 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N291" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O291" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P291" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T291" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292">
@@ -23720,24 +23720,24 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N292" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O292" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P292" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T292" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23804,20 +23804,20 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="N293" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O293" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P293" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1100</v>
+        <v>933</v>
       </c>
       <c r="T293" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23884,20 +23884,20 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N294" t="n">
-        <v>10000</v>
+        <v>4300</v>
       </c>
       <c r="O294" t="n">
-        <v>12000</v>
+        <v>4300</v>
       </c>
       <c r="P294" t="n">
-        <v>10862</v>
+        <v>4300</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>603</v>
+        <v>430</v>
       </c>
       <c r="T294" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23964,32 +23964,32 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N295" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O295" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P295" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T295" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24040,36 +24040,36 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N296" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O296" t="n">
-        <v>21000</v>
+        <v>3000</v>
       </c>
       <c r="P296" t="n">
-        <v>20556</v>
+        <v>3000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1142</v>
+        <v>300</v>
       </c>
       <c r="T296" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24124,32 +24124,32 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N297" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O297" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P297" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="T297" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="N298" t="n">
-        <v>23400</v>
+        <v>10000</v>
       </c>
       <c r="O298" t="n">
-        <v>23400</v>
+        <v>12000</v>
       </c>
       <c r="P298" t="n">
-        <v>23400</v>
+        <v>10862</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1300</v>
+        <v>603</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N299" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O299" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P299" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T299" t="n">
         <v>10</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44168</v>
+        <v>44308</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,32 +24364,32 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="N300" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O300" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P300" t="n">
-        <v>9429</v>
+        <v>20556</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>943</v>
+        <v>1142</v>
       </c>
       <c r="T300" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -24440,36 +24440,36 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="N301" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="O301" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P301" t="n">
-        <v>9617</v>
+        <v>30000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>534</v>
+        <v>2000</v>
       </c>
       <c r="T301" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24515,41 +24515,41 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N302" t="n">
-        <v>20000</v>
+        <v>23400</v>
       </c>
       <c r="O302" t="n">
-        <v>20000</v>
+        <v>23400</v>
       </c>
       <c r="P302" t="n">
-        <v>20000</v>
+        <v>23400</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T302" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24604,20 +24604,20 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N303" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O303" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P303" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T303" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="N304" t="n">
-        <v>135000</v>
+        <v>9000</v>
       </c>
       <c r="O304" t="n">
-        <v>135000</v>
+        <v>10000</v>
       </c>
       <c r="P304" t="n">
-        <v>135000</v>
+        <v>9429</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>300</v>
+        <v>943</v>
       </c>
       <c r="T304" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="N305" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O305" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P305" t="n">
-        <v>8000</v>
+        <v>9617</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>534</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="N306" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O306" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P306" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,32 +24924,32 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N307" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O307" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P307" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1500</v>
+        <v>667</v>
       </c>
       <c r="T307" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,32 +25004,32 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="N308" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O308" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P308" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T308" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="N309" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O309" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P309" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="T309" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25160,24 +25160,24 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="N310" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="O310" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="P310" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="T310" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,32 +25244,32 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N311" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O311" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P311" t="n">
-        <v>8556</v>
+        <v>15000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>475</v>
+        <v>1500</v>
       </c>
       <c r="T311" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25315,41 +25315,41 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N312" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="O312" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T312" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25404,20 +25404,20 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="N313" t="n">
-        <v>360000</v>
+        <v>22000</v>
       </c>
       <c r="O313" t="n">
-        <v>360000</v>
+        <v>22000</v>
       </c>
       <c r="P313" t="n">
-        <v>360000</v>
+        <v>22000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T313" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="N314" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O314" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P314" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="T314" t="n">
         <v>10</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="N315" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O315" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P315" t="n">
-        <v>10000</v>
+        <v>8556</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N316" t="n">
         <v>225000</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,20 +25724,20 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N317" t="n">
-        <v>27000</v>
+        <v>360000</v>
       </c>
       <c r="O317" t="n">
-        <v>28000</v>
+        <v>360000</v>
       </c>
       <c r="P317" t="n">
-        <v>27600</v>
+        <v>360000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1533</v>
+        <v>800</v>
       </c>
       <c r="T317" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,20 +25804,20 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N318" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="O318" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P318" t="n">
-        <v>22000</v>
+        <v>4750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1222</v>
+        <v>475</v>
       </c>
       <c r="T318" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25875,29 +25875,29 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N319" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T319" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25955,29 +25955,29 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N320" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="O320" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="P320" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T320" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26040,24 +26040,24 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="O321" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P321" t="n">
-        <v>12000</v>
+        <v>27600</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>667</v>
+        <v>1533</v>
       </c>
       <c r="T321" t="n">
         <v>18</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26115,38 +26115,38 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="N322" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="O322" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="P322" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2000</v>
+        <v>1222</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26195,29 +26195,29 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>1600</v>
+        <v>70</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O323" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P323" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T323" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26275,29 +26275,29 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N324" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O324" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P324" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T324" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,20 +26364,20 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>2180</v>
+        <v>115</v>
       </c>
       <c r="N325" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P325" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T325" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26435,41 +26435,41 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="N326" t="n">
-        <v>135000</v>
+        <v>36000</v>
       </c>
       <c r="O326" t="n">
-        <v>135000</v>
+        <v>36000</v>
       </c>
       <c r="P326" t="n">
-        <v>135000</v>
+        <v>36000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="T326" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
@@ -26515,29 +26515,29 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>630</v>
+        <v>1600</v>
       </c>
       <c r="N327" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O327" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P327" t="n">
-        <v>21206</v>
+        <v>12000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1060</v>
+        <v>667</v>
       </c>
       <c r="T327" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="328">
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,20 +26604,20 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="N328" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P328" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T328" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26684,20 +26684,20 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>10</v>
+        <v>2180</v>
       </c>
       <c r="N329" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="O329" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="P329" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T329" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N330" t="n">
-        <v>157500</v>
+        <v>135000</v>
       </c>
       <c r="O330" t="n">
-        <v>157500</v>
+        <v>135000</v>
       </c>
       <c r="P330" t="n">
-        <v>157500</v>
+        <v>135000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="T330" t="n">
         <v>450</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26835,29 +26835,29 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>5</v>
+        <v>630</v>
       </c>
       <c r="N331" t="n">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="O331" t="n">
-        <v>90000</v>
+        <v>22000</v>
       </c>
       <c r="P331" t="n">
-        <v>90000</v>
+        <v>21206</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>200</v>
+        <v>1060</v>
       </c>
       <c r="T331" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26924,20 +26924,20 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="N332" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O332" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1444</v>
+        <v>667</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -27004,20 +27004,20 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="N333" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O333" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P333" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T333" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27075,29 +27075,29 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="N334" t="n">
-        <v>10000</v>
+        <v>157500</v>
       </c>
       <c r="O334" t="n">
-        <v>10000</v>
+        <v>157500</v>
       </c>
       <c r="P334" t="n">
-        <v>10000</v>
+        <v>157500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>556</v>
+        <v>350</v>
       </c>
       <c r="T334" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27155,29 +27155,29 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="N335" t="n">
-        <v>17000</v>
+        <v>90000</v>
       </c>
       <c r="O335" t="n">
-        <v>18000</v>
+        <v>90000</v>
       </c>
       <c r="P335" t="n">
-        <v>17478</v>
+        <v>90000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>971</v>
+        <v>200</v>
       </c>
       <c r="T335" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="N336" t="n">
-        <v>14400</v>
+        <v>26000</v>
       </c>
       <c r="O336" t="n">
-        <v>14400</v>
+        <v>26000</v>
       </c>
       <c r="P336" t="n">
-        <v>14400</v>
+        <v>26000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>800</v>
+        <v>1444</v>
       </c>
       <c r="T336" t="n">
         <v>18</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="N337" t="n">
         <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="T337" t="n">
         <v>18</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,20 +27404,20 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="N338" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O338" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P338" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T338" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,29 +27475,29 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="N339" t="n">
-        <v>225000</v>
+        <v>17000</v>
       </c>
       <c r="O339" t="n">
-        <v>225000</v>
+        <v>18000</v>
       </c>
       <c r="P339" t="n">
-        <v>225000</v>
+        <v>17478</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>500</v>
+        <v>971</v>
       </c>
       <c r="T339" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27555,29 +27555,29 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="N340" t="n">
-        <v>4500</v>
+        <v>14400</v>
       </c>
       <c r="O340" t="n">
-        <v>5000</v>
+        <v>14400</v>
       </c>
       <c r="P340" t="n">
-        <v>4812</v>
+        <v>14400</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>481</v>
+        <v>800</v>
       </c>
       <c r="T340" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N341" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O341" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P341" t="n">
-        <v>9625</v>
+        <v>12500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>535</v>
+        <v>694</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27720,36 +27720,36 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N342" t="n">
-        <v>20000</v>
+        <v>270000</v>
       </c>
       <c r="O342" t="n">
-        <v>20000</v>
+        <v>270000</v>
       </c>
       <c r="P342" t="n">
-        <v>20000</v>
+        <v>270000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="T342" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27800,24 +27800,24 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="N343" t="n">
-        <v>16000</v>
+        <v>225000</v>
       </c>
       <c r="O343" t="n">
-        <v>16000</v>
+        <v>225000</v>
       </c>
       <c r="P343" t="n">
-        <v>16000</v>
+        <v>225000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T343" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>25</v>
+        <v>480</v>
       </c>
       <c r="N344" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O344" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P344" t="n">
-        <v>10000</v>
+        <v>4812</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1000</v>
+        <v>481</v>
       </c>
       <c r="T344" t="n">
         <v>10</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="N345" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O345" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>12366</v>
+        <v>9625</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>687</v>
+        <v>535</v>
       </c>
       <c r="T345" t="n">
         <v>18</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44203</v>
+        <v>44306</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28035,41 +28035,41 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="N346" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O346" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P346" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T346" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44162</v>
+        <v>44306</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="N347" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O347" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P347" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T347" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44410</v>
+        <v>44215</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N348" t="n">
-        <v>450000</v>
+        <v>10000</v>
       </c>
       <c r="O348" t="n">
-        <v>450000</v>
+        <v>10000</v>
       </c>
       <c r="P348" t="n">
-        <v>450000</v>
+        <v>10000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28229,7 +28229,7 @@
         <v>1000</v>
       </c>
       <c r="T348" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28280,24 +28280,24 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="N349" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>21000</v>
+        <v>12600</v>
       </c>
       <c r="P349" t="n">
-        <v>21000</v>
+        <v>12366</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1050</v>
+        <v>687</v>
       </c>
       <c r="T349" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>650</v>
+        <v>185</v>
       </c>
       <c r="N350" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O350" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P350" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28444,7 +28444,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N351" t="n">
         <v>10000</v>
@@ -28457,7 +28457,7 @@
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T351" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28524,20 +28524,20 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="N352" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="O352" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="P352" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T352" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28600,24 +28600,24 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="N353" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="O353" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="P353" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="T353" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>305</v>
+        <v>650</v>
       </c>
       <c r="N354" t="n">
-        <v>8100</v>
+        <v>9000</v>
       </c>
       <c r="O354" t="n">
         <v>9000</v>
       </c>
       <c r="P354" t="n">
-        <v>8469</v>
+        <v>9000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28755,29 +28755,29 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>310</v>
+        <v>125</v>
       </c>
       <c r="N355" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O355" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T355" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28840,24 +28840,24 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O356" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P356" t="n">
-        <v>10468</v>
+        <v>21000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>582</v>
+        <v>1050</v>
       </c>
       <c r="T356" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N357" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="O357" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P357" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T357" t="n">
         <v>18</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44425</v>
+        <v>44411</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,29 +28995,29 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="N358" t="n">
-        <v>18000</v>
+        <v>8100</v>
       </c>
       <c r="O358" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P358" t="n">
-        <v>18000</v>
+        <v>8469</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="T358" t="n">
         <v>18</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="N359" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O359" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P359" t="n">
-        <v>21309</v>
+        <v>20000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T359" t="n">
         <v>20</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="N360" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O360" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P360" t="n">
-        <v>13000</v>
+        <v>10468</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>722</v>
+        <v>582</v>
       </c>
       <c r="T360" t="n">
         <v>18</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29235,29 +29235,29 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N361" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O361" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P361" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1300</v>
+        <v>556</v>
       </c>
       <c r="T361" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,29 +29315,29 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="N362" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P362" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T362" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363">
@@ -29367,68 +29367,388 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E363" t="n">
+        <v>9</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G363" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M363" t="n">
+        <v>405</v>
+      </c>
+      <c r="N363" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O363" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P363" t="n">
+        <v>21309</v>
+      </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S363" t="n">
+        <v>1065</v>
+      </c>
+      <c r="T363" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>10</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E364" t="n">
+        <v>9</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G364" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M364" t="n">
+        <v>255</v>
+      </c>
+      <c r="N364" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O364" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P364" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S364" t="n">
+        <v>722</v>
+      </c>
+      <c r="T364" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>10</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D365" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E363" t="n">
-        <v>9</v>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G363" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I363" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J363" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K363" t="inlineStr">
+      <c r="E365" t="n">
+        <v>9</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
         <is>
           <t>Clementina</t>
         </is>
       </c>
-      <c r="L363" t="inlineStr">
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M365" t="n">
+        <v>80</v>
+      </c>
+      <c r="N365" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O365" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P365" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S365" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T365" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>10</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E366" t="n">
+        <v>9</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M363" t="n">
+      <c r="M366" t="n">
+        <v>300</v>
+      </c>
+      <c r="N366" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O366" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P366" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S366" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T366" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>10</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E367" t="n">
+        <v>9</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M367" t="n">
         <v>240</v>
       </c>
-      <c r="N363" t="n">
+      <c r="N367" t="n">
         <v>19000</v>
       </c>
-      <c r="O363" t="n">
+      <c r="O367" t="n">
         <v>21000</v>
       </c>
-      <c r="P363" t="n">
+      <c r="P367" t="n">
         <v>20167</v>
       </c>
-      <c r="Q363" t="inlineStr">
+      <c r="Q367" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R363" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S363" t="n">
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S367" t="n">
         <v>1120</v>
       </c>
-      <c r="T363" t="n">
+      <c r="T367" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T367"/>
+  <dimension ref="A1:T369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N349" t="n">
         <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="P349" t="n">
-        <v>12366</v>
+        <v>12000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="T349" t="n">
         <v>18</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="N350" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P350" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,20 +28444,20 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="N351" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O351" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P351" t="n">
-        <v>10000</v>
+        <v>12366</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1000</v>
+        <v>687</v>
       </c>
       <c r="T351" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28515,29 +28515,29 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="N352" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T352" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,29 +28595,29 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="N353" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T353" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354">
@@ -28680,24 +28680,24 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>650</v>
+        <v>8</v>
       </c>
       <c r="N354" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="O354" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="P354" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T354" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="355">
@@ -28755,29 +28755,29 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O355" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>833</v>
+        <v>1050</v>
       </c>
       <c r="T355" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28840,24 +28840,24 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>185</v>
+        <v>650</v>
       </c>
       <c r="N356" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O356" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P356" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="T356" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,20 +28924,20 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N357" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="O357" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P357" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T357" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358">
@@ -29000,24 +29000,24 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="N358" t="n">
-        <v>8100</v>
+        <v>21000</v>
       </c>
       <c r="O358" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P358" t="n">
-        <v>8469</v>
+        <v>21000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>470</v>
+        <v>1050</v>
       </c>
       <c r="T358" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29080,24 +29080,24 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="N359" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="O359" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="P359" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T359" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="N360" t="n">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="O360" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P360" t="n">
-        <v>10468</v>
+        <v>8469</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>582</v>
+        <v>470</v>
       </c>
       <c r="T360" t="n">
         <v>18</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29235,29 +29235,29 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="N361" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O361" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P361" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T361" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,29 +29315,29 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="N362" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O362" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P362" t="n">
-        <v>18000</v>
+        <v>10468</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1000</v>
+        <v>582</v>
       </c>
       <c r="T362" t="n">
         <v>18</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29395,29 +29395,29 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="N363" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O363" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P363" t="n">
-        <v>21309</v>
+        <v>10000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1065</v>
+        <v>556</v>
       </c>
       <c r="T363" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364">
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="N364" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O364" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P364" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,20 +29564,20 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="N365" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O365" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P365" t="n">
-        <v>13000</v>
+        <v>21309</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1300</v>
+        <v>1065</v>
       </c>
       <c r="T365" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,20 +29644,20 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="N366" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O366" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P366" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="T366" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367">
@@ -29720,35 +29720,195 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M367" t="n">
+        <v>80</v>
+      </c>
+      <c r="N367" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O367" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P367" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S367" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T367" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>10</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E368" t="n">
+        <v>9</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M367" t="n">
+      <c r="M368" t="n">
+        <v>300</v>
+      </c>
+      <c r="N368" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O368" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P368" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S368" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T368" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>10</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E369" t="n">
+        <v>9</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M369" t="n">
         <v>240</v>
       </c>
-      <c r="N367" t="n">
+      <c r="N369" t="n">
         <v>19000</v>
       </c>
-      <c r="O367" t="n">
+      <c r="O369" t="n">
         <v>21000</v>
       </c>
-      <c r="P367" t="n">
+      <c r="P369" t="n">
         <v>20167</v>
       </c>
-      <c r="Q367" t="inlineStr">
+      <c r="Q369" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R367" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S367" t="n">
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S369" t="n">
         <v>1120</v>
       </c>
-      <c r="T367" t="n">
+      <c r="T369" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T371"/>
+  <dimension ref="A1:T372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24595,41 +24595,41 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N303" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O303" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P303" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>2000</v>
+        <v>556</v>
       </c>
       <c r="T303" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304">
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N304" t="n">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="O304" t="n">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="P304" t="n">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="T304" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44166</v>
+        <v>44301</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,32 +24764,32 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="N305" t="n">
-        <v>10000</v>
+        <v>23400</v>
       </c>
       <c r="O305" t="n">
-        <v>10000</v>
+        <v>23400</v>
       </c>
       <c r="P305" t="n">
-        <v>10000</v>
+        <v>23400</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T305" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N306" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O306" t="n">
         <v>10000</v>
       </c>
       <c r="P306" t="n">
-        <v>9429</v>
+        <v>10000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>943</v>
+        <v>1000</v>
       </c>
       <c r="T306" t="n">
         <v>10</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>405</v>
+        <v>700</v>
       </c>
       <c r="N307" t="n">
         <v>9000</v>
@@ -24933,11 +24933,11 @@
         <v>10000</v>
       </c>
       <c r="P307" t="n">
-        <v>9617</v>
+        <v>9429</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>534</v>
+        <v>943</v>
       </c>
       <c r="T307" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,29 +24995,29 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="N308" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O308" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>20000</v>
+        <v>9617</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1000</v>
+        <v>534</v>
       </c>
       <c r="T308" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309">
@@ -25080,24 +25080,24 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N309" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O309" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P309" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T309" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310">
@@ -25160,24 +25160,24 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="N310" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O310" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P310" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T310" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311">
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N311" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="O311" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P311" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="T311" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25315,29 +25315,29 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="N312" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O312" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P312" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="T312" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,41 +25395,41 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="N313" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O313" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P313" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T313" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314">
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>155</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P314" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T314" t="n">
         <v>10</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25555,41 +25555,41 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="N315" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T315" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
@@ -25640,24 +25640,24 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="N316" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="O316" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="P316" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="T316" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317">
@@ -25724,20 +25724,20 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N317" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O317" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P317" t="n">
-        <v>8556</v>
+        <v>4000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="T317" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
@@ -25804,20 +25804,20 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="N318" t="n">
-        <v>225000</v>
+        <v>8000</v>
       </c>
       <c r="O318" t="n">
-        <v>225000</v>
+        <v>9000</v>
       </c>
       <c r="P318" t="n">
-        <v>225000</v>
+        <v>8556</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T318" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N319" t="n">
-        <v>360000</v>
+        <v>225000</v>
       </c>
       <c r="O319" t="n">
-        <v>360000</v>
+        <v>225000</v>
       </c>
       <c r="P319" t="n">
-        <v>360000</v>
+        <v>225000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T319" t="n">
         <v>450</v>
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="N320" t="n">
-        <v>4500</v>
+        <v>360000</v>
       </c>
       <c r="O320" t="n">
-        <v>5000</v>
+        <v>360000</v>
       </c>
       <c r="P320" t="n">
-        <v>4750</v>
+        <v>360000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="T320" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="321">
@@ -26044,20 +26044,20 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N321" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O321" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P321" t="n">
-        <v>10000</v>
+        <v>4750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="T321" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -26124,20 +26124,20 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N322" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="O322" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="P322" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T322" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26195,29 +26195,29 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N323" t="n">
-        <v>27000</v>
+        <v>225000</v>
       </c>
       <c r="O323" t="n">
-        <v>28000</v>
+        <v>225000</v>
       </c>
       <c r="P323" t="n">
-        <v>27600</v>
+        <v>225000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1533</v>
+        <v>500</v>
       </c>
       <c r="T323" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="324">
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N324" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O324" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P324" t="n">
-        <v>22000</v>
+        <v>27600</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1222</v>
+        <v>1533</v>
       </c>
       <c r="T324" t="n">
         <v>18</v>
@@ -26360,24 +26360,24 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N325" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O325" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P325" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T325" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26444,20 +26444,20 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26520,11 +26520,11 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N327" t="n">
         <v>12000</v>
@@ -26537,7 +26537,7 @@
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T327" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="N328" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="O328" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26622,11 +26622,11 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="T328" t="n">
         <v>18</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26675,38 +26675,38 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>1600</v>
+        <v>255</v>
       </c>
       <c r="N329" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="O329" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="P329" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26764,20 +26764,20 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>12</v>
+        <v>1600</v>
       </c>
       <c r="N330" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O330" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T330" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="331">
@@ -26844,20 +26844,20 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>2180</v>
+        <v>12</v>
       </c>
       <c r="N331" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="O331" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P331" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="332">
@@ -26920,24 +26920,24 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>15</v>
+        <v>2180</v>
       </c>
       <c r="N332" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O332" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P332" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,10 +26946,10 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T332" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -26995,29 +26995,29 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>630</v>
+        <v>15</v>
       </c>
       <c r="N333" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="O333" t="n">
-        <v>22000</v>
+        <v>135000</v>
       </c>
       <c r="P333" t="n">
-        <v>21206</v>
+        <v>135000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1060</v>
+        <v>300</v>
       </c>
       <c r="T333" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="334">
@@ -27080,24 +27080,24 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>185</v>
+        <v>630</v>
       </c>
       <c r="N334" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P334" t="n">
-        <v>12000</v>
+        <v>21206</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>667</v>
+        <v>1060</v>
       </c>
       <c r="T334" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,20 +27164,20 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="N335" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T335" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336">
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N336" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="O336" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="P336" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T336" t="n">
         <v>450</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N337" t="n">
-        <v>90000</v>
+        <v>157500</v>
       </c>
       <c r="O337" t="n">
-        <v>90000</v>
+        <v>157500</v>
       </c>
       <c r="P337" t="n">
-        <v>90000</v>
+        <v>157500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="T337" t="n">
         <v>450</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,29 +27395,29 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="N338" t="n">
-        <v>26000</v>
+        <v>90000</v>
       </c>
       <c r="O338" t="n">
-        <v>26000</v>
+        <v>90000</v>
       </c>
       <c r="P338" t="n">
-        <v>26000</v>
+        <v>90000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1444</v>
+        <v>200</v>
       </c>
       <c r="T338" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="P339" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>1444</v>
       </c>
       <c r="T339" t="n">
         <v>18</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T340" t="n">
         <v>18</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N341" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O341" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P341" t="n">
-        <v>17478</v>
+        <v>10000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>971</v>
+        <v>556</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="N342" t="n">
-        <v>14400</v>
+        <v>17000</v>
       </c>
       <c r="O342" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P342" t="n">
-        <v>14400</v>
+        <v>17478</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>800</v>
+        <v>971</v>
       </c>
       <c r="T342" t="n">
         <v>18</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27795,25 +27795,25 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N343" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O343" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="P343" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N344" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
-        <v>270000</v>
+        <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>270000</v>
+        <v>12500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>600</v>
+        <v>694</v>
       </c>
       <c r="T344" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345">
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N345" t="n">
-        <v>225000</v>
+        <v>270000</v>
       </c>
       <c r="O345" t="n">
-        <v>225000</v>
+        <v>270000</v>
       </c>
       <c r="P345" t="n">
-        <v>225000</v>
+        <v>270000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T345" t="n">
         <v>450</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28040,24 +28040,24 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="N346" t="n">
-        <v>4500</v>
+        <v>225000</v>
       </c>
       <c r="O346" t="n">
-        <v>5000</v>
+        <v>225000</v>
       </c>
       <c r="P346" t="n">
-        <v>4812</v>
+        <v>225000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="T346" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347">
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N347" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O347" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P347" t="n">
-        <v>9625</v>
+        <v>4812</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>535</v>
+        <v>481</v>
       </c>
       <c r="T347" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28200,36 +28200,36 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N348" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O348" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P348" t="n">
-        <v>20000</v>
+        <v>9625</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>2000</v>
+        <v>535</v>
       </c>
       <c r="T348" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349">
@@ -28280,36 +28280,36 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N349" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O349" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P349" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>889</v>
+        <v>2000</v>
       </c>
       <c r="T349" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,20 +28364,20 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N350" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O350" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P350" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T350" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28444,20 +28444,20 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N351" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O351" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P351" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T351" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352">
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N352" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T352" t="n">
         <v>18</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="N353" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O353" t="n">
-        <v>12600</v>
+        <v>7000</v>
       </c>
       <c r="P353" t="n">
-        <v>12366</v>
+        <v>7000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>687</v>
+        <v>389</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="N354" t="n">
         <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="P354" t="n">
-        <v>12000</v>
+        <v>12366</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28760,24 +28760,24 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O355" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T355" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28835,29 +28835,29 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="N356" t="n">
-        <v>450000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>450000</v>
+        <v>10000</v>
       </c>
       <c r="P356" t="n">
-        <v>450000</v>
+        <v>10000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28869,7 +28869,7 @@
         <v>1000</v>
       </c>
       <c r="T356" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
@@ -28924,20 +28924,20 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="N357" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="O357" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="P357" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T357" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="358">
@@ -29000,24 +29000,24 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>650</v>
+        <v>255</v>
       </c>
       <c r="N358" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O358" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P358" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>500</v>
+        <v>1050</v>
       </c>
       <c r="T358" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359">
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,20 +29084,20 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>125</v>
+        <v>650</v>
       </c>
       <c r="N359" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O359" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P359" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T359" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29155,29 +29155,29 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="N360" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O360" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P360" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1050</v>
+        <v>833</v>
       </c>
       <c r="T360" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361">
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N361" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="O361" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="P361" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="T361" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362">
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="N362" t="n">
-        <v>8100</v>
+        <v>12600</v>
       </c>
       <c r="O362" t="n">
-        <v>9000</v>
+        <v>12600</v>
       </c>
       <c r="P362" t="n">
-        <v>8469</v>
+        <v>12600</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="T362" t="n">
         <v>18</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N363" t="n">
-        <v>20000</v>
+        <v>8100</v>
       </c>
       <c r="O363" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P363" t="n">
-        <v>20000</v>
+        <v>8469</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="T363" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="N364" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O364" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P364" t="n">
-        <v>10468</v>
+        <v>20000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>582</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365">
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="N365" t="n">
         <v>10000</v>
       </c>
       <c r="O365" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P365" t="n">
-        <v>10000</v>
+        <v>10468</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,29 +29635,29 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="N366" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O366" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P366" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29724,20 +29724,20 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>405</v>
+        <v>185</v>
       </c>
       <c r="N367" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O367" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P367" t="n">
-        <v>21309</v>
+        <v>18000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T367" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368">
@@ -29800,24 +29800,24 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>255</v>
+        <v>405</v>
       </c>
       <c r="N368" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O368" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P368" t="n">
-        <v>13000</v>
+        <v>21309</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,10 +29826,10 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>722</v>
+        <v>1065</v>
       </c>
       <c r="T368" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29875,16 +29875,16 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="N369" t="n">
         <v>13000</v>
@@ -29897,7 +29897,7 @@
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1300</v>
+        <v>722</v>
       </c>
       <c r="T369" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370">
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30044,31 +30044,111 @@
         </is>
       </c>
       <c r="M371" t="n">
+        <v>300</v>
+      </c>
+      <c r="N371" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O371" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P371" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S371" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T371" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>10</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E372" t="n">
+        <v>9</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G372" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M372" t="n">
         <v>240</v>
       </c>
-      <c r="N371" t="n">
+      <c r="N372" t="n">
         <v>19000</v>
       </c>
-      <c r="O371" t="n">
+      <c r="O372" t="n">
         <v>21000</v>
       </c>
-      <c r="P371" t="n">
+      <c r="P372" t="n">
         <v>20167</v>
       </c>
-      <c r="Q371" t="inlineStr">
+      <c r="Q372" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R371" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S371" t="n">
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S372" t="n">
         <v>1120</v>
       </c>
-      <c r="T371" t="n">
+      <c r="T372" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T372"/>
+  <dimension ref="A1:T374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22675,16 +22675,16 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N279" t="n">
         <v>12000</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22755,29 +22755,29 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N280" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O280" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P280" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1125</v>
+        <v>444</v>
       </c>
       <c r="T280" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281">
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N281" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O281" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P281" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N282" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="O282" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="P282" t="n">
-        <v>4000</v>
+        <v>22500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>400</v>
+        <v>1125</v>
       </c>
       <c r="T282" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E283" t="n">
         <v>9</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N283" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O283" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P283" t="n">
-        <v>14583</v>
+        <v>9000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>810</v>
+        <v>500</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E284" t="n">
         <v>9</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N284" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="O284" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="P284" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1222</v>
+        <v>400</v>
       </c>
       <c r="T284" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="N285" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O285" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P285" t="n">
-        <v>16000</v>
+        <v>14583</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>889</v>
+        <v>810</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,7 +23244,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N286" t="n">
         <v>22000</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23324,20 +23324,20 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="N287" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O287" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P287" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T287" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E288" t="n">
         <v>9</v>
@@ -23395,29 +23395,29 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N288" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="O288" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="P288" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>500</v>
+        <v>1222</v>
       </c>
       <c r="T288" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289">
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N289" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O289" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P289" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T289" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
@@ -23555,29 +23555,29 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N290" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="O290" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="P290" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T290" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
@@ -23640,36 +23640,36 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="N291" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="O291" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="P291" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="T291" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E292" t="n">
         <v>9</v>
@@ -23715,16 +23715,16 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N292" t="n">
         <v>20000</v>
@@ -23737,19 +23737,19 @@
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T292" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293">
@@ -23800,24 +23800,24 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="N293" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O293" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P293" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>944</v>
+        <v>1300</v>
       </c>
       <c r="T293" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N294" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O294" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P294" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23902,11 +23902,11 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23960,36 +23960,36 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="N295" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O295" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P295" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="T295" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296">
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N296" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="O296" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="P296" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="T296" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297">
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N297" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O297" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P297" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T297" t="n">
         <v>15</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N298" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="O298" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="P298" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="T298" t="n">
         <v>10</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24280,24 +24280,24 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N299" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O299" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P299" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T299" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
@@ -24360,24 +24360,24 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="N300" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O300" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P300" t="n">
-        <v>10862</v>
+        <v>3000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>603</v>
+        <v>300</v>
       </c>
       <c r="T300" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -24440,36 +24440,36 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>600</v>
+        <v>185</v>
       </c>
       <c r="N301" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O301" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P301" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="T301" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="N302" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O302" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P302" t="n">
-        <v>20556</v>
+        <v>10862</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1142</v>
+        <v>603</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24604,32 +24604,32 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N303" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O303" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P303" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>556</v>
+        <v>1300</v>
       </c>
       <c r="T303" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N304" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O304" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P304" t="n">
-        <v>30000</v>
+        <v>20556</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>2000</v>
+        <v>1142</v>
       </c>
       <c r="T304" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N305" t="n">
-        <v>23400</v>
+        <v>10000</v>
       </c>
       <c r="O305" t="n">
-        <v>23400</v>
+        <v>10000</v>
       </c>
       <c r="P305" t="n">
-        <v>23400</v>
+        <v>10000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24782,11 +24782,11 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1300</v>
+        <v>556</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44166</v>
+        <v>44301</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24835,41 +24835,41 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="N306" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O306" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P306" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T306" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44168</v>
+        <v>44301</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,32 +24924,32 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="N307" t="n">
-        <v>9000</v>
+        <v>23400</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>23400</v>
       </c>
       <c r="P307" t="n">
-        <v>9429</v>
+        <v>23400</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>943</v>
+        <v>1300</v>
       </c>
       <c r="T307" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,20 +25004,20 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="N308" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
         <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>9617</v>
+        <v>10000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>534</v>
+        <v>1000</v>
       </c>
       <c r="T308" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25080,24 +25080,24 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="N309" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O309" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P309" t="n">
-        <v>20000</v>
+        <v>9429</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1000</v>
+        <v>943</v>
       </c>
       <c r="T309" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="N310" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O310" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P310" t="n">
-        <v>12000</v>
+        <v>9617</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>667</v>
+        <v>534</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="N311" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="O311" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="P311" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T311" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312">
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,41 +25395,41 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
+        <v>3</v>
+      </c>
+      <c r="N313" t="n">
+        <v>135000</v>
+      </c>
+      <c r="O313" t="n">
+        <v>135000</v>
+      </c>
+      <c r="P313" t="n">
+        <v>135000</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S313" t="n">
+        <v>300</v>
+      </c>
+      <c r="T313" t="n">
         <v>450</v>
-      </c>
-      <c r="N313" t="n">
-        <v>22000</v>
-      </c>
-      <c r="O313" t="n">
-        <v>22000</v>
-      </c>
-      <c r="P313" t="n">
-        <v>22000</v>
-      </c>
-      <c r="Q313" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R313" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S313" t="n">
-        <v>1100</v>
-      </c>
-      <c r="T313" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25475,41 +25475,41 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N314" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O314" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P314" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1500</v>
+        <v>444</v>
       </c>
       <c r="T314" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25555,41 +25555,41 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="N315" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O315" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P315" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T315" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,41 +25635,41 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="N316" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O316" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P316" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T316" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>155</v>
       </c>
       <c r="N317" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O317" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P317" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25742,11 +25742,11 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S317" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25800,24 +25800,24 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="N318" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O318" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P318" t="n">
-        <v>8556</v>
+        <v>22000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>475</v>
+        <v>1100</v>
       </c>
       <c r="T318" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319">
@@ -25884,20 +25884,20 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N319" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="O319" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="P319" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T319" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="N320" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>360000</v>
+        <v>9000</v>
       </c>
       <c r="P320" t="n">
-        <v>360000</v>
+        <v>8556</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="T320" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26044,20 +26044,20 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="N321" t="n">
-        <v>4500</v>
+        <v>225000</v>
       </c>
       <c r="O321" t="n">
-        <v>5000</v>
+        <v>225000</v>
       </c>
       <c r="P321" t="n">
-        <v>4750</v>
+        <v>225000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T321" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="322">
@@ -26120,24 +26120,24 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N322" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="O322" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="P322" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T322" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="323">
@@ -26204,20 +26204,20 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="N323" t="n">
-        <v>225000</v>
+        <v>4500</v>
       </c>
       <c r="O323" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="P323" t="n">
-        <v>225000</v>
+        <v>4750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T323" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26275,25 +26275,25 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N324" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="O324" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P324" t="n">
-        <v>27600</v>
+        <v>10000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1533</v>
+        <v>556</v>
       </c>
       <c r="T324" t="n">
         <v>18</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,20 +26364,20 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N325" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="O325" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="P325" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1222</v>
+        <v>500</v>
       </c>
       <c r="T325" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="326">
@@ -26440,24 +26440,24 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N326" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="O326" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P326" t="n">
-        <v>15000</v>
+        <v>27600</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="T326" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26520,24 +26520,24 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N327" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O327" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P327" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="T327" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26600,24 +26600,24 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="N328" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P328" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T328" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26675,41 +26675,41 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="N329" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="T329" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>1600</v>
+        <v>115</v>
       </c>
       <c r="N330" t="n">
         <v>12000</v>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26835,41 +26835,41 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="N331" t="n">
-        <v>180000</v>
+        <v>36000</v>
       </c>
       <c r="O331" t="n">
-        <v>180000</v>
+        <v>36000</v>
       </c>
       <c r="P331" t="n">
-        <v>180000</v>
+        <v>36000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="T331" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
@@ -26924,20 +26924,20 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>2180</v>
+        <v>1600</v>
       </c>
       <c r="N332" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O332" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,10 +26946,10 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T332" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="333">
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N333" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="O333" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P333" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T333" t="n">
         <v>450</v>
@@ -27075,29 +27075,29 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>630</v>
+        <v>2180</v>
       </c>
       <c r="N334" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O334" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P334" t="n">
-        <v>21206</v>
+        <v>6000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1060</v>
+        <v>600</v>
       </c>
       <c r="T334" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
@@ -27155,29 +27155,29 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="N335" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P335" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T335" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27235,29 +27235,29 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>10</v>
+        <v>630</v>
       </c>
       <c r="N336" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="O336" t="n">
-        <v>180000</v>
+        <v>22000</v>
       </c>
       <c r="P336" t="n">
-        <v>180000</v>
+        <v>21206</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,10 +27266,10 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>400</v>
+        <v>1060</v>
       </c>
       <c r="T336" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,29 +27315,29 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="N337" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="T337" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338">
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N338" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="O338" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P338" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T338" t="n">
         <v>450</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,29 +27475,29 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N339" t="n">
-        <v>26000</v>
+        <v>157500</v>
       </c>
       <c r="O339" t="n">
-        <v>26000</v>
+        <v>157500</v>
       </c>
       <c r="P339" t="n">
-        <v>26000</v>
+        <v>157500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1444</v>
+        <v>350</v>
       </c>
       <c r="T339" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27560,24 +27560,24 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="N340" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="O340" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="P340" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="T340" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N341" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="O341" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="P341" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>556</v>
+        <v>1444</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="N342" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O342" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P342" t="n">
-        <v>17478</v>
+        <v>12000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>971</v>
+        <v>667</v>
       </c>
       <c r="T342" t="n">
         <v>18</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27795,25 +27795,25 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N343" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O343" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P343" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="N344" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P344" t="n">
-        <v>12500</v>
+        <v>17478</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>694</v>
+        <v>971</v>
       </c>
       <c r="T344" t="n">
         <v>18</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27955,29 +27955,29 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="N345" t="n">
-        <v>270000</v>
+        <v>14400</v>
       </c>
       <c r="O345" t="n">
-        <v>270000</v>
+        <v>14400</v>
       </c>
       <c r="P345" t="n">
-        <v>270000</v>
+        <v>14400</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T345" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
@@ -28040,24 +28040,24 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N346" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="O346" t="n">
-        <v>225000</v>
+        <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>225000</v>
+        <v>12500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="T346" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N347" t="n">
-        <v>4500</v>
+        <v>270000</v>
       </c>
       <c r="O347" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="P347" t="n">
-        <v>4812</v>
+        <v>270000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>481</v>
+        <v>600</v>
       </c>
       <c r="T347" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28200,24 +28200,24 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="N348" t="n">
-        <v>9000</v>
+        <v>225000</v>
       </c>
       <c r="O348" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="P348" t="n">
-        <v>9625</v>
+        <v>225000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="T348" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>50</v>
+        <v>480</v>
       </c>
       <c r="N349" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O349" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P349" t="n">
-        <v>20000</v>
+        <v>4812</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28302,11 +28302,11 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>2000</v>
+        <v>481</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N350" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O350" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P350" t="n">
-        <v>16000</v>
+        <v>9625</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>889</v>
+        <v>535</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N351" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O351" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P351" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T352" t="n">
         <v>18</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28600,24 +28600,24 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N353" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>389</v>
+        <v>1000</v>
       </c>
       <c r="T353" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N354" t="n">
         <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="P354" t="n">
-        <v>12366</v>
+        <v>12000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P355" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T355" t="n">
         <v>18</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,20 +28844,20 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O356" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P356" t="n">
-        <v>10000</v>
+        <v>12366</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1000</v>
+        <v>687</v>
       </c>
       <c r="T356" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,29 +28915,29 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="N357" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="O357" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="P357" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T357" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,29 +28995,29 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="N358" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
@@ -29080,24 +29080,24 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>650</v>
+        <v>8</v>
       </c>
       <c r="N359" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="O359" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="P359" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T359" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="360">
@@ -29155,29 +29155,29 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="N360" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O360" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P360" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>833</v>
+        <v>1050</v>
       </c>
       <c r="T360" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>185</v>
+        <v>650</v>
       </c>
       <c r="N361" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O361" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P361" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="T361" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,20 +29324,20 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N362" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="O362" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P362" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T362" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363">
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="N363" t="n">
-        <v>8100</v>
+        <v>21000</v>
       </c>
       <c r="O363" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P363" t="n">
-        <v>8469</v>
+        <v>21000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>470</v>
+        <v>1050</v>
       </c>
       <c r="T363" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="N364" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="O364" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="P364" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T364" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="N365" t="n">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="O365" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P365" t="n">
-        <v>10468</v>
+        <v>8469</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>582</v>
+        <v>470</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,29 +29635,29 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="N366" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O366" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P366" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T366" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29715,29 +29715,29 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="N367" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O367" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P367" t="n">
-        <v>18000</v>
+        <v>10468</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1000</v>
+        <v>582</v>
       </c>
       <c r="T367" t="n">
         <v>18</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29795,29 +29795,29 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="N368" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O368" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P368" t="n">
-        <v>21309</v>
+        <v>10000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,10 +29826,10 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1065</v>
+        <v>556</v>
       </c>
       <c r="T368" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="369">
@@ -29880,24 +29880,24 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="N369" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O369" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P369" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,20 +29964,20 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="N370" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O370" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P370" t="n">
-        <v>13000</v>
+        <v>21309</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,10 +29986,10 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1300</v>
+        <v>1065</v>
       </c>
       <c r="T370" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,20 +30044,20 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="N371" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O371" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P371" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,10 +30066,10 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="T371" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="372">
@@ -30120,35 +30120,195 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M372" t="n">
+        <v>80</v>
+      </c>
+      <c r="N372" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O372" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P372" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S372" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T372" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>10</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E373" t="n">
+        <v>9</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G373" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M372" t="n">
+      <c r="M373" t="n">
+        <v>300</v>
+      </c>
+      <c r="N373" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O373" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P373" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S373" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T373" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>10</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D374" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E374" t="n">
+        <v>9</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M374" t="n">
         <v>240</v>
       </c>
-      <c r="N372" t="n">
+      <c r="N374" t="n">
         <v>19000</v>
       </c>
-      <c r="O372" t="n">
+      <c r="O374" t="n">
         <v>21000</v>
       </c>
-      <c r="P372" t="n">
+      <c r="P374" t="n">
         <v>20167</v>
       </c>
-      <c r="Q372" t="inlineStr">
+      <c r="Q374" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R372" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S372" t="n">
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S374" t="n">
         <v>1120</v>
       </c>
-      <c r="T372" t="n">
+      <c r="T374" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T374"/>
+  <dimension ref="A1:T376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E180" t="n">
         <v>9</v>
@@ -14755,25 +14755,25 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N180" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O180" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P180" t="n">
-        <v>21579</v>
+        <v>12000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1199</v>
+        <v>667</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E181" t="n">
         <v>9</v>
@@ -14835,29 +14835,29 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N181" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O181" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P181" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T181" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="N182" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O182" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P182" t="n">
-        <v>16532</v>
+        <v>21579</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>918</v>
+        <v>1199</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -15000,24 +15000,24 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>65</v>
       </c>
       <c r="N183" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O183" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P183" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T183" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
@@ -15080,24 +15080,24 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="N184" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O184" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P184" t="n">
-        <v>15000</v>
+        <v>16532</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>750</v>
+        <v>918</v>
       </c>
       <c r="T184" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E185" t="n">
         <v>9</v>
@@ -15164,20 +15164,20 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="N185" t="n">
-        <v>135000</v>
+        <v>14000</v>
       </c>
       <c r="O185" t="n">
-        <v>135000</v>
+        <v>14000</v>
       </c>
       <c r="P185" t="n">
-        <v>135000</v>
+        <v>14000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>300</v>
+        <v>778</v>
       </c>
       <c r="T185" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E186" t="n">
         <v>9</v>
@@ -15235,25 +15235,25 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="N186" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O186" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P186" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15315,29 +15315,29 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="N187" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="O187" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P187" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,10 +15346,10 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T187" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="188">
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N188" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O188" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P188" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T188" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N189" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O189" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P189" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T189" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="N190" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O190" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P190" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E191" t="n">
         <v>9</v>
@@ -15635,41 +15635,41 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N191" t="n">
-        <v>21600</v>
+        <v>4000</v>
       </c>
       <c r="O191" t="n">
-        <v>23400</v>
+        <v>4000</v>
       </c>
       <c r="P191" t="n">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1250</v>
+        <v>400</v>
       </c>
       <c r="T191" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E192" t="n">
         <v>9</v>
@@ -15715,29 +15715,29 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>850</v>
+        <v>90</v>
       </c>
       <c r="N192" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O192" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P192" t="n">
-        <v>11529</v>
+        <v>8000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1153</v>
+        <v>444</v>
       </c>
       <c r="T192" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E193" t="n">
         <v>9</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N193" t="n">
-        <v>20000</v>
+        <v>21600</v>
       </c>
       <c r="O193" t="n">
-        <v>21000</v>
+        <v>23400</v>
       </c>
       <c r="P193" t="n">
-        <v>20417</v>
+        <v>22500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15822,11 +15822,11 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1134</v>
+        <v>1250</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>290</v>
+        <v>850</v>
       </c>
       <c r="N194" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O194" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P194" t="n">
-        <v>8621</v>
+        <v>11529</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>862</v>
+        <v>1153</v>
       </c>
       <c r="T194" t="n">
         <v>10</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N195" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O195" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P195" t="n">
-        <v>14000</v>
+        <v>20417</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>778</v>
+        <v>1134</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E196" t="n">
         <v>9</v>
@@ -16035,25 +16035,25 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N196" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O196" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P196" t="n">
-        <v>14000</v>
+        <v>8621</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1400</v>
+        <v>862</v>
       </c>
       <c r="T196" t="n">
         <v>10</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E197" t="n">
         <v>9</v>
@@ -16115,38 +16115,38 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="N197" t="n">
-        <v>34000</v>
+        <v>14000</v>
       </c>
       <c r="O197" t="n">
-        <v>34000</v>
+        <v>14000</v>
       </c>
       <c r="P197" t="n">
-        <v>34000</v>
+        <v>14000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1889</v>
+        <v>778</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -16204,20 +16204,20 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="N198" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="O198" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="P198" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>2056</v>
+        <v>1400</v>
       </c>
       <c r="T198" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E199" t="n">
         <v>9</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -16284,29 +16284,29 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="N199" t="n">
-        <v>8000</v>
+        <v>34000</v>
       </c>
       <c r="O199" t="n">
-        <v>9000</v>
+        <v>34000</v>
       </c>
       <c r="P199" t="n">
-        <v>8481</v>
+        <v>34000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>471</v>
+        <v>1889</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E200" t="n">
         <v>9</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -16364,20 +16364,20 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N200" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="O200" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="P200" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1000</v>
+        <v>2056</v>
       </c>
       <c r="T200" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E201" t="n">
         <v>9</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="N201" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O201" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P201" t="n">
-        <v>12000</v>
+        <v>8481</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>667</v>
+        <v>471</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E202" t="n">
         <v>9</v>
@@ -16515,29 +16515,29 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N202" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O202" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P202" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>389</v>
+        <v>1000</v>
       </c>
       <c r="T202" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E203" t="n">
         <v>9</v>
@@ -16595,29 +16595,29 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="N203" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O203" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P203" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T203" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E204" t="n">
         <v>9</v>
@@ -16680,24 +16680,24 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="N204" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O204" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P204" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -16706,10 +16706,10 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>550</v>
+        <v>389</v>
       </c>
       <c r="T204" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E205" t="n">
         <v>9</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="N205" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O205" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P205" t="n">
-        <v>4753</v>
+        <v>10000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="T205" t="n">
         <v>10</v>
@@ -16840,24 +16840,24 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="N206" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="O206" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="P206" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>722</v>
+        <v>550</v>
       </c>
       <c r="T206" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E207" t="n">
         <v>9</v>
@@ -16924,20 +16924,20 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>705</v>
+        <v>375</v>
       </c>
       <c r="N207" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O207" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P207" t="n">
-        <v>10780</v>
+        <v>4753</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,10 +16946,10 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>599</v>
+        <v>475</v>
       </c>
       <c r="T207" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
@@ -17004,20 +17004,20 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="N208" t="n">
-        <v>100000</v>
+        <v>13000</v>
       </c>
       <c r="O208" t="n">
-        <v>100000</v>
+        <v>13000</v>
       </c>
       <c r="P208" t="n">
-        <v>100000</v>
+        <v>13000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>222</v>
+        <v>722</v>
       </c>
       <c r="T208" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>450</v>
+        <v>705</v>
       </c>
       <c r="N209" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O209" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P209" t="n">
-        <v>8000</v>
+        <v>10780</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17155,29 +17155,29 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="N210" t="n">
-        <v>22000</v>
+        <v>100000</v>
       </c>
       <c r="O210" t="n">
-        <v>22000</v>
+        <v>100000</v>
       </c>
       <c r="P210" t="n">
-        <v>22000</v>
+        <v>100000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1100</v>
+        <v>222</v>
       </c>
       <c r="T210" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="211">
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="N211" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O211" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P211" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E212" t="n">
         <v>9</v>
@@ -17315,29 +17315,29 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="N212" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O212" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="P212" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T212" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E213" t="n">
         <v>9</v>
@@ -17395,29 +17395,29 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="N213" t="n">
-        <v>135000</v>
+        <v>13000</v>
       </c>
       <c r="O213" t="n">
-        <v>135000</v>
+        <v>13000</v>
       </c>
       <c r="P213" t="n">
-        <v>135000</v>
+        <v>13000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>300</v>
+        <v>722</v>
       </c>
       <c r="T213" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17484,20 +17484,20 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O214" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P214" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T214" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E215" t="n">
         <v>9</v>
@@ -17555,29 +17555,29 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="N215" t="n">
-        <v>14400</v>
+        <v>135000</v>
       </c>
       <c r="O215" t="n">
-        <v>14400</v>
+        <v>135000</v>
       </c>
       <c r="P215" t="n">
-        <v>14400</v>
+        <v>135000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T215" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
@@ -17635,29 +17635,29 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N216" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O216" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P216" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T216" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E217" t="n">
         <v>9</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N217" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O217" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P217" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17800,24 +17800,24 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N218" t="n">
-        <v>202000</v>
+        <v>22000</v>
       </c>
       <c r="O218" t="n">
-        <v>202000</v>
+        <v>22000</v>
       </c>
       <c r="P218" t="n">
-        <v>202000</v>
+        <v>22000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -17826,10 +17826,10 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>449</v>
+        <v>1100</v>
       </c>
       <c r="T218" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
@@ -17880,24 +17880,24 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="N219" t="n">
-        <v>157000</v>
+        <v>10000</v>
       </c>
       <c r="O219" t="n">
-        <v>157000</v>
+        <v>10000</v>
       </c>
       <c r="P219" t="n">
-        <v>157000</v>
+        <v>10000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>349</v>
+        <v>556</v>
       </c>
       <c r="T219" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E220" t="n">
         <v>9</v>
@@ -17955,41 +17955,41 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N220" t="n">
-        <v>15500</v>
+        <v>202000</v>
       </c>
       <c r="O220" t="n">
-        <v>15500</v>
+        <v>202000</v>
       </c>
       <c r="P220" t="n">
-        <v>15500</v>
+        <v>202000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1550</v>
+        <v>449</v>
       </c>
       <c r="T220" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E221" t="n">
         <v>9</v>
@@ -18035,41 +18035,41 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N221" t="n">
-        <v>10000</v>
+        <v>157000</v>
       </c>
       <c r="O221" t="n">
-        <v>10000</v>
+        <v>157000</v>
       </c>
       <c r="P221" t="n">
-        <v>10000</v>
+        <v>157000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1000</v>
+        <v>349</v>
       </c>
       <c r="T221" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E222" t="n">
         <v>9</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18127,29 +18127,29 @@
         <v>100</v>
       </c>
       <c r="N222" t="n">
-        <v>21000</v>
+        <v>15500</v>
       </c>
       <c r="O222" t="n">
-        <v>21000</v>
+        <v>15500</v>
       </c>
       <c r="P222" t="n">
-        <v>21000</v>
+        <v>15500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1167</v>
+        <v>1550</v>
       </c>
       <c r="T222" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E223" t="n">
         <v>9</v>
@@ -18195,41 +18195,41 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N223" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O223" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P223" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T223" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -18280,24 +18280,24 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N224" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O224" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P224" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T224" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225">
@@ -18360,24 +18360,24 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="N225" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O225" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P225" t="n">
-        <v>17429</v>
+        <v>25000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>968</v>
+        <v>1250</v>
       </c>
       <c r="T225" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
@@ -18440,11 +18440,11 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N226" t="n">
         <v>10000</v>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T226" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E227" t="n">
         <v>9</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>255</v>
+        <v>420</v>
       </c>
       <c r="N227" t="n">
         <v>16000</v>
       </c>
       <c r="O227" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P227" t="n">
-        <v>16000</v>
+        <v>17429</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>889</v>
+        <v>968</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E228" t="n">
         <v>9</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N228" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O228" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P228" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18675,38 +18675,38 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="N229" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="O229" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="P229" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1944</v>
+        <v>889</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
@@ -18755,16 +18755,16 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N230" t="n">
         <v>14000</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
@@ -18835,41 +18835,41 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="N231" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="O231" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P231" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1000</v>
+        <v>1944</v>
       </c>
       <c r="T231" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E232" t="n">
         <v>9</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18924,20 +18924,20 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N232" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O232" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P232" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T232" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E233" t="n">
         <v>9</v>
@@ -19000,24 +19000,24 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="N233" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O233" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P233" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T233" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E234" t="n">
         <v>9</v>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -19084,20 +19084,20 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="N234" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O234" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P234" t="n">
-        <v>7508</v>
+        <v>13000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>417</v>
+        <v>867</v>
       </c>
       <c r="T234" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E235" t="n">
         <v>9</v>
@@ -19160,36 +19160,36 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N235" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O235" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="P235" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>600</v>
+        <v>1222</v>
       </c>
       <c r="T235" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E236" t="n">
         <v>9</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="N236" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P236" t="n">
-        <v>12000</v>
+        <v>7508</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19320,33 +19320,33 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M237" t="n">
+        <v>150</v>
+      </c>
+      <c r="N237" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O237" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P237" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S237" t="n">
         <v>600</v>
-      </c>
-      <c r="N237" t="n">
-        <v>4000</v>
-      </c>
-      <c r="O237" t="n">
-        <v>4000</v>
-      </c>
-      <c r="P237" t="n">
-        <v>4000</v>
-      </c>
-      <c r="Q237" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R237" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S237" t="n">
-        <v>400</v>
       </c>
       <c r="T237" t="n">
         <v>10</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N238" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O238" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P238" t="n">
-        <v>7472</v>
+        <v>12000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>415</v>
+        <v>667</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19484,20 +19484,20 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="N239" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="O239" t="n">
-        <v>202000</v>
+        <v>4000</v>
       </c>
       <c r="P239" t="n">
-        <v>192000</v>
+        <v>4000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="T239" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
@@ -19560,24 +19560,24 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="N240" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O240" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P240" t="n">
-        <v>3000</v>
+        <v>7472</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>300</v>
+        <v>415</v>
       </c>
       <c r="T240" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -19644,20 +19644,20 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="N241" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>202000</v>
       </c>
       <c r="P241" t="n">
-        <v>12000</v>
+        <v>192000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>667</v>
+        <v>427</v>
       </c>
       <c r="T241" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -19724,20 +19724,20 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="N242" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O242" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P242" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="T242" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="N243" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O243" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>7532</v>
+        <v>12000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>418</v>
+        <v>667</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19880,36 +19880,36 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="N244" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O244" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P244" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1300</v>
+        <v>444</v>
       </c>
       <c r="T244" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N245" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O245" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P245" t="n">
-        <v>24000</v>
+        <v>7532</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1333</v>
+        <v>418</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -20044,32 +20044,32 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N246" t="n">
-        <v>157000</v>
+        <v>13000</v>
       </c>
       <c r="O246" t="n">
-        <v>157000</v>
+        <v>13000</v>
       </c>
       <c r="P246" t="n">
-        <v>157000</v>
+        <v>13000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>349</v>
+        <v>1300</v>
       </c>
       <c r="T246" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -20120,36 +20120,36 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N247" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="O247" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="P247" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>222</v>
+        <v>1333</v>
       </c>
       <c r="T247" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,20 +20204,20 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="N248" t="n">
-        <v>7000</v>
+        <v>157000</v>
       </c>
       <c r="O248" t="n">
-        <v>7000</v>
+        <v>157000</v>
       </c>
       <c r="P248" t="n">
-        <v>7000</v>
+        <v>157000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="T248" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -20275,29 +20275,29 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="N249" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="O249" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="P249" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>833</v>
+        <v>222</v>
       </c>
       <c r="T249" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="N250" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O250" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P250" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="T250" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="N251" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O251" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P251" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="N252" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O252" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P252" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="T252" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -20595,29 +20595,29 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>5</v>
+        <v>285</v>
       </c>
       <c r="N253" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="O253" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="P253" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T253" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -20675,29 +20675,29 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="N254" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O254" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P254" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T254" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -20760,24 +20760,24 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="N255" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="O255" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P255" t="n">
-        <v>9405</v>
+        <v>200000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T255" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="256">
@@ -20844,20 +20844,20 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="N256" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O256" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="P256" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T256" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20924,20 +20924,20 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="N257" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O257" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P257" t="n">
-        <v>14000</v>
+        <v>9405</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20946,10 +20946,10 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1400</v>
+        <v>522</v>
       </c>
       <c r="T257" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258">
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -20995,41 +20995,41 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>315</v>
+        <v>8</v>
       </c>
       <c r="N258" t="n">
-        <v>36000</v>
+        <v>180000</v>
       </c>
       <c r="O258" t="n">
-        <v>36000</v>
+        <v>180000</v>
       </c>
       <c r="P258" t="n">
-        <v>36000</v>
+        <v>180000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="T258" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N259" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O259" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P259" t="n">
-        <v>9444</v>
+        <v>14000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>944</v>
+        <v>1400</v>
       </c>
       <c r="T259" t="n">
         <v>10</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -21155,38 +21155,38 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="N260" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="P260" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S260" t="n">
-        <v>889</v>
+        <v>2000</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -21240,24 +21240,24 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="N261" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O261" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P261" t="n">
-        <v>14000</v>
+        <v>9444</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T261" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262">
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="N262" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O262" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21395,25 +21395,25 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N263" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O263" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>16565</v>
+        <v>14000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>920</v>
+        <v>778</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44350</v>
+        <v>44210</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -21475,29 +21475,29 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T264" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>420</v>
+        <v>115</v>
       </c>
       <c r="N265" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O265" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P265" t="n">
-        <v>12524</v>
+        <v>16565</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>696</v>
+        <v>920</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21644,20 +21644,20 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
-        <v>315000</v>
+        <v>8000</v>
       </c>
       <c r="O266" t="n">
-        <v>315000</v>
+        <v>8000</v>
       </c>
       <c r="P266" t="n">
-        <v>315000</v>
+        <v>8000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T266" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="N267" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O267" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P267" t="n">
-        <v>5556</v>
+        <v>12524</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>556</v>
+        <v>696</v>
       </c>
       <c r="T267" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E268" t="n">
         <v>9</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N268" t="n">
-        <v>202000</v>
+        <v>315000</v>
       </c>
       <c r="O268" t="n">
-        <v>202000</v>
+        <v>315000</v>
       </c>
       <c r="P268" t="n">
-        <v>202000</v>
+        <v>315000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>449</v>
+        <v>700</v>
       </c>
       <c r="T268" t="n">
         <v>450</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -21875,29 +21875,29 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N269" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O269" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P269" t="n">
-        <v>16500</v>
+        <v>5556</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1100</v>
+        <v>556</v>
       </c>
       <c r="T269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
@@ -21955,29 +21955,29 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="N270" t="n">
-        <v>21000</v>
+        <v>202000</v>
       </c>
       <c r="O270" t="n">
-        <v>22000</v>
+        <v>202000</v>
       </c>
       <c r="P270" t="n">
-        <v>21615</v>
+        <v>202000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1081</v>
+        <v>449</v>
       </c>
       <c r="T270" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="271">
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="T271" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,20 +22124,20 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N272" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O272" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P272" t="n">
-        <v>12000</v>
+        <v>21615</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>667</v>
+        <v>1081</v>
       </c>
       <c r="T272" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N273" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O273" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P273" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N274" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O274" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P274" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T274" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275">
@@ -22360,24 +22360,24 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="N275" t="n">
-        <v>110000</v>
+        <v>7000</v>
       </c>
       <c r="O275" t="n">
-        <v>110000</v>
+        <v>7000</v>
       </c>
       <c r="P275" t="n">
-        <v>110000</v>
+        <v>7000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="T275" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E276" t="n">
         <v>9</v>
@@ -22444,20 +22444,20 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="N276" t="n">
-        <v>11000</v>
+        <v>135000</v>
       </c>
       <c r="O276" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P276" t="n">
-        <v>11463</v>
+        <v>135000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>637</v>
+        <v>300</v>
       </c>
       <c r="T276" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E277" t="n">
         <v>9</v>
@@ -22515,29 +22515,29 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="N277" t="n">
-        <v>21000</v>
+        <v>110000</v>
       </c>
       <c r="O277" t="n">
-        <v>22000</v>
+        <v>110000</v>
       </c>
       <c r="P277" t="n">
-        <v>21367</v>
+        <v>110000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1068</v>
+        <v>244</v>
       </c>
       <c r="T277" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,20 +22604,20 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>65</v>
+        <v>335</v>
       </c>
       <c r="N278" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O278" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P278" t="n">
-        <v>13000</v>
+        <v>11463</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>867</v>
+        <v>637</v>
       </c>
       <c r="T278" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44466</v>
+        <v>44414</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="N279" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O279" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P279" t="n">
-        <v>12000</v>
+        <v>21367</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>667</v>
+        <v>1068</v>
       </c>
       <c r="T279" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22755,29 +22755,29 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="N280" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O280" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P280" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>444</v>
+        <v>867</v>
       </c>
       <c r="T280" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22835,16 +22835,16 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N281" t="n">
         <v>12000</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22915,29 +22915,29 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N282" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O282" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P282" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1125</v>
+        <v>444</v>
       </c>
       <c r="T282" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283">
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N283" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P283" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N284" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="O284" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="P284" t="n">
-        <v>4000</v>
+        <v>22500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>400</v>
+        <v>1125</v>
       </c>
       <c r="T284" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N285" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O285" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P285" t="n">
-        <v>14583</v>
+        <v>9000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>810</v>
+        <v>500</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N286" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="O286" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="P286" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1222</v>
+        <v>400</v>
       </c>
       <c r="T286" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="N287" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O287" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P287" t="n">
-        <v>16000</v>
+        <v>14583</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>889</v>
+        <v>810</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E288" t="n">
         <v>9</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N288" t="n">
         <v>22000</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23484,20 +23484,20 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="N289" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O289" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P289" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T289" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
@@ -23555,29 +23555,29 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N290" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="O290" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="P290" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>500</v>
+        <v>1222</v>
       </c>
       <c r="T290" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291">
@@ -23640,24 +23640,24 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N291" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O291" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P291" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T291" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292">
@@ -23715,29 +23715,29 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N292" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="O292" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="P292" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T292" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23800,36 +23800,36 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="N293" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="O293" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="P293" t="n">
-        <v>13000</v>
+        <v>135000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="T293" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23875,16 +23875,16 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N294" t="n">
         <v>20000</v>
@@ -23897,19 +23897,19 @@
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T294" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295">
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="N295" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O295" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P295" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>944</v>
+        <v>1300</v>
       </c>
       <c r="T295" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N296" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O296" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P296" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24120,36 +24120,36 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="N297" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O297" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P297" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="T297" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298">
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N298" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="O298" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="P298" t="n">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="T298" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299">
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N299" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O299" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P299" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T299" t="n">
         <v>15</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N300" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="O300" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="P300" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="T300" t="n">
         <v>10</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N301" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O301" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P301" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T301" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24520,24 +24520,24 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="N302" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O302" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P302" t="n">
-        <v>10862</v>
+        <v>3000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>603</v>
+        <v>300</v>
       </c>
       <c r="T302" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24600,36 +24600,36 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>600</v>
+        <v>185</v>
       </c>
       <c r="N303" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O303" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P303" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="T303" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="N304" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O304" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>20556</v>
+        <v>10862</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1142</v>
+        <v>603</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,32 +24764,32 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N305" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O305" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P305" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>556</v>
+        <v>1300</v>
       </c>
       <c r="T305" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24840,24 +24840,24 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N306" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O306" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P306" t="n">
-        <v>30000</v>
+        <v>20556</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>2000</v>
+        <v>1142</v>
       </c>
       <c r="T306" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N307" t="n">
-        <v>23400</v>
+        <v>10000</v>
       </c>
       <c r="O307" t="n">
-        <v>23400</v>
+        <v>10000</v>
       </c>
       <c r="P307" t="n">
-        <v>23400</v>
+        <v>10000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24942,11 +24942,11 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1300</v>
+        <v>556</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44166</v>
+        <v>44301</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,41 +24995,41 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="N308" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P308" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44168</v>
+        <v>44301</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,32 +25084,32 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="N309" t="n">
-        <v>9000</v>
+        <v>23400</v>
       </c>
       <c r="O309" t="n">
-        <v>10000</v>
+        <v>23400</v>
       </c>
       <c r="P309" t="n">
-        <v>9429</v>
+        <v>23400</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>943</v>
+        <v>1300</v>
       </c>
       <c r="T309" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,20 +25164,20 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="N310" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O310" t="n">
         <v>10000</v>
       </c>
       <c r="P310" t="n">
-        <v>9617</v>
+        <v>10000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>534</v>
+        <v>1000</v>
       </c>
       <c r="T310" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="N311" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O311" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P311" t="n">
-        <v>20000</v>
+        <v>9429</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1000</v>
+        <v>943</v>
       </c>
       <c r="T311" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="N312" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P312" t="n">
-        <v>12000</v>
+        <v>9617</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>667</v>
+        <v>534</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25400,24 +25400,24 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="N313" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="O313" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="P313" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T313" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314">
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N314" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O314" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P314" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25555,41 +25555,41 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
+        <v>3</v>
+      </c>
+      <c r="N315" t="n">
+        <v>135000</v>
+      </c>
+      <c r="O315" t="n">
+        <v>135000</v>
+      </c>
+      <c r="P315" t="n">
+        <v>135000</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S315" t="n">
+        <v>300</v>
+      </c>
+      <c r="T315" t="n">
         <v>450</v>
-      </c>
-      <c r="N315" t="n">
-        <v>22000</v>
-      </c>
-      <c r="O315" t="n">
-        <v>22000</v>
-      </c>
-      <c r="P315" t="n">
-        <v>22000</v>
-      </c>
-      <c r="Q315" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R315" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S315" t="n">
-        <v>1100</v>
-      </c>
-      <c r="T315" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,41 +25635,41 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N316" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O316" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P316" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1500</v>
+        <v>444</v>
       </c>
       <c r="T316" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,41 +25715,41 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P317" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T317" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,41 +25795,41 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="N318" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O318" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P318" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T318" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
         <v>155</v>
       </c>
       <c r="N319" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O319" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25902,11 +25902,11 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="N320" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O320" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P320" t="n">
-        <v>8556</v>
+        <v>22000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>475</v>
+        <v>1100</v>
       </c>
       <c r="T320" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321">
@@ -26044,20 +26044,20 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N321" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="O321" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="P321" t="n">
-        <v>225000</v>
+        <v>4000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T321" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26120,24 +26120,24 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="N322" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="O322" t="n">
-        <v>360000</v>
+        <v>9000</v>
       </c>
       <c r="P322" t="n">
-        <v>360000</v>
+        <v>8556</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="T322" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26204,20 +26204,20 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="N323" t="n">
-        <v>4500</v>
+        <v>225000</v>
       </c>
       <c r="O323" t="n">
-        <v>5000</v>
+        <v>225000</v>
       </c>
       <c r="P323" t="n">
-        <v>4750</v>
+        <v>225000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T323" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="324">
@@ -26280,24 +26280,24 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N324" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="O324" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="P324" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T324" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="325">
@@ -26364,20 +26364,20 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="N325" t="n">
-        <v>225000</v>
+        <v>4500</v>
       </c>
       <c r="O325" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="P325" t="n">
-        <v>225000</v>
+        <v>4750</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T325" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>27600</v>
+        <v>10000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1533</v>
+        <v>556</v>
       </c>
       <c r="T326" t="n">
         <v>18</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,20 +26524,20 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N327" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="O327" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="P327" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1222</v>
+        <v>500</v>
       </c>
       <c r="T327" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="328">
@@ -26600,24 +26600,24 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N328" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="O328" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P328" t="n">
-        <v>15000</v>
+        <v>27600</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="T328" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26680,24 +26680,24 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N329" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O329" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P329" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="T329" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26760,24 +26760,24 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="N330" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P330" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T330" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26835,41 +26835,41 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="N331" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="O331" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="P331" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="T331" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,7 +26924,7 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>1600</v>
+        <v>115</v>
       </c>
       <c r="N332" t="n">
         <v>12000</v>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -26995,41 +26995,41 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="N333" t="n">
-        <v>180000</v>
+        <v>36000</v>
       </c>
       <c r="O333" t="n">
-        <v>180000</v>
+        <v>36000</v>
       </c>
       <c r="P333" t="n">
-        <v>180000</v>
+        <v>36000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="T333" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334">
@@ -27084,20 +27084,20 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>2180</v>
+        <v>1600</v>
       </c>
       <c r="N334" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O334" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P334" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T334" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="335">
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N335" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="O335" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P335" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T335" t="n">
         <v>450</v>
@@ -27235,29 +27235,29 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>630</v>
+        <v>2180</v>
       </c>
       <c r="N336" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O336" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P336" t="n">
-        <v>21206</v>
+        <v>6000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,10 +27266,10 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1060</v>
+        <v>600</v>
       </c>
       <c r="T336" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337">
@@ -27315,29 +27315,29 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="N337" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O337" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P337" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T337" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,29 +27395,29 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>10</v>
+        <v>630</v>
       </c>
       <c r="N338" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="O338" t="n">
-        <v>180000</v>
+        <v>22000</v>
       </c>
       <c r="P338" t="n">
-        <v>180000</v>
+        <v>21206</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>400</v>
+        <v>1060</v>
       </c>
       <c r="T338" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,29 +27475,29 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="N339" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="O339" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="P339" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="T339" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340">
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N340" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="O340" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P340" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27635,29 +27635,29 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N341" t="n">
-        <v>26000</v>
+        <v>157500</v>
       </c>
       <c r="O341" t="n">
-        <v>26000</v>
+        <v>157500</v>
       </c>
       <c r="P341" t="n">
-        <v>26000</v>
+        <v>157500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,10 +27666,10 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1444</v>
+        <v>350</v>
       </c>
       <c r="T341" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27720,24 +27720,24 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="N342" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="O342" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="P342" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="T342" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N343" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="O343" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="P343" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>556</v>
+        <v>1444</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="N344" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>17478</v>
+        <v>12000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>971</v>
+        <v>667</v>
       </c>
       <c r="T344" t="n">
         <v>18</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N345" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O345" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T345" t="n">
         <v>18</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="N346" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O346" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P346" t="n">
-        <v>12500</v>
+        <v>17478</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>694</v>
+        <v>971</v>
       </c>
       <c r="T346" t="n">
         <v>18</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28115,29 +28115,29 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="N347" t="n">
-        <v>270000</v>
+        <v>14400</v>
       </c>
       <c r="O347" t="n">
-        <v>270000</v>
+        <v>14400</v>
       </c>
       <c r="P347" t="n">
-        <v>270000</v>
+        <v>14400</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T347" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348">
@@ -28200,24 +28200,24 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N348" t="n">
-        <v>225000</v>
+        <v>12000</v>
       </c>
       <c r="O348" t="n">
-        <v>225000</v>
+        <v>13000</v>
       </c>
       <c r="P348" t="n">
-        <v>225000</v>
+        <v>12500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="T348" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28284,20 +28284,20 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N349" t="n">
-        <v>4500</v>
+        <v>270000</v>
       </c>
       <c r="O349" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="P349" t="n">
-        <v>4812</v>
+        <v>270000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>481</v>
+        <v>600</v>
       </c>
       <c r="T349" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28360,24 +28360,24 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="N350" t="n">
-        <v>9000</v>
+        <v>225000</v>
       </c>
       <c r="O350" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="P350" t="n">
-        <v>9625</v>
+        <v>225000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="T350" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>50</v>
+        <v>480</v>
       </c>
       <c r="N351" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O351" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P351" t="n">
-        <v>20000</v>
+        <v>4812</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>2000</v>
+        <v>481</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N352" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O352" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P352" t="n">
-        <v>16000</v>
+        <v>9625</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>889</v>
+        <v>535</v>
       </c>
       <c r="T352" t="n">
         <v>18</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N353" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O353" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P353" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28622,11 +28622,11 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T353" t="n">
         <v>10</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N354" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O354" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P354" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28760,24 +28760,24 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N355" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O355" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>389</v>
+        <v>1000</v>
       </c>
       <c r="T355" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N356" t="n">
         <v>12000</v>
       </c>
       <c r="O356" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="P356" t="n">
-        <v>12366</v>
+        <v>12000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="N357" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O357" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P357" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T357" t="n">
         <v>18</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,20 +29004,20 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="N358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O358" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P358" t="n">
-        <v>10000</v>
+        <v>12366</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1000</v>
+        <v>687</v>
       </c>
       <c r="T358" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29075,29 +29075,29 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="N359" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="O359" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="P359" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T359" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29155,29 +29155,29 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="N360" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O360" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P360" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T360" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361">
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>650</v>
+        <v>8</v>
       </c>
       <c r="N361" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="O361" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="P361" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T361" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="362">
@@ -29315,29 +29315,29 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="N362" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O362" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P362" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>833</v>
+        <v>1050</v>
       </c>
       <c r="T362" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>185</v>
+        <v>650</v>
       </c>
       <c r="N363" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O363" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P363" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="T363" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,20 +29484,20 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N364" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="O364" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P364" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T364" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365">
@@ -29560,24 +29560,24 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="N365" t="n">
-        <v>8100</v>
+        <v>21000</v>
       </c>
       <c r="O365" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P365" t="n">
-        <v>8469</v>
+        <v>21000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>470</v>
+        <v>1050</v>
       </c>
       <c r="T365" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29640,24 +29640,24 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="N366" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="O366" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="P366" t="n">
-        <v>20000</v>
+        <v>12600</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T366" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="N367" t="n">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="O367" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P367" t="n">
-        <v>10468</v>
+        <v>8469</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>582</v>
+        <v>470</v>
       </c>
       <c r="T367" t="n">
         <v>18</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29795,29 +29795,29 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O368" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P368" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,10 +29826,10 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T368" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29875,29 +29875,29 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="N369" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O369" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P369" t="n">
-        <v>18000</v>
+        <v>10468</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1000</v>
+        <v>582</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29955,29 +29955,29 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="N370" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O370" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P370" t="n">
-        <v>21309</v>
+        <v>10000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,10 +29986,10 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1065</v>
+        <v>556</v>
       </c>
       <c r="T370" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371">
@@ -30040,24 +30040,24 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="N371" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O371" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P371" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,20 +30124,20 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="N372" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O372" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P372" t="n">
-        <v>13000</v>
+        <v>21309</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1300</v>
+        <v>1065</v>
       </c>
       <c r="T372" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,20 +30204,20 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="N373" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P373" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="T373" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="374">
@@ -30280,35 +30280,195 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M374" t="n">
+        <v>80</v>
+      </c>
+      <c r="N374" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O374" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P374" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S374" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T374" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>10</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D375" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E375" t="n">
+        <v>9</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G375" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M374" t="n">
+      <c r="M375" t="n">
+        <v>300</v>
+      </c>
+      <c r="N375" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O375" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P375" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S375" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T375" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>10</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D376" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E376" t="n">
+        <v>9</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M376" t="n">
         <v>240</v>
       </c>
-      <c r="N374" t="n">
+      <c r="N376" t="n">
         <v>19000</v>
       </c>
-      <c r="O374" t="n">
+      <c r="O376" t="n">
         <v>21000</v>
       </c>
-      <c r="P374" t="n">
+      <c r="P376" t="n">
         <v>20167</v>
       </c>
-      <c r="Q374" t="inlineStr">
+      <c r="Q376" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R374" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S374" t="n">
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S376" t="n">
         <v>1120</v>
       </c>
-      <c r="T374" t="n">
+      <c r="T376" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T376"/>
+  <dimension ref="A1:T379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,32 +23964,32 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N295" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O295" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P295" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T295" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,32 +24044,32 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N296" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O296" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P296" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1111</v>
+        <v>500</v>
       </c>
       <c r="T296" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N297" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O297" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P297" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24200,36 +24200,36 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N298" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O298" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P298" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T298" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24280,36 +24280,36 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="N299" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O299" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P299" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>933</v>
+        <v>1111</v>
       </c>
       <c r="T299" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
@@ -24360,36 +24360,36 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="N300" t="n">
-        <v>4300</v>
+        <v>17000</v>
       </c>
       <c r="O300" t="n">
-        <v>4300</v>
+        <v>17000</v>
       </c>
       <c r="P300" t="n">
-        <v>4300</v>
+        <v>17000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>430</v>
+        <v>944</v>
       </c>
       <c r="T300" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>100</v>
       </c>
       <c r="N301" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O301" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P301" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24469,7 +24469,7 @@
         <v>667</v>
       </c>
       <c r="T301" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302">
@@ -24520,24 +24520,24 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N302" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O302" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P302" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>300</v>
+        <v>933</v>
       </c>
       <c r="T302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="N303" t="n">
-        <v>22000</v>
+        <v>4300</v>
       </c>
       <c r="O303" t="n">
-        <v>22000</v>
+        <v>4300</v>
       </c>
       <c r="P303" t="n">
-        <v>22000</v>
+        <v>4300</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1100</v>
+        <v>430</v>
       </c>
       <c r="T303" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24684,20 +24684,20 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="N304" t="n">
         <v>10000</v>
       </c>
       <c r="O304" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P304" t="n">
-        <v>10862</v>
+        <v>10000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="T304" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="N305" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P305" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24782,11 +24782,11 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="T305" t="n">
         <v>10</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24840,36 +24840,36 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="N306" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O306" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P306" t="n">
-        <v>20556</v>
+        <v>22000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1142</v>
+        <v>1100</v>
       </c>
       <c r="T306" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N307" t="n">
         <v>10000</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P307" t="n">
-        <v>10000</v>
+        <v>10862</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -25000,24 +25000,24 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="N308" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="O308" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="P308" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N309" t="n">
-        <v>23400</v>
+        <v>20000</v>
       </c>
       <c r="O309" t="n">
-        <v>23400</v>
+        <v>21000</v>
       </c>
       <c r="P309" t="n">
-        <v>23400</v>
+        <v>20556</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1300</v>
+        <v>1142</v>
       </c>
       <c r="T309" t="n">
         <v>18</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25164,7 +25164,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N310" t="n">
         <v>10000</v>
@@ -25177,7 +25177,7 @@
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T310" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44168</v>
+        <v>44301</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25235,41 +25235,41 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="N311" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="O311" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P311" t="n">
-        <v>9429</v>
+        <v>30000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>943</v>
+        <v>2000</v>
       </c>
       <c r="T311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>405</v>
+        <v>75</v>
       </c>
       <c r="N312" t="n">
-        <v>9000</v>
+        <v>23400</v>
       </c>
       <c r="O312" t="n">
-        <v>10000</v>
+        <v>23400</v>
       </c>
       <c r="P312" t="n">
-        <v>9617</v>
+        <v>23400</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25342,11 +25342,11 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>534</v>
+        <v>1300</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25400,24 +25400,24 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N313" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O313" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P313" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25429,7 +25429,7 @@
         <v>1000</v>
       </c>
       <c r="T313" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25484,20 +25484,20 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P314" t="n">
-        <v>12000</v>
+        <v>9429</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>667</v>
+        <v>943</v>
       </c>
       <c r="T314" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25555,29 +25555,29 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="N315" t="n">
-        <v>135000</v>
+        <v>9000</v>
       </c>
       <c r="O315" t="n">
-        <v>135000</v>
+        <v>10000</v>
       </c>
       <c r="P315" t="n">
-        <v>135000</v>
+        <v>9617</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>300</v>
+        <v>534</v>
       </c>
       <c r="T315" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316">
@@ -25640,24 +25640,24 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N316" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O316" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P316" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T316" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,29 +25715,29 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N317" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O317" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P317" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T317" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,41 +25795,41 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="N318" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="O318" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="P318" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="T318" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25875,41 +25875,41 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O319" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P319" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T319" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25964,7 +25964,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="N320" t="n">
         <v>22000</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26047,13 +26047,13 @@
         <v>155</v>
       </c>
       <c r="N321" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O321" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P321" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26062,11 +26062,11 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="T321" t="n">
         <v>10</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26115,41 +26115,41 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N322" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P322" t="n">
-        <v>8556</v>
+        <v>12000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>475</v>
+        <v>1200</v>
       </c>
       <c r="T322" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
@@ -26200,24 +26200,24 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="N323" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="O323" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="P323" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T323" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26280,24 +26280,24 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="N324" t="n">
-        <v>360000</v>
+        <v>4000</v>
       </c>
       <c r="O324" t="n">
-        <v>360000</v>
+        <v>4000</v>
       </c>
       <c r="P324" t="n">
-        <v>360000</v>
+        <v>4000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T324" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26364,20 +26364,20 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="N325" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O325" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P325" t="n">
-        <v>4750</v>
+        <v>8556</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26389,7 +26389,7 @@
         <v>475</v>
       </c>
       <c r="T325" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26444,20 +26444,20 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N326" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="O326" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="P326" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T326" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="327">
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N327" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="O327" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="P327" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T327" t="n">
         <v>450</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26595,29 +26595,29 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="N328" t="n">
-        <v>27000</v>
+        <v>4500</v>
       </c>
       <c r="O328" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="P328" t="n">
-        <v>27600</v>
+        <v>4750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1533</v>
+        <v>475</v>
       </c>
       <c r="T328" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O329" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P329" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26755,29 +26755,29 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N330" t="n">
-        <v>15000</v>
+        <v>225000</v>
       </c>
       <c r="O330" t="n">
-        <v>15000</v>
+        <v>225000</v>
       </c>
       <c r="P330" t="n">
-        <v>15000</v>
+        <v>225000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T330" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26840,24 +26840,24 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N331" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="O331" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P331" t="n">
-        <v>12000</v>
+        <v>27600</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26924,20 +26924,20 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N332" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P332" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -26995,41 +26995,41 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="N333" t="n">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="O333" t="n">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="P333" t="n">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T333" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27075,16 +27075,16 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>1600</v>
+        <v>80</v>
       </c>
       <c r="N334" t="n">
         <v>12000</v>
@@ -27097,7 +27097,7 @@
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T334" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,20 +27164,20 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="N335" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T335" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27235,41 +27235,41 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>2180</v>
+        <v>255</v>
       </c>
       <c r="N336" t="n">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="O336" t="n">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="P336" t="n">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="T336" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337">
@@ -27320,24 +27320,24 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>15</v>
+        <v>1600</v>
       </c>
       <c r="N337" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T337" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338">
@@ -27395,29 +27395,29 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>630</v>
+        <v>12</v>
       </c>
       <c r="N338" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="O338" t="n">
-        <v>22000</v>
+        <v>180000</v>
       </c>
       <c r="P338" t="n">
-        <v>21206</v>
+        <v>180000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1060</v>
+        <v>400</v>
       </c>
       <c r="T338" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339">
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,20 +27484,20 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>185</v>
+        <v>2180</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P339" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T339" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N340" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="O340" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="P340" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27635,29 +27635,29 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>8</v>
+        <v>630</v>
       </c>
       <c r="N341" t="n">
-        <v>157500</v>
+        <v>20000</v>
       </c>
       <c r="O341" t="n">
-        <v>157500</v>
+        <v>22000</v>
       </c>
       <c r="P341" t="n">
-        <v>157500</v>
+        <v>21206</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,10 +27666,10 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>350</v>
+        <v>1060</v>
       </c>
       <c r="T341" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27715,29 +27715,29 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="N342" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="O342" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="P342" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>200</v>
+        <v>667</v>
       </c>
       <c r="T342" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,20 +27804,20 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N343" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="O343" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="P343" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1444</v>
+        <v>400</v>
       </c>
       <c r="T343" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27880,24 +27880,24 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="N344" t="n">
-        <v>12000</v>
+        <v>157500</v>
       </c>
       <c r="O344" t="n">
-        <v>12000</v>
+        <v>157500</v>
       </c>
       <c r="P344" t="n">
-        <v>12000</v>
+        <v>157500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>667</v>
+        <v>350</v>
       </c>
       <c r="T344" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27955,29 +27955,29 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="N345" t="n">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="O345" t="n">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="P345" t="n">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>556</v>
+        <v>200</v>
       </c>
       <c r="T345" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="N346" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="O346" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="P346" t="n">
-        <v>17478</v>
+        <v>26000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>971</v>
+        <v>1444</v>
       </c>
       <c r="T346" t="n">
         <v>18</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28115,25 +28115,25 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="N347" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O347" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P347" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="N348" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O348" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P348" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,20 +28284,20 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="N349" t="n">
-        <v>270000</v>
+        <v>17000</v>
       </c>
       <c r="O349" t="n">
-        <v>270000</v>
+        <v>18000</v>
       </c>
       <c r="P349" t="n">
-        <v>270000</v>
+        <v>17478</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>600</v>
+        <v>971</v>
       </c>
       <c r="T349" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,20 +28364,20 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="N350" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="O350" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="P350" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T350" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28444,20 +28444,20 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N351" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O351" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P351" t="n">
-        <v>4812</v>
+        <v>12500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>481</v>
+        <v>694</v>
       </c>
       <c r="T351" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28524,20 +28524,20 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="N352" t="n">
-        <v>9000</v>
+        <v>270000</v>
       </c>
       <c r="O352" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P352" t="n">
-        <v>9625</v>
+        <v>270000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="T352" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28600,36 +28600,36 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="N353" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="O353" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="P353" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="T353" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28684,20 +28684,20 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="N354" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O354" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P354" t="n">
-        <v>16000</v>
+        <v>4812</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>889</v>
+        <v>481</v>
       </c>
       <c r="T354" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,20 +28764,20 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O355" t="n">
         <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>9625</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1000</v>
+        <v>535</v>
       </c>
       <c r="T355" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28835,41 +28835,41 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N356" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O356" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P356" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T356" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,25 +28915,25 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N357" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O357" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P357" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>389</v>
+        <v>889</v>
       </c>
       <c r="T357" t="n">
         <v>18</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,20 +29004,20 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="N358" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>12366</v>
+        <v>10000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>687</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29080,11 +29080,11 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N359" t="n">
         <v>12000</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29160,24 +29160,24 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N360" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O360" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P360" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T360" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="N361" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="O361" t="n">
-        <v>450000</v>
+        <v>12600</v>
       </c>
       <c r="P361" t="n">
-        <v>450000</v>
+        <v>12366</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1000</v>
+        <v>687</v>
       </c>
       <c r="T361" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,29 +29315,29 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="N362" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O362" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P362" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1050</v>
+        <v>667</v>
       </c>
       <c r="T362" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,20 +29404,20 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>650</v>
+        <v>110</v>
       </c>
       <c r="N363" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O363" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P363" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T363" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364">
@@ -29475,29 +29475,29 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="N364" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="O364" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="P364" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29564,7 +29564,7 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="N365" t="n">
         <v>21000</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>110</v>
+        <v>650</v>
       </c>
       <c r="N366" t="n">
-        <v>12600</v>
+        <v>9000</v>
       </c>
       <c r="O366" t="n">
-        <v>12600</v>
+        <v>9000</v>
       </c>
       <c r="P366" t="n">
-        <v>12600</v>
+        <v>9000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29715,29 +29715,29 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="N367" t="n">
-        <v>8100</v>
+        <v>10000</v>
       </c>
       <c r="O367" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P367" t="n">
-        <v>8469</v>
+        <v>10000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>470</v>
+        <v>833</v>
       </c>
       <c r="T367" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="N368" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O368" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P368" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="T368" t="n">
         <v>20</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="N369" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="O369" t="n">
-        <v>11000</v>
+        <v>12600</v>
       </c>
       <c r="P369" t="n">
-        <v>10468</v>
+        <v>12600</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>582</v>
+        <v>700</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29955,25 +29955,25 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="N370" t="n">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="O370" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P370" t="n">
-        <v>10000</v>
+        <v>8469</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>556</v>
+        <v>470</v>
       </c>
       <c r="T370" t="n">
         <v>18</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,20 +30044,20 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="N371" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O371" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P371" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30069,7 +30069,7 @@
         <v>1000</v>
       </c>
       <c r="T371" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="372">
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30115,29 +30115,29 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>405</v>
+        <v>235</v>
       </c>
       <c r="N372" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O372" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P372" t="n">
-        <v>21309</v>
+        <v>10468</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1065</v>
+        <v>582</v>
       </c>
       <c r="T372" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="N373" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O373" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P373" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,20 +30284,20 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="N374" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O374" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P374" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T374" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30355,29 +30355,29 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O375" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P375" t="n">
-        <v>12000</v>
+        <v>21309</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1200</v>
+        <v>1065</v>
       </c>
       <c r="T375" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="376">
@@ -30407,68 +30407,308 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E376" t="n">
+        <v>9</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M376" t="n">
+        <v>255</v>
+      </c>
+      <c r="N376" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O376" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P376" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S376" t="n">
+        <v>722</v>
+      </c>
+      <c r="T376" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>10</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D377" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E376" t="n">
-        <v>9</v>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G376" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I376" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J376" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K376" t="inlineStr">
+      <c r="E377" t="n">
+        <v>9</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G377" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
         <is>
           <t>Clementina</t>
         </is>
       </c>
-      <c r="L376" t="inlineStr">
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M377" t="n">
+        <v>80</v>
+      </c>
+      <c r="N377" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O377" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P377" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S377" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T377" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>10</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D378" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E378" t="n">
+        <v>9</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G378" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M376" t="n">
+      <c r="M378" t="n">
+        <v>300</v>
+      </c>
+      <c r="N378" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O378" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P378" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S378" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T378" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>10</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D379" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E379" t="n">
+        <v>9</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G379" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M379" t="n">
         <v>240</v>
       </c>
-      <c r="N376" t="n">
+      <c r="N379" t="n">
         <v>19000</v>
       </c>
-      <c r="O376" t="n">
+      <c r="O379" t="n">
         <v>21000</v>
       </c>
-      <c r="P376" t="n">
+      <c r="P379" t="n">
         <v>20167</v>
       </c>
-      <c r="Q376" t="inlineStr">
+      <c r="Q379" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R376" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S376" t="n">
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S379" t="n">
         <v>1120</v>
       </c>
-      <c r="T376" t="n">
+      <c r="T379" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T383"/>
+  <dimension ref="A1:T386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,7 +27644,7 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="N341" t="n">
         <v>12000</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,20 +27724,20 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N342" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O342" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P342" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T342" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27795,29 +27795,29 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>2180</v>
+        <v>300</v>
       </c>
       <c r="N343" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O343" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P343" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T343" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
@@ -27880,24 +27880,24 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>15</v>
+        <v>1600</v>
       </c>
       <c r="N344" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T344" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345">
@@ -27955,29 +27955,29 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>630</v>
+        <v>12</v>
       </c>
       <c r="N345" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="O345" t="n">
-        <v>22000</v>
+        <v>180000</v>
       </c>
       <c r="P345" t="n">
-        <v>21206</v>
+        <v>180000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1060</v>
+        <v>400</v>
       </c>
       <c r="T345" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="346">
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,20 +28044,20 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>185</v>
+        <v>2180</v>
       </c>
       <c r="N346" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O346" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P346" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T346" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N347" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="O347" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="P347" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T347" t="n">
         <v>450</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>8</v>
+        <v>630</v>
       </c>
       <c r="N348" t="n">
-        <v>157500</v>
+        <v>20000</v>
       </c>
       <c r="O348" t="n">
-        <v>157500</v>
+        <v>22000</v>
       </c>
       <c r="P348" t="n">
-        <v>157500</v>
+        <v>21206</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>350</v>
+        <v>1060</v>
       </c>
       <c r="T348" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28275,29 +28275,29 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="N349" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="P349" t="n">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>200</v>
+        <v>667</v>
       </c>
       <c r="T349" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,20 +28364,20 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N350" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="O350" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="P350" t="n">
-        <v>26000</v>
+        <v>180000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1444</v>
+        <v>400</v>
       </c>
       <c r="T350" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28440,24 +28440,24 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="N351" t="n">
-        <v>12000</v>
+        <v>157500</v>
       </c>
       <c r="O351" t="n">
-        <v>12000</v>
+        <v>157500</v>
       </c>
       <c r="P351" t="n">
-        <v>12000</v>
+        <v>157500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>667</v>
+        <v>350</v>
       </c>
       <c r="T351" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28515,29 +28515,29 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="N352" t="n">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="O352" t="n">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="P352" t="n">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>556</v>
+        <v>200</v>
       </c>
       <c r="T352" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="N353" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="O353" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="P353" t="n">
-        <v>17478</v>
+        <v>26000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>971</v>
+        <v>1444</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="N354" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P354" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O355" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T355" t="n">
         <v>18</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,20 +28844,20 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="N356" t="n">
-        <v>270000</v>
+        <v>17000</v>
       </c>
       <c r="O356" t="n">
-        <v>270000</v>
+        <v>18000</v>
       </c>
       <c r="P356" t="n">
-        <v>270000</v>
+        <v>17478</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>600</v>
+        <v>971</v>
       </c>
       <c r="T356" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,20 +28924,20 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="N357" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="O357" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="P357" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T357" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -29004,20 +29004,20 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N358" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O358" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P358" t="n">
-        <v>4812</v>
+        <v>12500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>481</v>
+        <v>694</v>
       </c>
       <c r="T358" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29084,20 +29084,20 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="N359" t="n">
-        <v>9000</v>
+        <v>270000</v>
       </c>
       <c r="O359" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P359" t="n">
-        <v>9625</v>
+        <v>270000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="T359" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29160,36 +29160,36 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="N360" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="O360" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="P360" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="T360" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29244,20 +29244,20 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="N361" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O361" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P361" t="n">
-        <v>16000</v>
+        <v>4812</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>889</v>
+        <v>481</v>
       </c>
       <c r="T361" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,20 +29324,20 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N362" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O362" t="n">
         <v>10000</v>
       </c>
       <c r="P362" t="n">
-        <v>10000</v>
+        <v>9625</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1000</v>
+        <v>535</v>
       </c>
       <c r="T362" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29395,41 +29395,41 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N363" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O363" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P363" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T363" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29475,25 +29475,25 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N364" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O364" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P364" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>389</v>
+        <v>889</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,20 +29564,20 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="N365" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O365" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P365" t="n">
-        <v>12366</v>
+        <v>10000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>687</v>
+        <v>1000</v>
       </c>
       <c r="T365" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29640,11 +29640,11 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N366" t="n">
         <v>12000</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29720,24 +29720,24 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N367" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P367" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T367" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29800,24 +29800,24 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="N368" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="O368" t="n">
-        <v>450000</v>
+        <v>12600</v>
       </c>
       <c r="P368" t="n">
-        <v>450000</v>
+        <v>12366</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,10 +29826,10 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1000</v>
+        <v>687</v>
       </c>
       <c r="T368" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29875,29 +29875,29 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="N369" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O369" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P369" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1050</v>
+        <v>667</v>
       </c>
       <c r="T369" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,20 +29964,20 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>650</v>
+        <v>110</v>
       </c>
       <c r="N370" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O370" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P370" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,10 +29986,10 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T370" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
@@ -30035,29 +30035,29 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="N371" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="O371" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="P371" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,10 +30066,10 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T371" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="372">
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="N372" t="n">
         <v>21000</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>110</v>
+        <v>650</v>
       </c>
       <c r="N373" t="n">
-        <v>12600</v>
+        <v>9000</v>
       </c>
       <c r="O373" t="n">
-        <v>12600</v>
+        <v>9000</v>
       </c>
       <c r="P373" t="n">
-        <v>12600</v>
+        <v>9000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30275,29 +30275,29 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="N374" t="n">
-        <v>8100</v>
+        <v>10000</v>
       </c>
       <c r="O374" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P374" t="n">
-        <v>8469</v>
+        <v>10000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>470</v>
+        <v>833</v>
       </c>
       <c r="T374" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="N375" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O375" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P375" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="T375" t="n">
         <v>20</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="N376" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="O376" t="n">
-        <v>11000</v>
+        <v>12600</v>
       </c>
       <c r="P376" t="n">
-        <v>10468</v>
+        <v>12600</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>582</v>
+        <v>700</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30515,25 +30515,25 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>8469</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>556</v>
+        <v>470</v>
       </c>
       <c r="T377" t="n">
         <v>18</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,20 +30604,20 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="N378" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O378" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P378" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30629,7 +30629,7 @@
         <v>1000</v>
       </c>
       <c r="T378" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30675,29 +30675,29 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>405</v>
+        <v>235</v>
       </c>
       <c r="N379" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O379" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P379" t="n">
-        <v>21309</v>
+        <v>10468</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1065</v>
+        <v>582</v>
       </c>
       <c r="T379" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="N380" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P380" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,20 +30844,20 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="N381" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O381" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P381" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T381" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30915,29 +30915,29 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P382" t="n">
-        <v>12000</v>
+        <v>21309</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1200</v>
+        <v>1065</v>
       </c>
       <c r="T382" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383">
@@ -30967,68 +30967,308 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E383" t="n">
+        <v>9</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G383" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M383" t="n">
+        <v>255</v>
+      </c>
+      <c r="N383" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O383" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P383" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S383" t="n">
+        <v>722</v>
+      </c>
+      <c r="T383" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>10</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D384" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E383" t="n">
-        <v>9</v>
-      </c>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G383" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I383" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J383" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K383" t="inlineStr">
+      <c r="E384" t="n">
+        <v>9</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G384" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
         <is>
           <t>Clementina</t>
         </is>
       </c>
-      <c r="L383" t="inlineStr">
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M384" t="n">
+        <v>80</v>
+      </c>
+      <c r="N384" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O384" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P384" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S384" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T384" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>10</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E385" t="n">
+        <v>9</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G385" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I385" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M383" t="n">
+      <c r="M385" t="n">
+        <v>300</v>
+      </c>
+      <c r="N385" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O385" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P385" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S385" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T385" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>10</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D386" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E386" t="n">
+        <v>9</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G386" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I386" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M386" t="n">
         <v>240</v>
       </c>
-      <c r="N383" t="n">
+      <c r="N386" t="n">
         <v>19000</v>
       </c>
-      <c r="O383" t="n">
+      <c r="O386" t="n">
         <v>21000</v>
       </c>
-      <c r="P383" t="n">
+      <c r="P386" t="n">
         <v>20167</v>
       </c>
-      <c r="Q383" t="inlineStr">
+      <c r="Q386" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R383" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S383" t="n">
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S386" t="n">
         <v>1120</v>
       </c>
-      <c r="T383" t="n">
+      <c r="T386" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T388"/>
+  <dimension ref="A1:T391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25720,24 +25720,24 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T317" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N318" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O318" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P318" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25875,29 +25875,29 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N319" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O319" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T319" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,20 +25964,20 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N320" t="n">
         <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P320" t="n">
-        <v>10862</v>
+        <v>10000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>603</v>
+        <v>500</v>
       </c>
       <c r="T320" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26035,29 +26035,29 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="N321" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O321" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P321" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T321" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26120,36 +26120,36 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="N322" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="O322" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="P322" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="T322" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="N323" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O323" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P323" t="n">
-        <v>15000</v>
+        <v>10862</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>833</v>
+        <v>603</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26280,24 +26280,24 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="N324" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="O324" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="P324" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T324" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26364,32 +26364,32 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="N325" t="n">
-        <v>4500</v>
+        <v>135000</v>
       </c>
       <c r="O325" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="P325" t="n">
-        <v>4750</v>
+        <v>135000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="T325" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N326" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O326" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P326" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T326" t="n">
         <v>18</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N327" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="O327" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="P327" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T327" t="n">
         <v>450</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="N328" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O328" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P328" t="n">
-        <v>20000</v>
+        <v>4750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26622,11 +26622,11 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2000</v>
+        <v>475</v>
       </c>
       <c r="T328" t="n">
         <v>10</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O329" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P329" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26764,20 +26764,20 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="N330" t="n">
-        <v>9000</v>
+        <v>225000</v>
       </c>
       <c r="O330" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="P330" t="n">
-        <v>9617</v>
+        <v>225000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="T330" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26844,20 +26844,20 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N331" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O331" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P331" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26869,7 +26869,7 @@
         <v>2000</v>
       </c>
       <c r="T331" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N332" t="n">
-        <v>23400</v>
+        <v>16000</v>
       </c>
       <c r="O332" t="n">
-        <v>23400</v>
+        <v>16000</v>
       </c>
       <c r="P332" t="n">
-        <v>23400</v>
+        <v>16000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26942,11 +26942,11 @@
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1300</v>
+        <v>889</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="N333" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O333" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P333" t="n">
-        <v>12366</v>
+        <v>9617</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>687</v>
+        <v>534</v>
       </c>
       <c r="T333" t="n">
         <v>18</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27080,24 +27080,24 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N334" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O334" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P334" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1222</v>
+        <v>2000</v>
       </c>
       <c r="T334" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27164,32 +27164,32 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>850</v>
+        <v>75</v>
       </c>
       <c r="N335" t="n">
-        <v>11000</v>
+        <v>23400</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>23400</v>
       </c>
       <c r="P335" t="n">
-        <v>11529</v>
+        <v>23400</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1153</v>
+        <v>1300</v>
       </c>
       <c r="T335" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="N336" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O336" t="n">
-        <v>21000</v>
+        <v>12600</v>
       </c>
       <c r="P336" t="n">
-        <v>20417</v>
+        <v>12366</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1134</v>
+        <v>687</v>
       </c>
       <c r="T336" t="n">
         <v>18</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27320,36 +27320,36 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="N337" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P337" t="n">
-        <v>8621</v>
+        <v>22000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>862</v>
+        <v>1222</v>
       </c>
       <c r="T337" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338">
@@ -27400,24 +27400,24 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>40</v>
+        <v>850</v>
       </c>
       <c r="N338" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O338" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P338" t="n">
-        <v>14000</v>
+        <v>11529</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>778</v>
+        <v>1153</v>
       </c>
       <c r="T338" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N339" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O339" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P339" t="n">
-        <v>18760</v>
+        <v>20417</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1042</v>
+        <v>1134</v>
       </c>
       <c r="T339" t="n">
         <v>18</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27560,24 +27560,24 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="N340" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O340" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P340" t="n">
-        <v>22000</v>
+        <v>8621</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1100</v>
+        <v>862</v>
       </c>
       <c r="T340" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27640,24 +27640,24 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N341" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O341" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P341" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,10 +27666,10 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="T341" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="N342" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O342" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P342" t="n">
-        <v>8556</v>
+        <v>18760</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>475</v>
+        <v>1042</v>
       </c>
       <c r="T342" t="n">
         <v>18</v>
@@ -27800,24 +27800,24 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="N343" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="O343" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="P343" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T343" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>335</v>
+        <v>155</v>
       </c>
       <c r="N344" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O344" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P344" t="n">
-        <v>11463</v>
+        <v>4000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>637</v>
+        <v>400</v>
       </c>
       <c r="T344" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27955,29 +27955,29 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="N345" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O345" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P345" t="n">
-        <v>21367</v>
+        <v>8556</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1068</v>
+        <v>475</v>
       </c>
       <c r="T345" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28040,24 +28040,24 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="N346" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="O346" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="P346" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T346" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="N347" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O347" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P347" t="n">
-        <v>8000</v>
+        <v>11463</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>800</v>
+        <v>637</v>
       </c>
       <c r="T347" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="N348" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O348" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P348" t="n">
-        <v>16000</v>
+        <v>21367</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>889</v>
+        <v>1068</v>
       </c>
       <c r="T348" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28275,25 +28275,25 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="N349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28302,11 +28302,11 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28355,41 +28355,41 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="N350" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="O350" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="P350" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2056</v>
+        <v>800</v>
       </c>
       <c r="T350" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28440,24 +28440,24 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N351" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O351" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P351" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T351" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28515,41 +28515,41 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T352" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,41 +28595,41 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>600</v>
+        <v>155</v>
       </c>
       <c r="N353" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="O353" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="P353" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>400</v>
+        <v>2056</v>
       </c>
       <c r="T353" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354">
@@ -28680,24 +28680,24 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="N354" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O354" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P354" t="n">
-        <v>7472</v>
+        <v>6000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>415</v>
+        <v>600</v>
       </c>
       <c r="T354" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
@@ -28760,24 +28760,24 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="N355" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O355" t="n">
-        <v>202000</v>
+        <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>192000</v>
+        <v>12000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>427</v>
+        <v>667</v>
       </c>
       <c r="T355" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356">
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N356" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O356" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P356" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T356" t="n">
         <v>10</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,29 +28915,29 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>185</v>
+        <v>530</v>
       </c>
       <c r="N357" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O357" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P357" t="n">
-        <v>18000</v>
+        <v>7472</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1000</v>
+        <v>415</v>
       </c>
       <c r="T357" t="n">
         <v>18</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,29 +28995,29 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="N358" t="n">
-        <v>21000</v>
+        <v>180000</v>
       </c>
       <c r="O358" t="n">
-        <v>22000</v>
+        <v>202000</v>
       </c>
       <c r="P358" t="n">
-        <v>21309</v>
+        <v>192000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1065</v>
+        <v>427</v>
       </c>
       <c r="T358" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29075,29 +29075,29 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N359" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O359" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P359" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>722</v>
+        <v>300</v>
       </c>
       <c r="T359" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,20 +29164,20 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P360" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T360" t="n">
         <v>18</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,20 +29244,20 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="N361" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O361" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P361" t="n">
-        <v>14000</v>
+        <v>21309</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>933</v>
+        <v>1065</v>
       </c>
       <c r="T361" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,20 +29324,20 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="N362" t="n">
-        <v>4300</v>
+        <v>13000</v>
       </c>
       <c r="O362" t="n">
-        <v>4300</v>
+        <v>13000</v>
       </c>
       <c r="P362" t="n">
-        <v>4300</v>
+        <v>13000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>430</v>
+        <v>722</v>
       </c>
       <c r="T362" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363">
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
         <v>100</v>
       </c>
       <c r="N363" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29429,7 +29429,7 @@
         <v>667</v>
       </c>
       <c r="T363" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364">
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N364" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O364" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P364" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>300</v>
+        <v>933</v>
       </c>
       <c r="T364" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,20 +29564,20 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N365" t="n">
-        <v>12000</v>
+        <v>4300</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>4300</v>
       </c>
       <c r="P365" t="n">
-        <v>12000</v>
+        <v>4300</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>667</v>
+        <v>430</v>
       </c>
       <c r="T365" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,29 +29635,29 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N366" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O366" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P366" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T366" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29720,24 +29720,24 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>1600</v>
+        <v>80</v>
       </c>
       <c r="N367" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O367" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P367" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T367" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,20 +29804,20 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N368" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O368" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P368" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,10 +29826,10 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T368" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29875,29 +29875,29 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>2180</v>
+        <v>500</v>
       </c>
       <c r="N369" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O369" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P369" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T369" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370">
@@ -29960,24 +29960,24 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>15</v>
+        <v>1600</v>
       </c>
       <c r="N370" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O370" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P370" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,10 +29986,10 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T370" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371">
@@ -30035,29 +30035,29 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>630</v>
+        <v>12</v>
       </c>
       <c r="N371" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="O371" t="n">
-        <v>22000</v>
+        <v>180000</v>
       </c>
       <c r="P371" t="n">
-        <v>21206</v>
+        <v>180000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,10 +30066,10 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1060</v>
+        <v>400</v>
       </c>
       <c r="T371" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="372">
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,20 +30124,20 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>185</v>
+        <v>2180</v>
       </c>
       <c r="N372" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O372" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P372" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T372" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30195,29 +30195,29 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N373" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P373" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T373" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30280,24 +30280,24 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>50</v>
+        <v>630</v>
       </c>
       <c r="N374" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O374" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P374" t="n">
-        <v>7000</v>
+        <v>21206</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>389</v>
+        <v>1060</v>
       </c>
       <c r="T374" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30364,20 +30364,20 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="N375" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O375" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="P375" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1444</v>
+        <v>667</v>
       </c>
       <c r="T375" t="n">
         <v>18</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30435,16 +30435,16 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N376" t="n">
         <v>12000</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30515,29 +30515,29 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N377" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O377" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P377" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,10 +30546,10 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1125</v>
+        <v>389</v>
       </c>
       <c r="T377" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="378">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N378" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="O378" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="P378" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>500</v>
+        <v>1444</v>
       </c>
       <c r="T378" t="n">
         <v>18</v>
@@ -30680,24 +30680,24 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N379" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O379" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T379" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30760,36 +30760,36 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N380" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O380" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P380" t="n">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1300</v>
+        <v>1125</v>
       </c>
       <c r="T380" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N381" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O381" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P381" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30862,11 +30862,11 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1111</v>
+        <v>500</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30924,32 +30924,32 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="N382" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="O382" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P382" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="T382" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -31004,20 +31004,20 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>800</v>
+        <v>185</v>
       </c>
       <c r="N383" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O383" t="n">
         <v>13000</v>
       </c>
       <c r="P383" t="n">
-        <v>12562</v>
+        <v>13000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1256</v>
+        <v>1300</v>
       </c>
       <c r="T383" t="n">
         <v>10</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,20 +31084,20 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N384" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O384" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P384" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="T384" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31160,36 +31160,36 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N385" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O385" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P385" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T385" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,32 +31244,32 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N386" t="n">
         <v>12000</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>12000</v>
+        <v>12562</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>667</v>
+        <v>1256</v>
       </c>
       <c r="T386" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,32 +31324,32 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N387" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P387" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T387" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388">
@@ -31395,40 +31395,280 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M388" t="n">
+        <v>100</v>
+      </c>
+      <c r="N388" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O388" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P388" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S388" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T388" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>10</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E389" t="n">
+        <v>9</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G389" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L388" t="inlineStr">
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M389" t="n">
+        <v>100</v>
+      </c>
+      <c r="N389" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O389" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P389" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S389" t="n">
+        <v>667</v>
+      </c>
+      <c r="T389" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>10</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D390" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E390" t="n">
+        <v>9</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M390" t="n">
+        <v>100</v>
+      </c>
+      <c r="N390" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O390" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P390" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S390" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T390" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>10</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D391" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E391" t="n">
+        <v>9</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M388" t="n">
+      <c r="M391" t="n">
         <v>30</v>
       </c>
-      <c r="N388" t="n">
+      <c r="N391" t="n">
         <v>8000</v>
       </c>
-      <c r="O388" t="n">
+      <c r="O391" t="n">
         <v>8000</v>
       </c>
-      <c r="P388" t="n">
+      <c r="P391" t="n">
         <v>8000</v>
       </c>
-      <c r="Q388" t="inlineStr">
+      <c r="Q391" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R388" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S388" t="n">
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S391" t="n">
         <v>444</v>
       </c>
-      <c r="T388" t="n">
+      <c r="T391" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T396"/>
+  <dimension ref="A1:T397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E177" t="n">
         <v>9</v>
@@ -14524,20 +14524,20 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N177" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O177" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P177" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T177" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -14604,20 +14604,20 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N178" t="n">
-        <v>225000</v>
+        <v>6000</v>
       </c>
       <c r="O178" t="n">
-        <v>225000</v>
+        <v>6000</v>
       </c>
       <c r="P178" t="n">
-        <v>225000</v>
+        <v>6000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T178" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N179" t="n">
-        <v>135000</v>
+        <v>225000</v>
       </c>
       <c r="O179" t="n">
-        <v>135000</v>
+        <v>225000</v>
       </c>
       <c r="P179" t="n">
-        <v>135000</v>
+        <v>225000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T179" t="n">
         <v>450</v>
@@ -14755,29 +14755,29 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N180" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="O180" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="P180" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T180" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E181" t="n">
         <v>9</v>
@@ -14835,29 +14835,29 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="N181" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="O181" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="P181" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T181" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N182" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="O182" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="P182" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T182" t="n">
         <v>450</v>
@@ -14995,29 +14995,29 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N183" t="n">
-        <v>21000</v>
+        <v>135000</v>
       </c>
       <c r="O183" t="n">
-        <v>21000</v>
+        <v>135000</v>
       </c>
       <c r="P183" t="n">
-        <v>21000</v>
+        <v>135000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="T183" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184">
@@ -15080,24 +15080,24 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N184" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O184" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P184" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>444</v>
+        <v>1050</v>
       </c>
       <c r="T184" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E185" t="n">
         <v>9</v>
@@ -15160,24 +15160,24 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N185" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O185" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P185" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1500</v>
+        <v>444</v>
       </c>
       <c r="T185" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -15244,20 +15244,20 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N186" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O186" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P186" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15269,7 +15269,7 @@
         <v>1500</v>
       </c>
       <c r="T186" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
@@ -15320,36 +15320,36 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N187" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O187" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P187" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T187" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188">
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N188" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O188" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P188" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E189" t="n">
         <v>9</v>
@@ -15475,16 +15475,16 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N189" t="n">
         <v>15000</v>
@@ -15497,19 +15497,19 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1500</v>
+        <v>833</v>
       </c>
       <c r="T189" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190">
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
         <v>155</v>
       </c>
       <c r="N190" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O190" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P190" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T190" t="n">
         <v>10</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E191" t="n">
         <v>9</v>
@@ -15635,12 +15635,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -15657,19 +15657,19 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T191" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -15715,7 +15715,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N192" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O192" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P192" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E193" t="n">
         <v>9</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -15804,20 +15804,20 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="N193" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O193" t="n">
         <v>10000</v>
       </c>
       <c r="P193" t="n">
-        <v>9471</v>
+        <v>10000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -15826,10 +15826,10 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>947</v>
+        <v>556</v>
       </c>
       <c r="T193" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E194" t="n">
         <v>9</v>
@@ -15875,29 +15875,29 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="N194" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O194" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P194" t="n">
-        <v>12000</v>
+        <v>9471</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>667</v>
+        <v>947</v>
       </c>
       <c r="T194" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N195" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O195" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P195" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16044,20 +16044,20 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N196" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="O196" t="n">
-        <v>135000</v>
+        <v>10000</v>
       </c>
       <c r="P196" t="n">
-        <v>132500</v>
+        <v>10000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>294</v>
+        <v>556</v>
       </c>
       <c r="T196" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
@@ -16120,24 +16120,24 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="N197" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="O197" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="P197" t="n">
-        <v>7000</v>
+        <v>132500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="T197" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E198" t="n">
         <v>9</v>
@@ -16200,24 +16200,24 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="N198" t="n">
-        <v>450000</v>
+        <v>7000</v>
       </c>
       <c r="O198" t="n">
-        <v>450000</v>
+        <v>7000</v>
       </c>
       <c r="P198" t="n">
-        <v>450000</v>
+        <v>7000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T198" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
@@ -16284,20 +16284,20 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="N199" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="O199" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="P199" t="n">
-        <v>21000</v>
+        <v>450000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T199" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="200">
@@ -16360,24 +16360,24 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>650</v>
+        <v>255</v>
       </c>
       <c r="N200" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O200" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P200" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>500</v>
+        <v>1050</v>
       </c>
       <c r="T200" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
@@ -16435,7 +16435,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -16444,20 +16444,20 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>125</v>
+        <v>650</v>
       </c>
       <c r="N201" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O201" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P201" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -16466,10 +16466,10 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T201" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E202" t="n">
         <v>9</v>
@@ -16524,20 +16524,20 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N202" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O202" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P202" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T202" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203">
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N203" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O203" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P203" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T203" t="n">
         <v>18</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E204" t="n">
         <v>9</v>
@@ -16675,29 +16675,29 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N204" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O204" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P204" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -16706,10 +16706,10 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>867</v>
+        <v>444</v>
       </c>
       <c r="T204" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E205" t="n">
         <v>9</v>
@@ -16755,41 +16755,41 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N205" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="O205" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P205" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1278</v>
+        <v>867</v>
       </c>
       <c r="T205" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206">
@@ -16840,24 +16840,24 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N206" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O206" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P206" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1150</v>
+        <v>1278</v>
       </c>
       <c r="T206" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
@@ -16924,20 +16924,20 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N207" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O207" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P207" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,10 +16946,10 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="T207" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -17004,20 +17004,20 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="N208" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O208" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P208" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T208" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -17080,24 +17080,24 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="N209" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O209" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P209" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>778</v>
+        <v>1150</v>
       </c>
       <c r="T209" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E210" t="n">
         <v>9</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N210" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O210" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P210" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17182,11 +17182,11 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N211" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O211" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P211" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E212" t="n">
         <v>9</v>
@@ -17320,24 +17320,24 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N212" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O212" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P212" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="N213" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="O213" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="P213" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -17475,41 +17475,41 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="N214" t="n">
-        <v>21000</v>
+        <v>36000</v>
       </c>
       <c r="O214" t="n">
-        <v>21000</v>
+        <v>36000</v>
       </c>
       <c r="P214" t="n">
-        <v>21000</v>
+        <v>36000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1050</v>
+        <v>2000</v>
       </c>
       <c r="T214" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215">
@@ -17560,24 +17560,24 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N215" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="O215" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="P215" t="n">
-        <v>12600</v>
+        <v>21000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="T215" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="N216" t="n">
-        <v>8100</v>
+        <v>12600</v>
       </c>
       <c r="O216" t="n">
-        <v>9000</v>
+        <v>12600</v>
       </c>
       <c r="P216" t="n">
-        <v>8469</v>
+        <v>12600</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44215</v>
+        <v>44411</v>
       </c>
       <c r="E217" t="n">
         <v>9</v>
@@ -17715,29 +17715,29 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="N217" t="n">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="O217" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P217" t="n">
-        <v>10000</v>
+        <v>8469</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="T217" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44403</v>
+        <v>44215</v>
       </c>
       <c r="E218" t="n">
         <v>9</v>
@@ -17795,25 +17795,25 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="N218" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O218" t="n">
         <v>10000</v>
       </c>
       <c r="P218" t="n">
-        <v>9556</v>
+        <v>10000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>956</v>
+        <v>1000</v>
       </c>
       <c r="T218" t="n">
         <v>10</v>
@@ -17884,20 +17884,20 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N219" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O219" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P219" t="n">
-        <v>22000</v>
+        <v>9556</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1100</v>
+        <v>956</v>
       </c>
       <c r="T219" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220">
@@ -17960,24 +17960,24 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N220" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O220" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P220" t="n">
-        <v>14538</v>
+        <v>22000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,10 +17986,10 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>808</v>
+        <v>1100</v>
       </c>
       <c r="T220" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E221" t="n">
         <v>9</v>
@@ -18035,25 +18035,25 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="N221" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O221" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P221" t="n">
-        <v>12000</v>
+        <v>14538</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>667</v>
+        <v>808</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E222" t="n">
         <v>9</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>680</v>
+        <v>185</v>
       </c>
       <c r="N222" t="n">
         <v>12000</v>
       </c>
       <c r="O222" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="P222" t="n">
-        <v>12279</v>
+        <v>12000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,20 +18204,20 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="N223" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O223" t="n">
-        <v>22000</v>
+        <v>12500</v>
       </c>
       <c r="P223" t="n">
-        <v>21462</v>
+        <v>12279</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1073</v>
+        <v>682</v>
       </c>
       <c r="T223" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224">
@@ -18280,24 +18280,24 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>155</v>
+        <v>650</v>
       </c>
       <c r="N224" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O224" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P224" t="n">
-        <v>10000</v>
+        <v>21462</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>556</v>
+        <v>1073</v>
       </c>
       <c r="T224" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E225" t="n">
         <v>9</v>
@@ -18360,24 +18360,24 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N225" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O225" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P225" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T225" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E226" t="n">
         <v>9</v>
@@ -18435,41 +18435,41 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="N226" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O226" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P226" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T226" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
@@ -18515,25 +18515,25 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="N227" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O227" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P227" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T227" t="n">
         <v>15</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E228" t="n">
         <v>9</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18604,20 +18604,20 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="N228" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O228" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P228" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -18626,10 +18626,10 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T228" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229">
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N229" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O229" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P229" t="n">
-        <v>7400</v>
+        <v>12000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>411</v>
+        <v>667</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
@@ -18760,24 +18760,24 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="N230" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O230" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P230" t="n">
-        <v>9429</v>
+        <v>7400</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>943</v>
+        <v>411</v>
       </c>
       <c r="T230" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
@@ -18835,29 +18835,29 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="N231" t="n">
-        <v>135000</v>
+        <v>9000</v>
       </c>
       <c r="O231" t="n">
-        <v>135000</v>
+        <v>10000</v>
       </c>
       <c r="P231" t="n">
-        <v>135000</v>
+        <v>9429</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>300</v>
+        <v>943</v>
       </c>
       <c r="T231" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232">
@@ -18915,29 +18915,29 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="N232" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="O232" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="P232" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T232" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="233">
@@ -19000,24 +19000,24 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N233" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O233" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P233" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T233" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234">
@@ -19084,20 +19084,20 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O234" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P234" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T234" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -19160,24 +19160,24 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="N235" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O235" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P235" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
@@ -19186,10 +19186,10 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T235" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236">
@@ -19247,17 +19247,17 @@
         <v>90</v>
       </c>
       <c r="N236" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P236" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,10 +19266,10 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T236" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E237" t="n">
         <v>9</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="N237" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N238" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O238" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P238" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E239" t="n">
         <v>9</v>
@@ -19475,25 +19475,25 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N239" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O239" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="P239" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19564,20 +19564,20 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N240" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O240" t="n">
-        <v>270000</v>
+        <v>13000</v>
       </c>
       <c r="P240" t="n">
-        <v>270000</v>
+        <v>12500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>600</v>
+        <v>694</v>
       </c>
       <c r="T240" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N241" t="n">
-        <v>225000</v>
+        <v>270000</v>
       </c>
       <c r="O241" t="n">
-        <v>225000</v>
+        <v>270000</v>
       </c>
       <c r="P241" t="n">
-        <v>225000</v>
+        <v>270000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T241" t="n">
         <v>450</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -19715,29 +19715,29 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="N242" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="O242" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="P242" t="n">
-        <v>22000</v>
+        <v>225000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1222</v>
+        <v>500</v>
       </c>
       <c r="T242" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N243" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O243" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P243" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="N244" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O244" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P244" t="n">
-        <v>16565</v>
+        <v>14000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>920</v>
+        <v>778</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19960,24 +19960,24 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N245" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O245" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P245" t="n">
-        <v>22000</v>
+        <v>16565</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="T245" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N246" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O246" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P246" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="T246" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
@@ -20124,20 +20124,20 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N247" t="n">
-        <v>202000</v>
+        <v>10000</v>
       </c>
       <c r="O247" t="n">
-        <v>202000</v>
+        <v>10000</v>
       </c>
       <c r="P247" t="n">
-        <v>202000</v>
+        <v>10000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>449</v>
+        <v>556</v>
       </c>
       <c r="T247" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N248" t="n">
-        <v>157000</v>
+        <v>202000</v>
       </c>
       <c r="O248" t="n">
-        <v>157000</v>
+        <v>202000</v>
       </c>
       <c r="P248" t="n">
-        <v>157000</v>
+        <v>202000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>349</v>
+        <v>449</v>
       </c>
       <c r="T248" t="n">
         <v>450</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -20280,24 +20280,24 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="N249" t="n">
-        <v>10000</v>
+        <v>157000</v>
       </c>
       <c r="O249" t="n">
-        <v>11000</v>
+        <v>157000</v>
       </c>
       <c r="P249" t="n">
-        <v>10468</v>
+        <v>157000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>582</v>
+        <v>349</v>
       </c>
       <c r="T249" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="250">
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="N250" t="n">
         <v>10000</v>
       </c>
       <c r="O250" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P250" t="n">
-        <v>10000</v>
+        <v>10468</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N251" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P251" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N252" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O252" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P252" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T252" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
@@ -20607,17 +20607,17 @@
         <v>200</v>
       </c>
       <c r="N253" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O253" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P253" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T253" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N254" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O254" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P254" t="n">
-        <v>3714</v>
+        <v>9000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>371</v>
+        <v>500</v>
       </c>
       <c r="T254" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N255" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O255" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P255" t="n">
-        <v>12000</v>
+        <v>3714</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1200</v>
+        <v>371</v>
       </c>
       <c r="T255" t="n">
         <v>10</v>
@@ -20844,20 +20844,20 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N256" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O256" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P256" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T256" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
@@ -20920,24 +20920,24 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N257" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O257" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P257" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20949,7 +20949,7 @@
         <v>1000</v>
       </c>
       <c r="T257" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258">
@@ -21004,20 +21004,20 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N258" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O258" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P258" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T258" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21084,32 +21084,32 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="N259" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O259" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P259" t="n">
-        <v>12476</v>
+        <v>16000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1248</v>
+        <v>889</v>
       </c>
       <c r="T259" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="N260" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O260" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P260" t="n">
-        <v>10000</v>
+        <v>12476</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1000</v>
+        <v>1248</v>
       </c>
       <c r="T260" t="n">
         <v>10</v>
@@ -21235,25 +21235,25 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P261" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T261" t="n">
         <v>10</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N262" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O262" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P262" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T262" t="n">
         <v>10</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21395,41 +21395,41 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N263" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O263" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P263" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T263" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264">
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N265" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O265" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P265" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21647,17 +21647,17 @@
         <v>200</v>
       </c>
       <c r="N266" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O266" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P266" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O267" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P267" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E268" t="n">
         <v>9</v>
@@ -21795,29 +21795,29 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N268" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O268" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P268" t="n">
-        <v>24429</v>
+        <v>8000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1221</v>
+        <v>444</v>
       </c>
       <c r="T268" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269">
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N269" t="n">
-        <v>4500</v>
+        <v>24000</v>
       </c>
       <c r="O269" t="n">
-        <v>4500</v>
+        <v>25000</v>
       </c>
       <c r="P269" t="n">
-        <v>4500</v>
+        <v>24429</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>450</v>
+        <v>1221</v>
       </c>
       <c r="T269" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270">
@@ -21967,17 +21967,17 @@
         <v>220</v>
       </c>
       <c r="N270" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O270" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P270" t="n">
-        <v>9545</v>
+        <v>4500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="T270" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
@@ -22044,20 +22044,20 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="N271" t="n">
-        <v>202000</v>
+        <v>9000</v>
       </c>
       <c r="O271" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="P271" t="n">
-        <v>215800</v>
+        <v>9545</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="T271" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,20 +22124,20 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>285</v>
+        <v>5</v>
       </c>
       <c r="N272" t="n">
-        <v>14000</v>
+        <v>202000</v>
       </c>
       <c r="O272" t="n">
-        <v>14000</v>
+        <v>225000</v>
       </c>
       <c r="P272" t="n">
-        <v>14000</v>
+        <v>215800</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1400</v>
+        <v>480</v>
       </c>
       <c r="T272" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="273">
@@ -22204,32 +22204,32 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="N273" t="n">
-        <v>34000</v>
+        <v>14000</v>
       </c>
       <c r="O273" t="n">
-        <v>34000</v>
+        <v>14000</v>
       </c>
       <c r="P273" t="n">
-        <v>34000</v>
+        <v>14000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1889</v>
+        <v>1400</v>
       </c>
       <c r="T273" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274">
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,29 +22284,29 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="N274" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="O274" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="P274" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>2056</v>
+        <v>1889</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E275" t="n">
         <v>9</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N275" t="n">
-        <v>21000</v>
+        <v>37000</v>
       </c>
       <c r="O275" t="n">
-        <v>21000</v>
+        <v>37000</v>
       </c>
       <c r="P275" t="n">
-        <v>21000</v>
+        <v>37000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1167</v>
+        <v>2056</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N276" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O276" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P276" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P277" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22595,41 +22595,41 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N278" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P278" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="T278" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22675,41 +22675,41 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="N279" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="O279" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="P279" t="n">
-        <v>180000</v>
+        <v>4500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T279" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N280" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="O280" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="P280" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T280" t="n">
         <v>450</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N281" t="n">
-        <v>90000</v>
+        <v>157500</v>
       </c>
       <c r="O281" t="n">
-        <v>90000</v>
+        <v>157500</v>
       </c>
       <c r="P281" t="n">
-        <v>90000</v>
+        <v>157500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="T281" t="n">
         <v>450</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N282" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="O282" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="P282" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="T282" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="283">
@@ -23004,20 +23004,20 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N283" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O283" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P283" t="n">
-        <v>12524</v>
+        <v>8000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>696</v>
+        <v>800</v>
       </c>
       <c r="T283" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
@@ -23084,20 +23084,20 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="N284" t="n">
-        <v>315000</v>
+        <v>12000</v>
       </c>
       <c r="O284" t="n">
-        <v>315000</v>
+        <v>13000</v>
       </c>
       <c r="P284" t="n">
-        <v>315000</v>
+        <v>12524</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="T284" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285">
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="N285" t="n">
-        <v>5000</v>
+        <v>315000</v>
       </c>
       <c r="O285" t="n">
-        <v>6000</v>
+        <v>315000</v>
       </c>
       <c r="P285" t="n">
-        <v>5556</v>
+        <v>315000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T285" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N286" t="n">
-        <v>157000</v>
+        <v>5000</v>
       </c>
       <c r="O286" t="n">
-        <v>157000</v>
+        <v>6000</v>
       </c>
       <c r="P286" t="n">
-        <v>157000</v>
+        <v>5556</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>349</v>
+        <v>556</v>
       </c>
       <c r="T286" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>100000</v>
+        <v>157000</v>
       </c>
       <c r="O287" t="n">
-        <v>100000</v>
+        <v>157000</v>
       </c>
       <c r="P287" t="n">
-        <v>100000</v>
+        <v>157000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="T287" t="n">
         <v>450</v>
@@ -23395,29 +23395,29 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="N288" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="O288" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="P288" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="T288" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23475,29 +23475,29 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N289" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O289" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P289" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1100</v>
+        <v>389</v>
       </c>
       <c r="T289" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290">
@@ -23560,24 +23560,24 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="N290" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O290" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P290" t="n">
-        <v>12561</v>
+        <v>22000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>698</v>
+        <v>1100</v>
       </c>
       <c r="T290" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="N291" t="n">
         <v>12000</v>
       </c>
       <c r="O291" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P291" t="n">
-        <v>12000</v>
+        <v>12561</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>667</v>
+        <v>698</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="N292" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O292" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P292" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="N293" t="n">
         <v>7000</v>
       </c>
       <c r="O293" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P293" t="n">
-        <v>7532</v>
+        <v>7000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23875,29 +23875,29 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N294" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O294" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P294" t="n">
-        <v>15000</v>
+        <v>7532</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1000</v>
+        <v>418</v>
       </c>
       <c r="T294" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="295">
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N295" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O295" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P295" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T295" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296">
@@ -24044,20 +24044,20 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N296" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O296" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P296" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T296" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
@@ -24120,24 +24120,24 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N297" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O297" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P297" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T297" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298">
@@ -24204,20 +24204,20 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="N298" t="n">
-        <v>135000</v>
+        <v>4000</v>
       </c>
       <c r="O298" t="n">
-        <v>135000</v>
+        <v>4000</v>
       </c>
       <c r="P298" t="n">
-        <v>135000</v>
+        <v>4000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T298" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24280,24 +24280,24 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="N299" t="n">
-        <v>700</v>
+        <v>135000</v>
       </c>
       <c r="O299" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P299" t="n">
-        <v>4350</v>
+        <v>135000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="T299" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="300">
@@ -24355,29 +24355,29 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N300" t="n">
-        <v>20000</v>
+        <v>700</v>
       </c>
       <c r="O300" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P300" t="n">
-        <v>20000</v>
+        <v>4350</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1000</v>
+        <v>242</v>
       </c>
       <c r="T300" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="N301" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O301" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P301" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T301" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302">
@@ -24524,20 +24524,20 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N302" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O302" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P302" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T302" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303">
@@ -24604,20 +24604,20 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N303" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O303" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T303" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304">
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="N304" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="O304" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="P304" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T304" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305">
@@ -24760,24 +24760,24 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="N305" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="O305" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="P305" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T305" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="306">
@@ -24844,20 +24844,20 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="N306" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O306" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P306" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T306" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,25 +24915,25 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O307" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P307" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N308" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O308" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P308" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N309" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O309" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P309" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T309" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310">
@@ -25160,24 +25160,24 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N310" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O310" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P310" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T310" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311">
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="N311" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T311" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312">
@@ -25320,24 +25320,24 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P312" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="T312" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,41 +25395,41 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N313" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="O313" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="P313" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1550</v>
+        <v>444</v>
       </c>
       <c r="T313" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="314">
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N314" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="O314" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="P314" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="T314" t="n">
         <v>10</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25555,12 +25555,12 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
@@ -25582,7 +25582,7 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S315" t="n">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N316" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O316" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P316" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T316" t="n">
         <v>10</v>
@@ -25724,20 +25724,20 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O317" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P317" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1056</v>
+        <v>1200</v>
       </c>
       <c r="T317" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
@@ -25800,24 +25800,24 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N318" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O318" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P318" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="T318" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319">
@@ -25884,20 +25884,20 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N319" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25909,7 +25909,7 @@
         <v>1000</v>
       </c>
       <c r="T319" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N320" t="n">
-        <v>270000</v>
+        <v>18000</v>
       </c>
       <c r="O320" t="n">
-        <v>270000</v>
+        <v>18000</v>
       </c>
       <c r="P320" t="n">
-        <v>270000</v>
+        <v>18000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T320" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26035,29 +26035,29 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="O321" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P321" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T321" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="322">
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N322" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P322" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N323" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O323" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P323" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N324" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P324" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>667</v>
+        <v>278</v>
       </c>
       <c r="T324" t="n">
         <v>18</v>
@@ -26367,17 +26367,17 @@
         <v>200</v>
       </c>
       <c r="N325" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P325" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T325" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326">
@@ -26440,24 +26440,24 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T326" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26515,29 +26515,29 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="N327" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O327" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P327" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="T327" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="328">
@@ -26600,24 +26600,24 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="N328" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P328" t="n">
-        <v>10862</v>
+        <v>22000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>603</v>
+        <v>1100</v>
       </c>
       <c r="T328" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26684,20 +26684,20 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="N329" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O329" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>5000</v>
+        <v>10862</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>500</v>
+        <v>603</v>
       </c>
       <c r="T329" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330">
@@ -26764,32 +26764,32 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="N330" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="O330" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="P330" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T330" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,32 +26844,32 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N331" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="O331" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="P331" t="n">
-        <v>15000</v>
+        <v>135000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>833</v>
+        <v>300</v>
       </c>
       <c r="T331" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26915,29 +26915,29 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N332" t="n">
-        <v>360000</v>
+        <v>15000</v>
       </c>
       <c r="O332" t="n">
-        <v>360000</v>
+        <v>15000</v>
       </c>
       <c r="P332" t="n">
-        <v>360000</v>
+        <v>15000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,10 +26946,10 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T332" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="333">
@@ -27000,24 +27000,24 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="N333" t="n">
-        <v>4500</v>
+        <v>360000</v>
       </c>
       <c r="O333" t="n">
-        <v>5000</v>
+        <v>360000</v>
       </c>
       <c r="P333" t="n">
-        <v>4750</v>
+        <v>360000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="T333" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="334">
@@ -27084,20 +27084,20 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N334" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O334" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P334" t="n">
-        <v>10000</v>
+        <v>4750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="T334" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
@@ -27164,20 +27164,20 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N335" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="O335" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="P335" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T335" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27240,36 +27240,36 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N336" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="O336" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="P336" t="n">
-        <v>20000</v>
+        <v>225000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="T336" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="337">
@@ -27320,36 +27320,36 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N337" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O337" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P337" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>889</v>
+        <v>2000</v>
       </c>
       <c r="T337" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>405</v>
+        <v>140</v>
       </c>
       <c r="N338" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O338" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P338" t="n">
-        <v>9617</v>
+        <v>16000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>534</v>
+        <v>889</v>
       </c>
       <c r="T338" t="n">
         <v>18</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27480,36 +27480,36 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="N339" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="O339" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P339" t="n">
-        <v>30000</v>
+        <v>9617</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>2000</v>
+        <v>534</v>
       </c>
       <c r="T339" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340">
@@ -27560,24 +27560,24 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N340" t="n">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="O340" t="n">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="P340" t="n">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="T340" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="N341" t="n">
-        <v>12000</v>
+        <v>23400</v>
       </c>
       <c r="O341" t="n">
-        <v>12600</v>
+        <v>23400</v>
       </c>
       <c r="P341" t="n">
-        <v>12366</v>
+        <v>23400</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27662,11 +27662,11 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>687</v>
+        <v>1300</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="N342" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O342" t="n">
-        <v>22000</v>
+        <v>12600</v>
       </c>
       <c r="P342" t="n">
-        <v>22000</v>
+        <v>12366</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1222</v>
+        <v>687</v>
       </c>
       <c r="T342" t="n">
         <v>18</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27804,32 +27804,32 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>850</v>
+        <v>75</v>
       </c>
       <c r="N343" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O343" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P343" t="n">
-        <v>11529</v>
+        <v>22000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1153</v>
+        <v>1222</v>
       </c>
       <c r="T343" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>120</v>
+        <v>850</v>
       </c>
       <c r="N344" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O344" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>20417</v>
+        <v>11529</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1134</v>
+        <v>1153</v>
       </c>
       <c r="T344" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
@@ -27960,24 +27960,24 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="N345" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O345" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P345" t="n">
-        <v>8621</v>
+        <v>20417</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>862</v>
+        <v>1134</v>
       </c>
       <c r="T345" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
@@ -28044,20 +28044,20 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N346" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O346" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P346" t="n">
-        <v>14000</v>
+        <v>8621</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>778</v>
+        <v>862</v>
       </c>
       <c r="T346" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28115,25 +28115,25 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N347" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O347" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P347" t="n">
-        <v>18760</v>
+        <v>14000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1042</v>
+        <v>778</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="N348" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O348" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P348" t="n">
-        <v>22000</v>
+        <v>18760</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1100</v>
+        <v>1042</v>
       </c>
       <c r="T348" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349">
@@ -28280,24 +28280,24 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="N349" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="O349" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="P349" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="T349" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350">
@@ -28364,20 +28364,20 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N350" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O350" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P350" t="n">
-        <v>8556</v>
+        <v>4000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="T350" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
@@ -28444,20 +28444,20 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="N351" t="n">
-        <v>225000</v>
+        <v>8000</v>
       </c>
       <c r="O351" t="n">
-        <v>225000</v>
+        <v>9000</v>
       </c>
       <c r="P351" t="n">
-        <v>225000</v>
+        <v>8556</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T351" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28524,20 +28524,20 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="N352" t="n">
-        <v>11000</v>
+        <v>225000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="P352" t="n">
-        <v>11463</v>
+        <v>225000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>637</v>
+        <v>500</v>
       </c>
       <c r="T352" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353">
@@ -28595,29 +28595,29 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="N353" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O353" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P353" t="n">
-        <v>21367</v>
+        <v>11463</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1068</v>
+        <v>637</v>
       </c>
       <c r="T353" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,20 +28684,20 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="N354" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O354" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P354" t="n">
-        <v>12000</v>
+        <v>21367</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1200</v>
+        <v>1068</v>
       </c>
       <c r="T354" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355">
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
         <v>300</v>
       </c>
       <c r="N355" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O355" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T355" t="n">
         <v>10</v>
@@ -28844,20 +28844,20 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N356" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O356" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P356" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T356" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,32 +28924,32 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N357" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O357" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P357" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1500</v>
+        <v>889</v>
       </c>
       <c r="T357" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358">
@@ -28995,41 +28995,41 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="N358" t="n">
-        <v>37000</v>
+        <v>15000</v>
       </c>
       <c r="O358" t="n">
-        <v>37000</v>
+        <v>15000</v>
       </c>
       <c r="P358" t="n">
-        <v>37000</v>
+        <v>15000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>2056</v>
+        <v>1500</v>
       </c>
       <c r="T358" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29075,41 +29075,41 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N359" t="n">
-        <v>6000</v>
+        <v>37000</v>
       </c>
       <c r="O359" t="n">
-        <v>6000</v>
+        <v>37000</v>
       </c>
       <c r="P359" t="n">
-        <v>6000</v>
+        <v>37000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S359" t="n">
-        <v>600</v>
+        <v>2056</v>
       </c>
       <c r="T359" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360">
@@ -29164,20 +29164,20 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P360" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T360" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361">
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N361" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O361" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P361" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T361" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362">
@@ -29324,20 +29324,20 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="N362" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O362" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P362" t="n">
-        <v>7472</v>
+        <v>4000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="T362" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363">
@@ -29404,20 +29404,20 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>22</v>
+        <v>530</v>
       </c>
       <c r="N363" t="n">
-        <v>180000</v>
+        <v>7000</v>
       </c>
       <c r="O363" t="n">
-        <v>202000</v>
+        <v>8000</v>
       </c>
       <c r="P363" t="n">
-        <v>192000</v>
+        <v>7472</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="T363" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364">
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="N364" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="O364" t="n">
-        <v>3000</v>
+        <v>202000</v>
       </c>
       <c r="P364" t="n">
-        <v>3000</v>
+        <v>192000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="T364" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29555,29 +29555,29 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N365" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="O365" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P365" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T365" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
@@ -29644,20 +29644,20 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>405</v>
+        <v>185</v>
       </c>
       <c r="N366" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O366" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P366" t="n">
-        <v>21309</v>
+        <v>18000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T366" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367">
@@ -29720,24 +29720,24 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>255</v>
+        <v>405</v>
       </c>
       <c r="N367" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O367" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P367" t="n">
-        <v>13000</v>
+        <v>21309</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>722</v>
+        <v>1065</v>
       </c>
       <c r="T367" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29795,25 +29795,25 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N368" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O368" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P368" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29884,20 +29884,20 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T369" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370">
@@ -29960,24 +29960,24 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N370" t="n">
-        <v>4300</v>
+        <v>14000</v>
       </c>
       <c r="O370" t="n">
-        <v>4300</v>
+        <v>14000</v>
       </c>
       <c r="P370" t="n">
-        <v>4300</v>
+        <v>14000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,10 +29986,10 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>430</v>
+        <v>933</v>
       </c>
       <c r="T370" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371">
@@ -30044,20 +30044,20 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N371" t="n">
-        <v>10000</v>
+        <v>4300</v>
       </c>
       <c r="O371" t="n">
-        <v>10000</v>
+        <v>4300</v>
       </c>
       <c r="P371" t="n">
-        <v>10000</v>
+        <v>4300</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,10 +30066,10 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>667</v>
+        <v>430</v>
       </c>
       <c r="T371" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372">
@@ -30120,24 +30120,24 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N372" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O372" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P372" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T372" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30195,29 +30195,29 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N373" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P373" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T373" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374">
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N374" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O374" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P374" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30355,25 +30355,25 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O375" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P375" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T375" t="n">
         <v>18</v>
@@ -30444,20 +30444,20 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>12</v>
+        <v>1600</v>
       </c>
       <c r="N376" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O376" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P376" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T376" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="377">
@@ -30524,20 +30524,20 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>2180</v>
+        <v>12</v>
       </c>
       <c r="N377" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="O377" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P377" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,10 +30546,10 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T377" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="378">
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>15</v>
+        <v>2180</v>
       </c>
       <c r="N378" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O378" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P378" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T378" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379">
@@ -30675,29 +30675,29 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>630</v>
+        <v>15</v>
       </c>
       <c r="N379" t="n">
-        <v>20000</v>
+        <v>135000</v>
       </c>
       <c r="O379" t="n">
-        <v>22000</v>
+        <v>135000</v>
       </c>
       <c r="P379" t="n">
-        <v>21206</v>
+        <v>135000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1060</v>
+        <v>300</v>
       </c>
       <c r="T379" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="380">
@@ -30760,24 +30760,24 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>185</v>
+        <v>630</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O380" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P380" t="n">
-        <v>12000</v>
+        <v>21206</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>667</v>
+        <v>1060</v>
       </c>
       <c r="T380" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N381" t="n">
         <v>12000</v>
@@ -30857,7 +30857,7 @@
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N382" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O382" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P382" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T382" t="n">
         <v>18</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N383" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="O383" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="P383" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1444</v>
+        <v>389</v>
       </c>
       <c r="T383" t="n">
         <v>18</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31075,25 +31075,25 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N384" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="O384" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="P384" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>667</v>
+        <v>1444</v>
       </c>
       <c r="T384" t="n">
         <v>18</v>
@@ -31164,20 +31164,20 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N385" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P385" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1125</v>
+        <v>667</v>
       </c>
       <c r="T385" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="386">
@@ -31240,24 +31240,24 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N386" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O386" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="P386" t="n">
-        <v>9000</v>
+        <v>22500</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T386" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387">
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N387" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O387" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P387" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31400,33 +31400,33 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="N388" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O388" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P388" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="T388" t="n">
         <v>10</v>
@@ -31484,20 +31484,20 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N389" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O389" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P389" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1111</v>
+        <v>1300</v>
       </c>
       <c r="T389" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N390" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O390" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P390" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T390" t="n">
         <v>18</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>800</v>
+        <v>155</v>
       </c>
       <c r="N391" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O391" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P391" t="n">
-        <v>12562</v>
+        <v>17000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1256</v>
+        <v>944</v>
       </c>
       <c r="T391" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N392" t="n">
         <v>12000</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P392" t="n">
-        <v>12000</v>
+        <v>12562</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1200</v>
+        <v>1256</v>
       </c>
       <c r="T392" t="n">
         <v>10</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31795,41 +31795,41 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N393" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T393" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
@@ -31875,29 +31875,29 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
         <v>100</v>
       </c>
       <c r="N394" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O394" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P394" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T394" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="395">
@@ -31967,17 +31967,17 @@
         <v>100</v>
       </c>
       <c r="N395" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T395" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="396">
@@ -32040,35 +32040,115 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M396" t="n">
+        <v>100</v>
+      </c>
+      <c r="N396" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O396" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P396" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S396" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T396" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>10</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E397" t="n">
+        <v>9</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M396" t="n">
+      <c r="M397" t="n">
         <v>30</v>
       </c>
-      <c r="N396" t="n">
+      <c r="N397" t="n">
         <v>8000</v>
       </c>
-      <c r="O396" t="n">
+      <c r="O397" t="n">
         <v>8000</v>
       </c>
-      <c r="P396" t="n">
+      <c r="P397" t="n">
         <v>8000</v>
       </c>
-      <c r="Q396" t="inlineStr">
+      <c r="Q397" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R396" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S396" t="n">
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S397" t="n">
         <v>444</v>
       </c>
-      <c r="T396" t="n">
+      <c r="T397" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T402"/>
+  <dimension ref="A1:T405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E236" t="n">
         <v>9</v>
@@ -19240,24 +19240,24 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N236" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P236" t="n">
-        <v>9429</v>
+        <v>12000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,10 +19266,10 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>943</v>
+        <v>800</v>
       </c>
       <c r="T236" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44434</v>
+        <v>44488</v>
       </c>
       <c r="E237" t="n">
         <v>9</v>
@@ -19315,29 +19315,29 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N237" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O237" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P237" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -19346,10 +19346,10 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T237" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44434</v>
+        <v>44488</v>
       </c>
       <c r="E238" t="n">
         <v>9</v>
@@ -19400,24 +19400,24 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N238" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O238" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P238" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T238" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E239" t="n">
         <v>9</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N239" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O239" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P239" t="n">
-        <v>6000</v>
+        <v>9429</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>600</v>
+        <v>943</v>
       </c>
       <c r="T239" t="n">
         <v>10</v>
@@ -19555,29 +19555,29 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="N240" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O240" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P240" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T240" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="241">
@@ -19640,24 +19640,24 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="N241" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O241" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P241" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T241" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242">
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N242" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O242" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P242" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T242" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="N243" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O243" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19880,24 +19880,24 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N244" t="n">
-        <v>14400</v>
+        <v>4000</v>
       </c>
       <c r="O244" t="n">
-        <v>14400</v>
+        <v>4000</v>
       </c>
       <c r="P244" t="n">
-        <v>14400</v>
+        <v>4000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T244" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19955,25 +19955,25 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N245" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O245" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P245" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>694</v>
+        <v>444</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20044,20 +20044,20 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="N246" t="n">
-        <v>270000</v>
+        <v>18000</v>
       </c>
       <c r="O246" t="n">
-        <v>270000</v>
+        <v>18000</v>
       </c>
       <c r="P246" t="n">
-        <v>270000</v>
+        <v>18000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T246" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -20124,20 +20124,20 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="N247" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="O247" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="P247" t="n">
-        <v>225000</v>
+        <v>14400</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T247" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -20195,25 +20195,25 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N248" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O248" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P248" t="n">
-        <v>22000</v>
+        <v>12500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1222</v>
+        <v>694</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44274</v>
+        <v>44351</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20284,20 +20284,20 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="N249" t="n">
-        <v>14000</v>
+        <v>270000</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>270000</v>
       </c>
       <c r="P249" t="n">
-        <v>14000</v>
+        <v>270000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T249" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="N250" t="n">
-        <v>16000</v>
+        <v>225000</v>
       </c>
       <c r="O250" t="n">
-        <v>17000</v>
+        <v>225000</v>
       </c>
       <c r="P250" t="n">
-        <v>16565</v>
+        <v>225000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>920</v>
+        <v>500</v>
       </c>
       <c r="T250" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44407</v>
+        <v>44280</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20457,7 +20457,7 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1100</v>
+        <v>1222</v>
       </c>
       <c r="T251" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44407</v>
+        <v>44274</v>
       </c>
       <c r="E252" t="n">
         <v>9</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N252" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O252" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P252" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="N253" t="n">
-        <v>202000</v>
+        <v>16000</v>
       </c>
       <c r="O253" t="n">
-        <v>202000</v>
+        <v>17000</v>
       </c>
       <c r="P253" t="n">
-        <v>202000</v>
+        <v>16565</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>449</v>
+        <v>920</v>
       </c>
       <c r="T253" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254">
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N254" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="O254" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="P254" t="n">
-        <v>157000</v>
+        <v>22000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>349</v>
+        <v>1100</v>
       </c>
       <c r="T254" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="N255" t="n">
         <v>10000</v>
       </c>
       <c r="O255" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P255" t="n">
-        <v>10468</v>
+        <v>10000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E256" t="n">
         <v>9</v>
@@ -20835,29 +20835,29 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N256" t="n">
-        <v>10000</v>
+        <v>202000</v>
       </c>
       <c r="O256" t="n">
-        <v>10000</v>
+        <v>202000</v>
       </c>
       <c r="P256" t="n">
-        <v>10000</v>
+        <v>202000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>556</v>
+        <v>449</v>
       </c>
       <c r="T256" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44391</v>
+        <v>44407</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -20920,24 +20920,24 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="N257" t="n">
-        <v>12000</v>
+        <v>157000</v>
       </c>
       <c r="O257" t="n">
-        <v>12000</v>
+        <v>157000</v>
       </c>
       <c r="P257" t="n">
-        <v>12000</v>
+        <v>157000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20946,10 +20946,10 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>667</v>
+        <v>349</v>
       </c>
       <c r="T257" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="258">
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -21004,20 +21004,20 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="N258" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O258" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P258" t="n">
-        <v>4000</v>
+        <v>10468</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>400</v>
+        <v>582</v>
       </c>
       <c r="T258" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N259" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O259" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P259" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N260" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O260" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P260" t="n">
-        <v>3714</v>
+        <v>12000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>371</v>
+        <v>667</v>
       </c>
       <c r="T260" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P261" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T261" t="n">
         <v>10</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O262" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P262" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N263" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O263" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P263" t="n">
-        <v>10000</v>
+        <v>3714</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1000</v>
+        <v>371</v>
       </c>
       <c r="T263" t="n">
         <v>10</v>
@@ -21480,24 +21480,24 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N264" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O264" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T264" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21560,36 +21560,36 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="N265" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O265" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P265" t="n">
-        <v>12476</v>
+        <v>18000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1248</v>
+        <v>1000</v>
       </c>
       <c r="T265" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E266" t="n">
         <v>9</v>
@@ -21640,11 +21640,11 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
         <v>10000</v>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S266" t="n">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,32 +21724,32 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O267" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P267" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T267" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268">
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="N268" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O268" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>10000</v>
+        <v>12476</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1000</v>
+        <v>1248</v>
       </c>
       <c r="T268" t="n">
         <v>10</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -21875,41 +21875,41 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N269" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P269" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T269" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -21955,41 +21955,41 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N270" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O270" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P270" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>444</v>
+        <v>1200</v>
       </c>
       <c r="T270" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -22035,41 +22035,41 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N271" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O271" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P271" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T271" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22124,20 +22124,20 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N272" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O272" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P272" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N273" t="n">
         <v>8000</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E274" t="n">
         <v>9</v>
@@ -22275,29 +22275,29 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O274" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P274" t="n">
-        <v>24429</v>
+        <v>12000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1221</v>
+        <v>667</v>
       </c>
       <c r="T274" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E275" t="n">
         <v>9</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,20 +22364,20 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N275" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O275" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P275" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="T275" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E276" t="n">
         <v>9</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N276" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O276" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P276" t="n">
-        <v>9545</v>
+        <v>8000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>530</v>
+        <v>444</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="N277" t="n">
-        <v>202000</v>
+        <v>24000</v>
       </c>
       <c r="O277" t="n">
-        <v>225000</v>
+        <v>25000</v>
       </c>
       <c r="P277" t="n">
-        <v>215800</v>
+        <v>24429</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>480</v>
+        <v>1221</v>
       </c>
       <c r="T277" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="N278" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O278" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P278" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="T278" t="n">
         <v>10</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,29 +22684,29 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="N279" t="n">
-        <v>34000</v>
+        <v>9000</v>
       </c>
       <c r="O279" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="P279" t="n">
-        <v>34000</v>
+        <v>9545</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1889</v>
+        <v>530</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,20 +22764,20 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="N280" t="n">
-        <v>37000</v>
+        <v>202000</v>
       </c>
       <c r="O280" t="n">
-        <v>37000</v>
+        <v>225000</v>
       </c>
       <c r="P280" t="n">
-        <v>37000</v>
+        <v>215800</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>2056</v>
+        <v>480</v>
       </c>
       <c r="T280" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22835,29 +22835,29 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="N281" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O281" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P281" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1167</v>
+        <v>1400</v>
       </c>
       <c r="T281" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,29 +22924,29 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="N282" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="O282" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="P282" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1000</v>
+        <v>1889</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E283" t="n">
         <v>9</v>
@@ -22995,25 +22995,25 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N283" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="O283" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="P283" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>556</v>
+        <v>2056</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23075,41 +23075,41 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N284" t="n">
-        <v>4000</v>
+        <v>21000</v>
       </c>
       <c r="O284" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P284" t="n">
-        <v>4500</v>
+        <v>21000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>450</v>
+        <v>1167</v>
       </c>
       <c r="T284" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23164,20 +23164,20 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N285" t="n">
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="O285" t="n">
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="P285" t="n">
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T285" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N286" t="n">
-        <v>157500</v>
+        <v>10000</v>
       </c>
       <c r="O286" t="n">
-        <v>157500</v>
+        <v>10000</v>
       </c>
       <c r="P286" t="n">
-        <v>157500</v>
+        <v>10000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>350</v>
+        <v>556</v>
       </c>
       <c r="T286" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23315,41 +23315,41 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="O287" t="n">
-        <v>90000</v>
+        <v>5000</v>
       </c>
       <c r="P287" t="n">
-        <v>90000</v>
+        <v>4500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="T287" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E288" t="n">
         <v>9</v>
@@ -23404,20 +23404,20 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="N288" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="O288" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P288" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T288" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>157500</v>
       </c>
       <c r="O289" t="n">
-        <v>13000</v>
+        <v>157500</v>
       </c>
       <c r="P289" t="n">
-        <v>12524</v>
+        <v>157500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>696</v>
+        <v>350</v>
       </c>
       <c r="T289" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N290" t="n">
-        <v>315000</v>
+        <v>90000</v>
       </c>
       <c r="O290" t="n">
-        <v>315000</v>
+        <v>90000</v>
       </c>
       <c r="P290" t="n">
-        <v>315000</v>
+        <v>90000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="T290" t="n">
         <v>450</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N291" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O291" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P291" t="n">
-        <v>5556</v>
+        <v>8000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T291" t="n">
         <v>10</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E292" t="n">
         <v>9</v>
@@ -23724,20 +23724,20 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="N292" t="n">
-        <v>157000</v>
+        <v>12000</v>
       </c>
       <c r="O292" t="n">
-        <v>157000</v>
+        <v>13000</v>
       </c>
       <c r="P292" t="n">
-        <v>157000</v>
+        <v>12524</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>349</v>
+        <v>696</v>
       </c>
       <c r="T292" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N293" t="n">
-        <v>100000</v>
+        <v>315000</v>
       </c>
       <c r="O293" t="n">
-        <v>100000</v>
+        <v>315000</v>
       </c>
       <c r="P293" t="n">
-        <v>100000</v>
+        <v>315000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>222</v>
+        <v>700</v>
       </c>
       <c r="T293" t="n">
         <v>450</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23875,29 +23875,29 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N294" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O294" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P294" t="n">
-        <v>7000</v>
+        <v>5556</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T294" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>22000</v>
+        <v>157000</v>
       </c>
       <c r="O295" t="n">
-        <v>22000</v>
+        <v>157000</v>
       </c>
       <c r="P295" t="n">
-        <v>22000</v>
+        <v>157000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1100</v>
+        <v>349</v>
       </c>
       <c r="T295" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="N296" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="O296" t="n">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="P296" t="n">
-        <v>12561</v>
+        <v>100000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>698</v>
+        <v>222</v>
       </c>
       <c r="T296" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="N297" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O297" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P297" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="N298" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O298" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P298" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>389</v>
+        <v>1100</v>
       </c>
       <c r="T298" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="N299" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P299" t="n">
-        <v>7532</v>
+        <v>12561</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>418</v>
+        <v>698</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
@@ -24364,20 +24364,20 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N300" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O300" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P300" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T300" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="N301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="T301" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N302" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O302" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P302" t="n">
-        <v>12000</v>
+        <v>7532</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N303" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O303" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P303" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T303" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304">
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="N304" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O304" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P304" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T304" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305">
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>100</v>
       </c>
       <c r="N305" t="n">
-        <v>700</v>
+        <v>12000</v>
       </c>
       <c r="O305" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P305" t="n">
-        <v>4350</v>
+        <v>12000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>242</v>
+        <v>667</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24835,29 +24835,29 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>530</v>
+        <v>280</v>
       </c>
       <c r="N306" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O306" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P306" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T306" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
@@ -24915,29 +24915,29 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="N307" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="O307" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P307" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T307" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="308">
@@ -24995,25 +24995,25 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="N308" t="n">
-        <v>12000</v>
+        <v>700</v>
       </c>
       <c r="O308" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P308" t="n">
-        <v>12000</v>
+        <v>4350</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>667</v>
+        <v>242</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25080,11 +25080,11 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="N309" t="n">
         <v>20000</v>
@@ -25160,24 +25160,24 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="N310" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O310" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P310" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T310" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>90</v>
+        <v>650</v>
       </c>
       <c r="N311" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T311" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312">
@@ -25320,24 +25320,24 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P312" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T312" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,29 +25395,29 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P313" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T313" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25475,29 +25475,29 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N314" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O314" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P314" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T314" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25560,24 +25560,24 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N315" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O315" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P315" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T315" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,16 +25635,16 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N316" t="n">
         <v>12000</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,29 +25715,29 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="O317" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P317" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T317" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318">
@@ -25800,24 +25800,24 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N318" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O318" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P318" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T318" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25875,41 +25875,41 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N319" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O319" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1550</v>
+        <v>667</v>
       </c>
       <c r="T319" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,32 +25964,32 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N320" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="O320" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="P320" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T320" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26040,24 +26040,24 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N321" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O321" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P321" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T321" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44334</v>
+        <v>44307</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N322" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="O322" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="P322" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26142,11 +26142,11 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1200</v>
+        <v>1550</v>
       </c>
       <c r="T322" t="n">
         <v>10</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44334</v>
+        <v>44307</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26195,41 +26195,41 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N323" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O323" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P323" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="T323" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,7 +26284,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N324" t="n">
         <v>10000</v>
@@ -26360,24 +26360,24 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M325" t="n">
         <v>200</v>
       </c>
       <c r="N325" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O325" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P325" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T325" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
@@ -26440,24 +26440,24 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N326" t="n">
-        <v>270000</v>
+        <v>19000</v>
       </c>
       <c r="O326" t="n">
-        <v>270000</v>
+        <v>19000</v>
       </c>
       <c r="P326" t="n">
-        <v>270000</v>
+        <v>19000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>600</v>
+        <v>1056</v>
       </c>
       <c r="T326" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,20 +26524,20 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O327" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P327" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T327" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N328" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O328" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P328" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T328" t="n">
         <v>18</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26675,29 +26675,29 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N329" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="O329" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="P329" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>278</v>
+        <v>600</v>
       </c>
       <c r="T329" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26840,24 +26840,24 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O331" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P331" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T331" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N332" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O332" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P332" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -26995,29 +26995,29 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N333" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O333" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P333" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T333" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,20 +27084,20 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N334" t="n">
         <v>10000</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P334" t="n">
-        <v>10862</v>
+        <v>10000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>603</v>
+        <v>500</v>
       </c>
       <c r="T334" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27155,29 +27155,29 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="N335" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O335" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P335" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T335" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27240,36 +27240,36 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="N336" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="O336" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="P336" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="T336" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="N337" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>15000</v>
+        <v>10862</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>833</v>
+        <v>603</v>
       </c>
       <c r="T337" t="n">
         <v>18</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27400,24 +27400,24 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="N338" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="O338" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="P338" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T338" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27484,32 +27484,32 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="N339" t="n">
-        <v>4500</v>
+        <v>135000</v>
       </c>
       <c r="O339" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="P339" t="n">
-        <v>4750</v>
+        <v>135000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="T339" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N340" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O340" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P340" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T340" t="n">
         <v>18</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N341" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="O341" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="P341" t="n">
-        <v>225000</v>
+        <v>360000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="N342" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O342" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P342" t="n">
-        <v>20000</v>
+        <v>4750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>2000</v>
+        <v>475</v>
       </c>
       <c r="T342" t="n">
         <v>10</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N343" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O343" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P343" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="N344" t="n">
-        <v>9000</v>
+        <v>225000</v>
       </c>
       <c r="O344" t="n">
-        <v>10000</v>
+        <v>225000</v>
       </c>
       <c r="P344" t="n">
-        <v>9617</v>
+        <v>225000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="T344" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27964,20 +27964,20 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N345" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O345" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P345" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27989,7 +27989,7 @@
         <v>2000</v>
       </c>
       <c r="T345" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N346" t="n">
-        <v>23400</v>
+        <v>16000</v>
       </c>
       <c r="O346" t="n">
-        <v>23400</v>
+        <v>16000</v>
       </c>
       <c r="P346" t="n">
-        <v>23400</v>
+        <v>16000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28062,11 +28062,11 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1300</v>
+        <v>889</v>
       </c>
       <c r="T346" t="n">
         <v>18</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="N347" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O347" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>12366</v>
+        <v>9617</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>687</v>
+        <v>534</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28200,24 +28200,24 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N348" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O348" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P348" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1222</v>
+        <v>2000</v>
       </c>
       <c r="T348" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28284,32 +28284,32 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>850</v>
+        <v>75</v>
       </c>
       <c r="N349" t="n">
-        <v>11000</v>
+        <v>23400</v>
       </c>
       <c r="O349" t="n">
-        <v>12000</v>
+        <v>23400</v>
       </c>
       <c r="P349" t="n">
-        <v>11529</v>
+        <v>23400</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1153</v>
+        <v>1300</v>
       </c>
       <c r="T349" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="N350" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O350" t="n">
-        <v>21000</v>
+        <v>12600</v>
       </c>
       <c r="P350" t="n">
-        <v>20417</v>
+        <v>12366</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1134</v>
+        <v>687</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28440,36 +28440,36 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="N351" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O351" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P351" t="n">
-        <v>8621</v>
+        <v>22000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>862</v>
+        <v>1222</v>
       </c>
       <c r="T351" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -28520,24 +28520,24 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>40</v>
+        <v>850</v>
       </c>
       <c r="N352" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O352" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>14000</v>
+        <v>11529</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>778</v>
+        <v>1153</v>
       </c>
       <c r="T352" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N353" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O353" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P353" t="n">
-        <v>18760</v>
+        <v>20417</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1042</v>
+        <v>1134</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28680,24 +28680,24 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="N354" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O354" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P354" t="n">
-        <v>22000</v>
+        <v>8621</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1100</v>
+        <v>862</v>
       </c>
       <c r="T354" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28760,24 +28760,24 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N355" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O355" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P355" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="T355" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="N356" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O356" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P356" t="n">
-        <v>8556</v>
+        <v>18760</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>475</v>
+        <v>1042</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28920,24 +28920,24 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="N357" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="O357" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="P357" t="n">
-        <v>225000</v>
+        <v>22000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T357" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -29004,20 +29004,20 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>335</v>
+        <v>155</v>
       </c>
       <c r="N358" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O358" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P358" t="n">
-        <v>11463</v>
+        <v>4000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>637</v>
+        <v>400</v>
       </c>
       <c r="T358" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29075,29 +29075,29 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="N359" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O359" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P359" t="n">
-        <v>21367</v>
+        <v>8556</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1068</v>
+        <v>475</v>
       </c>
       <c r="T359" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29160,24 +29160,24 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="P360" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T360" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29244,20 +29244,20 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="N361" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O361" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P361" t="n">
-        <v>8000</v>
+        <v>11463</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>800</v>
+        <v>637</v>
       </c>
       <c r="T361" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,29 +29315,29 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="N362" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O362" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P362" t="n">
-        <v>16000</v>
+        <v>21367</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>889</v>
+        <v>1068</v>
       </c>
       <c r="T362" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29395,25 +29395,25 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="N363" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29422,11 +29422,11 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29475,41 +29475,41 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="N364" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="O364" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="P364" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2056</v>
+        <v>800</v>
       </c>
       <c r="T364" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29560,24 +29560,24 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N365" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O365" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P365" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T365" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,41 +29635,41 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N366" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O366" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P366" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T366" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29715,41 +29715,41 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>600</v>
+        <v>155</v>
       </c>
       <c r="N367" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="O367" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="P367" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>400</v>
+        <v>2056</v>
       </c>
       <c r="T367" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368">
@@ -29800,24 +29800,24 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="N368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O368" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P368" t="n">
-        <v>7472</v>
+        <v>6000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,10 +29826,10 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>415</v>
+        <v>600</v>
       </c>
       <c r="T368" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369">
@@ -29880,24 +29880,24 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="N369" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O369" t="n">
-        <v>202000</v>
+        <v>12000</v>
       </c>
       <c r="P369" t="n">
-        <v>192000</v>
+        <v>12000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>427</v>
+        <v>667</v>
       </c>
       <c r="T369" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370">
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N370" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O370" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P370" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30035,29 +30035,29 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>185</v>
+        <v>530</v>
       </c>
       <c r="N371" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O371" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P371" t="n">
-        <v>18000</v>
+        <v>7472</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1000</v>
+        <v>415</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30115,29 +30115,29 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="N372" t="n">
-        <v>21000</v>
+        <v>180000</v>
       </c>
       <c r="O372" t="n">
-        <v>22000</v>
+        <v>202000</v>
       </c>
       <c r="P372" t="n">
-        <v>21309</v>
+        <v>192000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1065</v>
+        <v>427</v>
       </c>
       <c r="T372" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30195,29 +30195,29 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N373" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O373" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P373" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>722</v>
+        <v>300</v>
       </c>
       <c r="T373" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,20 +30284,20 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N374" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O374" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P374" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,20 +30364,20 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="N375" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O375" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P375" t="n">
-        <v>14000</v>
+        <v>21309</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>933</v>
+        <v>1065</v>
       </c>
       <c r="T375" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,20 +30444,20 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="N376" t="n">
-        <v>4300</v>
+        <v>13000</v>
       </c>
       <c r="O376" t="n">
-        <v>4300</v>
+        <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>4300</v>
+        <v>13000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>430</v>
+        <v>722</v>
       </c>
       <c r="T376" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="377">
@@ -30520,24 +30520,24 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
         <v>100</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30549,7 +30549,7 @@
         <v>667</v>
       </c>
       <c r="T377" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="378">
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N378" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O378" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P378" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>300</v>
+        <v>933</v>
       </c>
       <c r="T378" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,20 +30684,20 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N379" t="n">
-        <v>12000</v>
+        <v>4300</v>
       </c>
       <c r="O379" t="n">
-        <v>12000</v>
+        <v>4300</v>
       </c>
       <c r="P379" t="n">
-        <v>12000</v>
+        <v>4300</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>667</v>
+        <v>430</v>
       </c>
       <c r="T379" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30755,29 +30755,29 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N380" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P380" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T380" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>1600</v>
+        <v>80</v>
       </c>
       <c r="N381" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O381" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P381" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T381" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,20 +30924,20 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N382" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O382" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P382" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T382" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -30995,29 +30995,29 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>2180</v>
+        <v>500</v>
       </c>
       <c r="N383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T383" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="384">
@@ -31080,24 +31080,24 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>15</v>
+        <v>1600</v>
       </c>
       <c r="N384" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O384" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P384" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T384" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="385">
@@ -31155,29 +31155,29 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>630</v>
+        <v>12</v>
       </c>
       <c r="N385" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="O385" t="n">
-        <v>22000</v>
+        <v>180000</v>
       </c>
       <c r="P385" t="n">
-        <v>21206</v>
+        <v>180000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1060</v>
+        <v>400</v>
       </c>
       <c r="T385" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386">
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,20 +31244,20 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>185</v>
+        <v>2180</v>
       </c>
       <c r="N386" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P386" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T386" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31315,29 +31315,29 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N387" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O387" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P387" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T387" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>50</v>
+        <v>630</v>
       </c>
       <c r="N388" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O388" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P388" t="n">
-        <v>7000</v>
+        <v>21206</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>389</v>
+        <v>1060</v>
       </c>
       <c r="T388" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31484,20 +31484,20 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="N389" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O389" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="P389" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1444</v>
+        <v>667</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31555,16 +31555,16 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N390" t="n">
         <v>12000</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31635,29 +31635,29 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N391" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O391" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P391" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1125</v>
+        <v>389</v>
       </c>
       <c r="T391" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N392" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="O392" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="P392" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>500</v>
+        <v>1444</v>
       </c>
       <c r="T392" t="n">
         <v>18</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N393" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31880,36 +31880,36 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N394" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O394" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P394" t="n">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1300</v>
+        <v>1125</v>
       </c>
       <c r="T394" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N395" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O395" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P395" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31982,11 +31982,11 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1111</v>
+        <v>500</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32044,32 +32044,32 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="N396" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="O396" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P396" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="T396" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32124,20 +32124,20 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>800</v>
+        <v>185</v>
       </c>
       <c r="N397" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O397" t="n">
         <v>13000</v>
       </c>
       <c r="P397" t="n">
-        <v>12562</v>
+        <v>13000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1256</v>
+        <v>1300</v>
       </c>
       <c r="T397" t="n">
         <v>10</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,20 +32204,20 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,10 +32226,10 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="T398" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32280,36 +32280,36 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N399" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O399" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P399" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T399" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,32 +32364,32 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N400" t="n">
         <v>12000</v>
       </c>
       <c r="O400" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P400" t="n">
-        <v>12000</v>
+        <v>12562</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>667</v>
+        <v>1256</v>
       </c>
       <c r="T400" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,32 +32444,32 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N401" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O401" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P401" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T401" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32515,40 +32515,280 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M402" t="n">
+        <v>100</v>
+      </c>
+      <c r="N402" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O402" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P402" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S402" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T402" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>10</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D403" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E403" t="n">
+        <v>9</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G403" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L402" t="inlineStr">
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M403" t="n">
+        <v>100</v>
+      </c>
+      <c r="N403" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O403" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P403" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S403" t="n">
+        <v>667</v>
+      </c>
+      <c r="T403" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>10</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D404" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E404" t="n">
+        <v>9</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M404" t="n">
+        <v>100</v>
+      </c>
+      <c r="N404" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O404" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P404" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S404" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T404" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>10</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D405" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E405" t="n">
+        <v>9</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M402" t="n">
+      <c r="M405" t="n">
         <v>30</v>
       </c>
-      <c r="N402" t="n">
+      <c r="N405" t="n">
         <v>8000</v>
       </c>
-      <c r="O402" t="n">
+      <c r="O405" t="n">
         <v>8000</v>
       </c>
-      <c r="P402" t="n">
+      <c r="P405" t="n">
         <v>8000</v>
       </c>
-      <c r="Q402" t="inlineStr">
+      <c r="Q405" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R402" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S402" t="n">
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S405" t="n">
         <v>444</v>
       </c>
-      <c r="T402" t="n">
+      <c r="T405" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T405"/>
+  <dimension ref="A1:T409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -20995,29 +20995,29 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="N258" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O258" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P258" t="n">
-        <v>10468</v>
+        <v>13500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>582</v>
+        <v>900</v>
       </c>
       <c r="T258" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,7 +21084,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N259" t="n">
         <v>10000</v>
@@ -21097,7 +21097,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T259" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -21155,29 +21155,29 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N260" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O260" t="n">
         <v>12000</v>
       </c>
       <c r="P260" t="n">
-        <v>12000</v>
+        <v>10857</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -21235,25 +21235,25 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O261" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P261" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T261" t="n">
         <v>10</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="N262" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O262" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P262" t="n">
-        <v>9000</v>
+        <v>10468</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>500</v>
+        <v>582</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21395,29 +21395,29 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="N263" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O263" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P263" t="n">
-        <v>3714</v>
+        <v>10000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,10 +21426,10 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>371</v>
+        <v>556</v>
       </c>
       <c r="T263" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N264" t="n">
         <v>12000</v>
@@ -21497,7 +21497,7 @@
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T264" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21560,24 +21560,24 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O265" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P265" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T265" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E266" t="n">
         <v>9</v>
@@ -21644,20 +21644,20 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N266" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O266" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P266" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T266" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N267" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O267" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P267" t="n">
-        <v>16000</v>
+        <v>3714</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>889</v>
+        <v>371</v>
       </c>
       <c r="T267" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E268" t="n">
         <v>9</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="N268" t="n">
         <v>12000</v>
       </c>
       <c r="O268" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P268" t="n">
-        <v>12476</v>
+        <v>12000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21822,11 +21822,11 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1248</v>
+        <v>1200</v>
       </c>
       <c r="T268" t="n">
         <v>10</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -21880,36 +21880,36 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N269" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O269" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P269" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S269" t="n">
         <v>1000</v>
       </c>
       <c r="T269" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N270" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O270" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P270" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21982,11 +21982,11 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T270" t="n">
         <v>10</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -22035,41 +22035,41 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N271" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O271" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P271" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T271" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,32 +22124,32 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="N272" t="n">
         <v>12000</v>
       </c>
       <c r="O272" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P272" t="n">
-        <v>12000</v>
+        <v>12476</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>667</v>
+        <v>1248</v>
       </c>
       <c r="T272" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,32 +22204,32 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N273" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O273" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P273" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T273" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E274" t="n">
         <v>9</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N274" t="n">
         <v>12000</v>
@@ -22297,19 +22297,19 @@
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T274" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E275" t="n">
         <v>9</v>
@@ -22355,16 +22355,16 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N275" t="n">
         <v>10000</v>
@@ -22377,19 +22377,19 @@
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T275" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E276" t="n">
         <v>9</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P276" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44362</v>
+        <v>44475</v>
       </c>
       <c r="E277" t="n">
         <v>9</v>
@@ -22515,29 +22515,29 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N277" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>24429</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1221</v>
+        <v>444</v>
       </c>
       <c r="T277" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,20 +22604,20 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O278" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P278" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="T278" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,20 +22684,20 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N279" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O279" t="n">
         <v>10000</v>
       </c>
       <c r="P279" t="n">
-        <v>9545</v>
+        <v>10000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22755,29 +22755,29 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="N280" t="n">
-        <v>202000</v>
+        <v>8000</v>
       </c>
       <c r="O280" t="n">
-        <v>225000</v>
+        <v>8000</v>
       </c>
       <c r="P280" t="n">
-        <v>215800</v>
+        <v>8000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="T280" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22835,29 +22835,29 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>285</v>
+        <v>70</v>
       </c>
       <c r="N281" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O281" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P281" t="n">
-        <v>14000</v>
+        <v>24429</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1400</v>
+        <v>1221</v>
       </c>
       <c r="T281" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,32 +22924,32 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="N282" t="n">
-        <v>34000</v>
+        <v>4500</v>
       </c>
       <c r="O282" t="n">
-        <v>34000</v>
+        <v>4500</v>
       </c>
       <c r="P282" t="n">
-        <v>34000</v>
+        <v>4500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1889</v>
+        <v>450</v>
       </c>
       <c r="T282" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E283" t="n">
         <v>9</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="N283" t="n">
-        <v>37000</v>
+        <v>9000</v>
       </c>
       <c r="O283" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="P283" t="n">
-        <v>37000</v>
+        <v>9545</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>2056</v>
+        <v>530</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E284" t="n">
         <v>9</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N284" t="n">
-        <v>21000</v>
+        <v>202000</v>
       </c>
       <c r="O284" t="n">
-        <v>21000</v>
+        <v>225000</v>
       </c>
       <c r="P284" t="n">
-        <v>21000</v>
+        <v>215800</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1167</v>
+        <v>480</v>
       </c>
       <c r="T284" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,20 +23164,20 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="N285" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O285" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P285" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T285" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23235,38 +23235,38 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="N286" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="O286" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="P286" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>556</v>
+        <v>1889</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23315,41 +23315,41 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="N287" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="O287" t="n">
-        <v>5000</v>
+        <v>37000</v>
       </c>
       <c r="P287" t="n">
-        <v>4500</v>
+        <v>37000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>450</v>
+        <v>2056</v>
       </c>
       <c r="T287" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E288" t="n">
         <v>9</v>
@@ -23400,24 +23400,24 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N288" t="n">
-        <v>180000</v>
+        <v>21000</v>
       </c>
       <c r="O288" t="n">
-        <v>180000</v>
+        <v>21000</v>
       </c>
       <c r="P288" t="n">
-        <v>180000</v>
+        <v>21000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>400</v>
+        <v>1167</v>
       </c>
       <c r="T288" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N289" t="n">
-        <v>157500</v>
+        <v>18000</v>
       </c>
       <c r="O289" t="n">
-        <v>157500</v>
+        <v>18000</v>
       </c>
       <c r="P289" t="n">
-        <v>157500</v>
+        <v>18000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="T289" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
@@ -23564,20 +23564,20 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N290" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="P290" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>200</v>
+        <v>556</v>
       </c>
       <c r="T290" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
@@ -23635,25 +23635,25 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O291" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P291" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23662,11 +23662,11 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T291" t="n">
         <v>10</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E292" t="n">
         <v>9</v>
@@ -23724,20 +23724,20 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>420</v>
+        <v>10</v>
       </c>
       <c r="N292" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O292" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="P292" t="n">
-        <v>12524</v>
+        <v>180000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>696</v>
+        <v>400</v>
       </c>
       <c r="T292" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N293" t="n">
-        <v>315000</v>
+        <v>157500</v>
       </c>
       <c r="O293" t="n">
-        <v>315000</v>
+        <v>157500</v>
       </c>
       <c r="P293" t="n">
-        <v>315000</v>
+        <v>157500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="T293" t="n">
         <v>450</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="N294" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O294" t="n">
-        <v>6000</v>
+        <v>90000</v>
       </c>
       <c r="P294" t="n">
-        <v>5556</v>
+        <v>90000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>556</v>
+        <v>200</v>
       </c>
       <c r="T294" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23964,20 +23964,20 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="N295" t="n">
-        <v>157000</v>
+        <v>8000</v>
       </c>
       <c r="O295" t="n">
-        <v>157000</v>
+        <v>8000</v>
       </c>
       <c r="P295" t="n">
-        <v>157000</v>
+        <v>8000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>349</v>
+        <v>800</v>
       </c>
       <c r="T295" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>7</v>
+        <v>420</v>
       </c>
       <c r="N296" t="n">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="O296" t="n">
-        <v>100000</v>
+        <v>13000</v>
       </c>
       <c r="P296" t="n">
-        <v>100000</v>
+        <v>12524</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>222</v>
+        <v>696</v>
       </c>
       <c r="T296" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,20 +24124,20 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="N297" t="n">
-        <v>7000</v>
+        <v>315000</v>
       </c>
       <c r="O297" t="n">
-        <v>7000</v>
+        <v>315000</v>
       </c>
       <c r="P297" t="n">
-        <v>7000</v>
+        <v>315000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>389</v>
+        <v>700</v>
       </c>
       <c r="T297" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="N298" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O298" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P298" t="n">
-        <v>22000</v>
+        <v>5556</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1100</v>
+        <v>556</v>
       </c>
       <c r="T298" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24284,20 +24284,20 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>12000</v>
+        <v>157000</v>
       </c>
       <c r="O299" t="n">
-        <v>13000</v>
+        <v>157000</v>
       </c>
       <c r="P299" t="n">
-        <v>12561</v>
+        <v>157000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>698</v>
+        <v>349</v>
       </c>
       <c r="T299" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="300">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
@@ -24360,24 +24360,24 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="N300" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="O300" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="P300" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>667</v>
+        <v>222</v>
       </c>
       <c r="T300" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -24435,16 +24435,16 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="N301" t="n">
         <v>7000</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24515,29 +24515,29 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>235</v>
+        <v>380</v>
       </c>
       <c r="N302" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O302" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P302" t="n">
-        <v>7532</v>
+        <v>22000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>418</v>
+        <v>1100</v>
       </c>
       <c r="T302" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="N303" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O303" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P303" t="n">
-        <v>15000</v>
+        <v>12561</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1000</v>
+        <v>698</v>
       </c>
       <c r="T303" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N304" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O304" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T304" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="N305" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O305" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P305" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24835,29 +24835,29 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="N306" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O306" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P306" t="n">
-        <v>4000</v>
+        <v>7532</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="T306" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307">
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N307" t="n">
-        <v>135000</v>
+        <v>15000</v>
       </c>
       <c r="O307" t="n">
-        <v>135000</v>
+        <v>15000</v>
       </c>
       <c r="P307" t="n">
-        <v>135000</v>
+        <v>15000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T307" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308">
@@ -25000,24 +25000,24 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N308" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="O308" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P308" t="n">
-        <v>4350</v>
+        <v>6000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>242</v>
+        <v>600</v>
       </c>
       <c r="T308" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N309" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O309" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P309" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T309" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310">
@@ -25155,25 +25155,25 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N310" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O310" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P310" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25235,29 +25235,29 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>650</v>
+        <v>19</v>
       </c>
       <c r="N311" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P311" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T311" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="312">
@@ -25315,29 +25315,29 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N312" t="n">
-        <v>20000</v>
+        <v>700</v>
       </c>
       <c r="O312" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P312" t="n">
-        <v>20000</v>
+        <v>4350</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1000</v>
+        <v>242</v>
       </c>
       <c r="T312" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313">
@@ -25400,24 +25400,24 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>3</v>
+        <v>530</v>
       </c>
       <c r="N313" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="O313" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="P313" t="n">
-        <v>135000</v>
+        <v>20000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T313" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314">
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N314" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O314" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P314" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T314" t="n">
         <v>10</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="N315" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,29 +25635,29 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N316" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O316" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P316" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T316" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,29 +25715,29 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="N317" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="O317" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P317" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="T317" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25800,24 +25800,24 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N318" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O318" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P318" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T318" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O319" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P319" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T319" t="n">
         <v>18</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25955,29 +25955,29 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="N320" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O320" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P320" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T320" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26035,16 +26035,16 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N321" t="n">
         <v>8000</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,32 +26124,32 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N322" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O322" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="P322" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="T322" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26195,41 +26195,41 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N323" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P323" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T323" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26280,24 +26280,24 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N324" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="O324" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="P324" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T324" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44334</v>
+        <v>44433</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26355,29 +26355,29 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N325" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O325" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P325" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T325" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44334</v>
+        <v>44307</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,32 +26444,32 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N326" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="O326" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P326" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1056</v>
+        <v>1550</v>
       </c>
       <c r="T326" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44334</v>
+        <v>44307</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26515,16 +26515,16 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N327" t="n">
         <v>10000</v>
@@ -26542,7 +26542,7 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S327" t="n">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,20 +26604,20 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N328" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O328" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P328" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26629,7 +26629,7 @@
         <v>1000</v>
       </c>
       <c r="T328" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329">
@@ -26680,24 +26680,24 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>270000</v>
+        <v>11000</v>
       </c>
       <c r="O329" t="n">
-        <v>270000</v>
+        <v>13000</v>
       </c>
       <c r="P329" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T329" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26755,25 +26755,25 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N330" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P330" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T330" t="n">
         <v>18</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26835,29 +26835,29 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
         <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O331" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P331" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T331" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26915,25 +26915,25 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N332" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O332" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P332" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>278</v>
+        <v>1000</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44468</v>
+        <v>44334</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -26995,29 +26995,29 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N333" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="O333" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P333" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T333" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27087,17 +27087,17 @@
         <v>200</v>
       </c>
       <c r="N334" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O334" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P334" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T334" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N335" t="n">
         <v>8000</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27235,29 +27235,29 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N336" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O336" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P336" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,10 +27266,10 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1100</v>
+        <v>278</v>
       </c>
       <c r="T336" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
         <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>10862</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="T337" t="n">
         <v>18</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,20 +27404,20 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O338" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P338" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27429,7 +27429,7 @@
         <v>500</v>
       </c>
       <c r="T338" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,41 +27475,41 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N339" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="O339" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P339" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T339" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27555,29 +27555,29 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N340" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O340" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P340" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>833</v>
+        <v>1100</v>
       </c>
       <c r="T340" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27640,24 +27640,24 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="N341" t="n">
-        <v>360000</v>
+        <v>10000</v>
       </c>
       <c r="O341" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="P341" t="n">
-        <v>360000</v>
+        <v>10862</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,10 +27666,10 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>800</v>
+        <v>603</v>
       </c>
       <c r="T341" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="N342" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O342" t="n">
         <v>5000</v>
       </c>
       <c r="P342" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T342" t="n">
         <v>10</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27804,32 +27804,32 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N343" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="O343" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="P343" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>556</v>
+        <v>300</v>
       </c>
       <c r="T343" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N344" t="n">
-        <v>225000</v>
+        <v>15000</v>
       </c>
       <c r="O344" t="n">
-        <v>225000</v>
+        <v>15000</v>
       </c>
       <c r="P344" t="n">
-        <v>225000</v>
+        <v>15000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T344" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27964,32 +27964,32 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N345" t="n">
-        <v>20000</v>
+        <v>360000</v>
       </c>
       <c r="O345" t="n">
-        <v>20000</v>
+        <v>360000</v>
       </c>
       <c r="P345" t="n">
-        <v>20000</v>
+        <v>360000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="T345" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28044,20 +28044,20 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="N346" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O346" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P346" t="n">
-        <v>16000</v>
+        <v>4750</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>889</v>
+        <v>475</v>
       </c>
       <c r="T346" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>405</v>
+        <v>200</v>
       </c>
       <c r="N347" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
         <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>9617</v>
+        <v>10000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28200,36 +28200,36 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="N348" t="n">
-        <v>30000</v>
+        <v>225000</v>
       </c>
       <c r="O348" t="n">
-        <v>30000</v>
+        <v>225000</v>
       </c>
       <c r="P348" t="n">
-        <v>30000</v>
+        <v>225000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="T348" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28280,24 +28280,24 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N349" t="n">
-        <v>23400</v>
+        <v>20000</v>
       </c>
       <c r="O349" t="n">
-        <v>23400</v>
+        <v>20000</v>
       </c>
       <c r="P349" t="n">
-        <v>23400</v>
+        <v>20000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="T349" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="N350" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O350" t="n">
-        <v>12600</v>
+        <v>16000</v>
       </c>
       <c r="P350" t="n">
-        <v>12366</v>
+        <v>16000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>687</v>
+        <v>889</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44328</v>
+        <v>44369</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="N351" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O351" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P351" t="n">
-        <v>22000</v>
+        <v>9617</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1222</v>
+        <v>534</v>
       </c>
       <c r="T351" t="n">
         <v>18</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28520,36 +28520,36 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>850</v>
+        <v>110</v>
       </c>
       <c r="N352" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P352" t="n">
-        <v>11529</v>
+        <v>30000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1153</v>
+        <v>2000</v>
       </c>
       <c r="T352" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N353" t="n">
-        <v>20000</v>
+        <v>23400</v>
       </c>
       <c r="O353" t="n">
-        <v>21000</v>
+        <v>23400</v>
       </c>
       <c r="P353" t="n">
-        <v>20417</v>
+        <v>23400</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28622,11 +28622,11 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1134</v>
+        <v>1300</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28680,24 +28680,24 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="N354" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P354" t="n">
-        <v>8621</v>
+        <v>12366</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>862</v>
+        <v>687</v>
       </c>
       <c r="T354" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N355" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O355" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P355" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="T355" t="n">
         <v>18</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,20 +28844,20 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="N356" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O356" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P356" t="n">
-        <v>18760</v>
+        <v>11529</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1042</v>
+        <v>1153</v>
       </c>
       <c r="T356" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28920,24 +28920,24 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="N357" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O357" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P357" t="n">
-        <v>22000</v>
+        <v>20417</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1100</v>
+        <v>1134</v>
       </c>
       <c r="T357" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="N358" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>4000</v>
+        <v>8621</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>400</v>
+        <v>862</v>
       </c>
       <c r="T358" t="n">
         <v>10</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="N359" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O359" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P359" t="n">
-        <v>8556</v>
+        <v>14000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>475</v>
+        <v>778</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,20 +29164,20 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="N360" t="n">
-        <v>225000</v>
+        <v>18000</v>
       </c>
       <c r="O360" t="n">
-        <v>225000</v>
+        <v>20000</v>
       </c>
       <c r="P360" t="n">
-        <v>225000</v>
+        <v>18760</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>500</v>
+        <v>1042</v>
       </c>
       <c r="T360" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="N361" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O361" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P361" t="n">
-        <v>11463</v>
+        <v>22000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>637</v>
+        <v>1100</v>
       </c>
       <c r="T361" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,29 +29315,29 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="N362" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="O362" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="P362" t="n">
-        <v>21367</v>
+        <v>4000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1068</v>
+        <v>400</v>
       </c>
       <c r="T362" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="N363" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O363" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P363" t="n">
-        <v>12000</v>
+        <v>8556</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1200</v>
+        <v>475</v>
       </c>
       <c r="T363" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29484,20 +29484,20 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="N364" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="O364" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="P364" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T364" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="N365" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O365" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P365" t="n">
-        <v>16000</v>
+        <v>11463</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>889</v>
+        <v>637</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,41 +29635,41 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N366" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O366" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P366" t="n">
-        <v>15000</v>
+        <v>21367</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1500</v>
+        <v>1068</v>
       </c>
       <c r="T366" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29715,41 +29715,41 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Tangerina Kara</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Calibre 125</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="N367" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="O367" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="P367" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2056</v>
+        <v>1200</v>
       </c>
       <c r="T367" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N368" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O368" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P368" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N369" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O369" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P369" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>600</v>
+        <v>255</v>
       </c>
       <c r="N370" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O370" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P370" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29982,11 +29982,11 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30035,38 +30035,38 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tangerina Kara</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 125</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>530</v>
+        <v>155</v>
       </c>
       <c r="N371" t="n">
-        <v>7000</v>
+        <v>37000</v>
       </c>
       <c r="O371" t="n">
-        <v>8000</v>
+        <v>37000</v>
       </c>
       <c r="P371" t="n">
-        <v>7472</v>
+        <v>37000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>415</v>
+        <v>2056</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30120,24 +30120,24 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="N372" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="O372" t="n">
-        <v>202000</v>
+        <v>6000</v>
       </c>
       <c r="P372" t="n">
-        <v>192000</v>
+        <v>6000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="T372" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373">
@@ -30200,24 +30200,24 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N373" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O373" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P373" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T373" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30275,29 +30275,29 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>185</v>
+        <v>600</v>
       </c>
       <c r="N374" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O374" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P374" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T374" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30355,29 +30355,29 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>405</v>
+        <v>530</v>
       </c>
       <c r="N375" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O375" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P375" t="n">
-        <v>21309</v>
+        <v>7472</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1065</v>
+        <v>415</v>
       </c>
       <c r="T375" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,20 +30444,20 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="N376" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="O376" t="n">
-        <v>13000</v>
+        <v>202000</v>
       </c>
       <c r="P376" t="n">
-        <v>13000</v>
+        <v>192000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>722</v>
+        <v>427</v>
       </c>
       <c r="T376" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="377">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30520,24 +30520,24 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N377" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O377" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P377" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,10 +30546,10 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T377" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,20 +30604,20 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="N378" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O378" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P378" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T378" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30675,29 +30675,29 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="N379" t="n">
-        <v>4300</v>
+        <v>21000</v>
       </c>
       <c r="O379" t="n">
-        <v>4300</v>
+        <v>22000</v>
       </c>
       <c r="P379" t="n">
-        <v>4300</v>
+        <v>21309</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>430</v>
+        <v>1065</v>
       </c>
       <c r="T379" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,20 +30764,20 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T380" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381">
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N381" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O381" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>300</v>
+        <v>667</v>
       </c>
       <c r="T381" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30915,29 +30915,29 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P382" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T382" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -30995,29 +30995,29 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N383" t="n">
-        <v>8000</v>
+        <v>4300</v>
       </c>
       <c r="O383" t="n">
-        <v>8000</v>
+        <v>4300</v>
       </c>
       <c r="P383" t="n">
-        <v>8000</v>
+        <v>4300</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="T383" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31084,20 +31084,20 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="N384" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O384" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31109,7 +31109,7 @@
         <v>667</v>
       </c>
       <c r="T384" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N385" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="O385" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="P385" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T385" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,20 +31244,20 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>2180</v>
+        <v>200</v>
       </c>
       <c r="N386" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O386" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P386" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T386" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,20 +31324,20 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="N387" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="O387" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P387" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T387" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388">
@@ -31395,29 +31395,29 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>630</v>
+        <v>1600</v>
       </c>
       <c r="N388" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O388" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P388" t="n">
-        <v>21206</v>
+        <v>12000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1060</v>
+        <v>667</v>
       </c>
       <c r="T388" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="389">
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,20 +31484,20 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="N389" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P389" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T389" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,20 +31564,20 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>200</v>
+        <v>2180</v>
       </c>
       <c r="N390" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O390" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P390" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T390" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,20 +31644,20 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N391" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="O391" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="P391" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="T391" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31720,24 +31720,24 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>95</v>
+        <v>630</v>
       </c>
       <c r="N392" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="O392" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P392" t="n">
-        <v>26000</v>
+        <v>21206</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,10 +31746,10 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1444</v>
+        <v>1060</v>
       </c>
       <c r="T392" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31795,16 +31795,16 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N393" t="n">
         <v>12000</v>
@@ -31817,7 +31817,7 @@
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31875,29 +31875,29 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N394" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O394" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P394" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1125</v>
+        <v>667</v>
       </c>
       <c r="T394" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31955,25 +31955,25 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N395" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O395" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P395" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32035,29 +32035,29 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N396" t="n">
-        <v>4000</v>
+        <v>26000</v>
       </c>
       <c r="O396" t="n">
-        <v>4000</v>
+        <v>26000</v>
       </c>
       <c r="P396" t="n">
-        <v>4000</v>
+        <v>26000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>400</v>
+        <v>1444</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32120,36 +32120,36 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N397" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O397" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T397" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32200,36 +32200,36 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="N398" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O398" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P398" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1111</v>
+        <v>1125</v>
       </c>
       <c r="T398" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N399" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O399" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P399" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>944</v>
+        <v>500</v>
       </c>
       <c r="T399" t="n">
         <v>18</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="N400" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O400" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P400" t="n">
-        <v>12562</v>
+        <v>4000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1256</v>
+        <v>400</v>
       </c>
       <c r="T400" t="n">
         <v>10</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,20 +32444,20 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="N401" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O401" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P401" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32520,36 +32520,36 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N402" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O402" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P402" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T402" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32595,25 +32595,25 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N403" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O403" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P403" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,32 +32684,32 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N404" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P404" t="n">
-        <v>20000</v>
+        <v>12562</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1000</v>
+        <v>1256</v>
       </c>
       <c r="T404" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405">
@@ -32727,68 +32727,388 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E405" t="n">
+        <v>9</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>100102004</v>
+      <